--- a/TaiLieuThietKe/ChiTietManHinh/ChiTietManHinh_SignUp.xlsx
+++ b/TaiLieuThietKe/ChiTietManHinh/ChiTietManHinh_SignUp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MonThayThe\TaiLieuThietKe\ChiTietManHinh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45995A0E-ABB0-475A-B6B2-41D02774501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A60915-A9C3-453D-9BBC-1C21DB93E3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{840D504B-1D9F-426C-BF9C-9C9C8E906DED}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="131">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -564,9 +564,6 @@
     <t>(3) Xử lý chuyển sang màn hình đăng nhập</t>
   </si>
   <si>
-    <t>(4) Xử lý button Hủy</t>
-  </si>
-  <si>
     <t>10. Xử lý chi tiết</t>
     <phoneticPr fontId="0"/>
   </si>
@@ -643,9 +640,6 @@
     <t>Nhấn vào button Hủy để trở về màn hình đăng nhập</t>
   </si>
   <si>
-    <t>CONFIRMPASSWORD_ERROR1</t>
-  </si>
-  <si>
     <t>EMAIL_BLANK_ERROR</t>
   </si>
   <si>
@@ -662,6 +656,21 @@
   </si>
   <si>
     <t>CONFIRMPASSWORD_BLANK_ERROR</t>
+  </si>
+  <si>
+    <t>Trở về</t>
+  </si>
+  <si>
+    <t>(4) Xử lý button Trở về</t>
+  </si>
+  <si>
+    <t>Email đã tồn tại trong hệ thống</t>
+  </si>
+  <si>
+    <t>EMAIL_DUPLICATE</t>
+  </si>
+  <si>
+    <t>CONFIRMPASSWORD_ERROR</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1659,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="452">
+  <cellXfs count="451">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2522,6 +2531,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2633,12 +2651,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2654,8 +2666,365 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2667,366 +3036,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3059,7 +3068,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4491,7 +4499,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>52093</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1296573" cy="264560"/>
+    <xdr:ext cx="1347741" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="TextBox 10">
@@ -4505,8 +4513,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1794018" y="2973093"/>
-          <a:ext cx="1296573" cy="264560"/>
+          <a:off x="1817550" y="2980564"/>
+          <a:ext cx="1347741" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4534,12 +4542,8 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Nhập</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> lại mật khẩu</a:t>
+            <a:t>Xác nhận mật khẩu</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
@@ -5122,187 +5126,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="17" customFormat="1" ht="17" customHeight="1" thickTop="1">
-      <c r="A1" s="320" t="s">
+      <c r="A1" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="322"/>
-      <c r="J1" s="329" t="s">
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="332" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="321"/>
-      <c r="L1" s="321"/>
-      <c r="M1" s="321"/>
-      <c r="N1" s="321"/>
-      <c r="O1" s="322"/>
-      <c r="P1" s="329" t="s">
+      <c r="K1" s="324"/>
+      <c r="L1" s="324"/>
+      <c r="M1" s="324"/>
+      <c r="N1" s="324"/>
+      <c r="O1" s="325"/>
+      <c r="P1" s="332" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="321"/>
-      <c r="R1" s="321"/>
-      <c r="S1" s="321"/>
-      <c r="T1" s="321"/>
-      <c r="U1" s="322"/>
-      <c r="V1" s="330" t="s">
+      <c r="Q1" s="324"/>
+      <c r="R1" s="324"/>
+      <c r="S1" s="324"/>
+      <c r="T1" s="324"/>
+      <c r="U1" s="325"/>
+      <c r="V1" s="333" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="331"/>
-      <c r="X1" s="331"/>
-      <c r="Y1" s="331"/>
-      <c r="Z1" s="332"/>
-      <c r="AA1" s="336" t="s">
+      <c r="W1" s="334"/>
+      <c r="X1" s="334"/>
+      <c r="Y1" s="334"/>
+      <c r="Z1" s="335"/>
+      <c r="AA1" s="339" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="321"/>
-      <c r="AC1" s="321"/>
-      <c r="AD1" s="321"/>
-      <c r="AE1" s="321"/>
-      <c r="AF1" s="321"/>
-      <c r="AG1" s="321"/>
-      <c r="AH1" s="321"/>
-      <c r="AI1" s="321"/>
-      <c r="AJ1" s="321"/>
-      <c r="AK1" s="321"/>
-      <c r="AL1" s="322"/>
-      <c r="AM1" s="307" t="s">
+      <c r="AB1" s="324"/>
+      <c r="AC1" s="324"/>
+      <c r="AD1" s="324"/>
+      <c r="AE1" s="324"/>
+      <c r="AF1" s="324"/>
+      <c r="AG1" s="324"/>
+      <c r="AH1" s="324"/>
+      <c r="AI1" s="324"/>
+      <c r="AJ1" s="324"/>
+      <c r="AK1" s="324"/>
+      <c r="AL1" s="325"/>
+      <c r="AM1" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="308"/>
-      <c r="AO1" s="304" t="s">
+      <c r="AN1" s="311"/>
+      <c r="AO1" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="305"/>
-      <c r="AQ1" s="306"/>
-      <c r="AR1" s="307" t="s">
+      <c r="AP1" s="308"/>
+      <c r="AQ1" s="309"/>
+      <c r="AR1" s="310" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="308"/>
-      <c r="AT1" s="309">
+      <c r="AS1" s="311"/>
+      <c r="AT1" s="312">
         <v>43110</v>
       </c>
-      <c r="AU1" s="310"/>
-      <c r="AV1" s="310"/>
-      <c r="AW1" s="311"/>
+      <c r="AU1" s="313"/>
+      <c r="AV1" s="313"/>
+      <c r="AW1" s="314"/>
     </row>
     <row r="2" spans="1:49" s="17" customFormat="1" ht="17" customHeight="1">
-      <c r="A2" s="323"/>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="324"/>
-      <c r="I2" s="325"/>
-      <c r="J2" s="323"/>
-      <c r="K2" s="324"/>
-      <c r="L2" s="324"/>
-      <c r="M2" s="324"/>
-      <c r="N2" s="324"/>
-      <c r="O2" s="325"/>
-      <c r="P2" s="323"/>
-      <c r="Q2" s="324"/>
-      <c r="R2" s="324"/>
-      <c r="S2" s="324"/>
-      <c r="T2" s="324"/>
-      <c r="U2" s="325"/>
-      <c r="V2" s="333"/>
-      <c r="W2" s="334"/>
-      <c r="X2" s="334"/>
-      <c r="Y2" s="334"/>
-      <c r="Z2" s="335"/>
-      <c r="AA2" s="337"/>
-      <c r="AB2" s="324"/>
-      <c r="AC2" s="324"/>
-      <c r="AD2" s="324"/>
-      <c r="AE2" s="324"/>
-      <c r="AF2" s="324"/>
-      <c r="AG2" s="324"/>
-      <c r="AH2" s="324"/>
-      <c r="AI2" s="324"/>
-      <c r="AJ2" s="324"/>
-      <c r="AK2" s="324"/>
-      <c r="AL2" s="325"/>
-      <c r="AM2" s="312" t="s">
+      <c r="A2" s="326"/>
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="328"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="327"/>
+      <c r="L2" s="327"/>
+      <c r="M2" s="327"/>
+      <c r="N2" s="327"/>
+      <c r="O2" s="328"/>
+      <c r="P2" s="326"/>
+      <c r="Q2" s="327"/>
+      <c r="R2" s="327"/>
+      <c r="S2" s="327"/>
+      <c r="T2" s="327"/>
+      <c r="U2" s="328"/>
+      <c r="V2" s="336"/>
+      <c r="W2" s="337"/>
+      <c r="X2" s="337"/>
+      <c r="Y2" s="337"/>
+      <c r="Z2" s="338"/>
+      <c r="AA2" s="340"/>
+      <c r="AB2" s="327"/>
+      <c r="AC2" s="327"/>
+      <c r="AD2" s="327"/>
+      <c r="AE2" s="327"/>
+      <c r="AF2" s="327"/>
+      <c r="AG2" s="327"/>
+      <c r="AH2" s="327"/>
+      <c r="AI2" s="327"/>
+      <c r="AJ2" s="327"/>
+      <c r="AK2" s="327"/>
+      <c r="AL2" s="328"/>
+      <c r="AM2" s="315" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="313"/>
-      <c r="AO2" s="314"/>
-      <c r="AP2" s="315"/>
-      <c r="AQ2" s="316"/>
-      <c r="AR2" s="312" t="s">
+      <c r="AN2" s="316"/>
+      <c r="AO2" s="317"/>
+      <c r="AP2" s="318"/>
+      <c r="AQ2" s="319"/>
+      <c r="AR2" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="313"/>
-      <c r="AT2" s="317"/>
-      <c r="AU2" s="318"/>
-      <c r="AV2" s="318"/>
-      <c r="AW2" s="319"/>
+      <c r="AS2" s="316"/>
+      <c r="AT2" s="320"/>
+      <c r="AU2" s="321"/>
+      <c r="AV2" s="321"/>
+      <c r="AW2" s="322"/>
     </row>
     <row r="3" spans="1:49" ht="17" customHeight="1" thickBot="1">
-      <c r="A3" s="326"/>
-      <c r="B3" s="327"/>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="327"/>
-      <c r="L3" s="327"/>
-      <c r="M3" s="327"/>
-      <c r="N3" s="327"/>
-      <c r="O3" s="328"/>
-      <c r="P3" s="326"/>
-      <c r="Q3" s="327"/>
-      <c r="R3" s="327"/>
-      <c r="S3" s="327"/>
-      <c r="T3" s="327"/>
-      <c r="U3" s="328"/>
-      <c r="V3" s="338" t="s">
+      <c r="A3" s="329"/>
+      <c r="B3" s="330"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="330"/>
+      <c r="I3" s="331"/>
+      <c r="J3" s="329"/>
+      <c r="K3" s="330"/>
+      <c r="L3" s="330"/>
+      <c r="M3" s="330"/>
+      <c r="N3" s="330"/>
+      <c r="O3" s="331"/>
+      <c r="P3" s="329"/>
+      <c r="Q3" s="330"/>
+      <c r="R3" s="330"/>
+      <c r="S3" s="330"/>
+      <c r="T3" s="330"/>
+      <c r="U3" s="331"/>
+      <c r="V3" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="339"/>
-      <c r="X3" s="339"/>
-      <c r="Y3" s="339"/>
-      <c r="Z3" s="340"/>
-      <c r="AA3" s="341" t="s">
+      <c r="W3" s="342"/>
+      <c r="X3" s="342"/>
+      <c r="Y3" s="342"/>
+      <c r="Z3" s="343"/>
+      <c r="AA3" s="304" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="342"/>
-      <c r="AC3" s="342"/>
-      <c r="AD3" s="342"/>
-      <c r="AE3" s="342"/>
-      <c r="AF3" s="342"/>
-      <c r="AG3" s="343"/>
-      <c r="AH3" s="344" t="s">
+      <c r="AB3" s="305"/>
+      <c r="AC3" s="305"/>
+      <c r="AD3" s="305"/>
+      <c r="AE3" s="305"/>
+      <c r="AF3" s="305"/>
+      <c r="AG3" s="344"/>
+      <c r="AH3" s="345" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="345"/>
-      <c r="AJ3" s="345"/>
-      <c r="AK3" s="345"/>
-      <c r="AL3" s="346"/>
-      <c r="AM3" s="341" t="s">
+      <c r="AI3" s="346"/>
+      <c r="AJ3" s="346"/>
+      <c r="AK3" s="346"/>
+      <c r="AL3" s="347"/>
+      <c r="AM3" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="342"/>
-      <c r="AO3" s="342"/>
-      <c r="AP3" s="342"/>
-      <c r="AQ3" s="342"/>
-      <c r="AR3" s="342"/>
-      <c r="AS3" s="342"/>
-      <c r="AT3" s="342"/>
-      <c r="AU3" s="342"/>
-      <c r="AV3" s="342"/>
-      <c r="AW3" s="347"/>
+      <c r="AN3" s="305"/>
+      <c r="AO3" s="305"/>
+      <c r="AP3" s="305"/>
+      <c r="AQ3" s="305"/>
+      <c r="AR3" s="305"/>
+      <c r="AS3" s="305"/>
+      <c r="AT3" s="305"/>
+      <c r="AU3" s="305"/>
+      <c r="AV3" s="305"/>
+      <c r="AW3" s="306"/>
     </row>
     <row r="4" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="35"/>
@@ -5530,259 +5534,259 @@
     </row>
     <row r="13" spans="1:49" ht="13.5" customHeight="1">
       <c r="A13" s="35"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="438" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="349"/>
-      <c r="M13" s="349"/>
-      <c r="N13" s="349"/>
-      <c r="O13" s="349"/>
-      <c r="P13" s="349"/>
-      <c r="Q13" s="349"/>
-      <c r="R13" s="349"/>
-      <c r="S13" s="349"/>
-      <c r="T13" s="349"/>
-      <c r="U13" s="349"/>
-      <c r="V13" s="349"/>
-      <c r="W13" s="349"/>
-      <c r="X13" s="349"/>
-      <c r="Y13" s="349"/>
-      <c r="Z13" s="349"/>
-      <c r="AA13" s="349"/>
-      <c r="AB13" s="349"/>
-      <c r="AC13" s="349"/>
-      <c r="AD13" s="349"/>
-      <c r="AE13" s="349"/>
-      <c r="AF13" s="349"/>
-      <c r="AG13" s="349"/>
-      <c r="AH13" s="349"/>
-      <c r="AI13" s="349"/>
-      <c r="AJ13" s="349"/>
-      <c r="AK13" s="349"/>
-      <c r="AL13" s="349"/>
-      <c r="AM13" s="349"/>
-      <c r="AN13" s="349"/>
-      <c r="AO13" s="349"/>
-      <c r="AP13" s="349"/>
-      <c r="AQ13" s="349"/>
-      <c r="AR13" s="349"/>
-      <c r="AS13" s="349"/>
-      <c r="AT13" s="349"/>
-      <c r="AU13" s="349"/>
-      <c r="AV13" s="349"/>
+      <c r="C13" s="439"/>
+      <c r="D13" s="439"/>
+      <c r="E13" s="439"/>
+      <c r="F13" s="439"/>
+      <c r="G13" s="439"/>
+      <c r="H13" s="439"/>
+      <c r="I13" s="439"/>
+      <c r="J13" s="439"/>
+      <c r="K13" s="439"/>
+      <c r="L13" s="439"/>
+      <c r="M13" s="439"/>
+      <c r="N13" s="439"/>
+      <c r="O13" s="439"/>
+      <c r="P13" s="439"/>
+      <c r="Q13" s="439"/>
+      <c r="R13" s="439"/>
+      <c r="S13" s="439"/>
+      <c r="T13" s="439"/>
+      <c r="U13" s="439"/>
+      <c r="V13" s="439"/>
+      <c r="W13" s="439"/>
+      <c r="X13" s="439"/>
+      <c r="Y13" s="439"/>
+      <c r="Z13" s="439"/>
+      <c r="AA13" s="439"/>
+      <c r="AB13" s="439"/>
+      <c r="AC13" s="439"/>
+      <c r="AD13" s="439"/>
+      <c r="AE13" s="439"/>
+      <c r="AF13" s="439"/>
+      <c r="AG13" s="439"/>
+      <c r="AH13" s="439"/>
+      <c r="AI13" s="439"/>
+      <c r="AJ13" s="439"/>
+      <c r="AK13" s="439"/>
+      <c r="AL13" s="439"/>
+      <c r="AM13" s="439"/>
+      <c r="AN13" s="439"/>
+      <c r="AO13" s="439"/>
+      <c r="AP13" s="439"/>
+      <c r="AQ13" s="439"/>
+      <c r="AR13" s="439"/>
+      <c r="AS13" s="439"/>
+      <c r="AT13" s="439"/>
+      <c r="AU13" s="439"/>
+      <c r="AV13" s="439"/>
       <c r="AW13" s="38"/>
     </row>
     <row r="14" spans="1:49" ht="13.5" customHeight="1">
       <c r="A14" s="35"/>
-      <c r="B14" s="349"/>
-      <c r="C14" s="349"/>
-      <c r="D14" s="349"/>
-      <c r="E14" s="349"/>
-      <c r="F14" s="349"/>
-      <c r="G14" s="349"/>
-      <c r="H14" s="349"/>
-      <c r="I14" s="349"/>
-      <c r="J14" s="349"/>
-      <c r="K14" s="349"/>
-      <c r="L14" s="349"/>
-      <c r="M14" s="349"/>
-      <c r="N14" s="349"/>
-      <c r="O14" s="349"/>
-      <c r="P14" s="349"/>
-      <c r="Q14" s="349"/>
-      <c r="R14" s="349"/>
-      <c r="S14" s="349"/>
-      <c r="T14" s="349"/>
-      <c r="U14" s="349"/>
-      <c r="V14" s="349"/>
-      <c r="W14" s="349"/>
-      <c r="X14" s="349"/>
-      <c r="Y14" s="349"/>
-      <c r="Z14" s="349"/>
-      <c r="AA14" s="349"/>
-      <c r="AB14" s="349"/>
-      <c r="AC14" s="349"/>
-      <c r="AD14" s="349"/>
-      <c r="AE14" s="349"/>
-      <c r="AF14" s="349"/>
-      <c r="AG14" s="349"/>
-      <c r="AH14" s="349"/>
-      <c r="AI14" s="349"/>
-      <c r="AJ14" s="349"/>
-      <c r="AK14" s="349"/>
-      <c r="AL14" s="349"/>
-      <c r="AM14" s="349"/>
-      <c r="AN14" s="349"/>
-      <c r="AO14" s="349"/>
-      <c r="AP14" s="349"/>
-      <c r="AQ14" s="349"/>
-      <c r="AR14" s="349"/>
-      <c r="AS14" s="349"/>
-      <c r="AT14" s="349"/>
-      <c r="AU14" s="349"/>
-      <c r="AV14" s="349"/>
+      <c r="B14" s="439"/>
+      <c r="C14" s="439"/>
+      <c r="D14" s="439"/>
+      <c r="E14" s="439"/>
+      <c r="F14" s="439"/>
+      <c r="G14" s="439"/>
+      <c r="H14" s="439"/>
+      <c r="I14" s="439"/>
+      <c r="J14" s="439"/>
+      <c r="K14" s="439"/>
+      <c r="L14" s="439"/>
+      <c r="M14" s="439"/>
+      <c r="N14" s="439"/>
+      <c r="O14" s="439"/>
+      <c r="P14" s="439"/>
+      <c r="Q14" s="439"/>
+      <c r="R14" s="439"/>
+      <c r="S14" s="439"/>
+      <c r="T14" s="439"/>
+      <c r="U14" s="439"/>
+      <c r="V14" s="439"/>
+      <c r="W14" s="439"/>
+      <c r="X14" s="439"/>
+      <c r="Y14" s="439"/>
+      <c r="Z14" s="439"/>
+      <c r="AA14" s="439"/>
+      <c r="AB14" s="439"/>
+      <c r="AC14" s="439"/>
+      <c r="AD14" s="439"/>
+      <c r="AE14" s="439"/>
+      <c r="AF14" s="439"/>
+      <c r="AG14" s="439"/>
+      <c r="AH14" s="439"/>
+      <c r="AI14" s="439"/>
+      <c r="AJ14" s="439"/>
+      <c r="AK14" s="439"/>
+      <c r="AL14" s="439"/>
+      <c r="AM14" s="439"/>
+      <c r="AN14" s="439"/>
+      <c r="AO14" s="439"/>
+      <c r="AP14" s="439"/>
+      <c r="AQ14" s="439"/>
+      <c r="AR14" s="439"/>
+      <c r="AS14" s="439"/>
+      <c r="AT14" s="439"/>
+      <c r="AU14" s="439"/>
+      <c r="AV14" s="439"/>
       <c r="AW14" s="38"/>
     </row>
     <row r="15" spans="1:49" ht="13.5" customHeight="1">
       <c r="A15" s="35"/>
-      <c r="B15" s="349"/>
-      <c r="C15" s="349"/>
-      <c r="D15" s="349"/>
-      <c r="E15" s="349"/>
-      <c r="F15" s="349"/>
-      <c r="G15" s="349"/>
-      <c r="H15" s="349"/>
-      <c r="I15" s="349"/>
-      <c r="J15" s="349"/>
-      <c r="K15" s="349"/>
-      <c r="L15" s="349"/>
-      <c r="M15" s="349"/>
-      <c r="N15" s="349"/>
-      <c r="O15" s="349"/>
-      <c r="P15" s="349"/>
-      <c r="Q15" s="349"/>
-      <c r="R15" s="349"/>
-      <c r="S15" s="349"/>
-      <c r="T15" s="349"/>
-      <c r="U15" s="349"/>
-      <c r="V15" s="349"/>
-      <c r="W15" s="349"/>
-      <c r="X15" s="349"/>
-      <c r="Y15" s="349"/>
-      <c r="Z15" s="349"/>
-      <c r="AA15" s="349"/>
-      <c r="AB15" s="349"/>
-      <c r="AC15" s="349"/>
-      <c r="AD15" s="349"/>
-      <c r="AE15" s="349"/>
-      <c r="AF15" s="349"/>
-      <c r="AG15" s="349"/>
-      <c r="AH15" s="349"/>
-      <c r="AI15" s="349"/>
-      <c r="AJ15" s="349"/>
-      <c r="AK15" s="349"/>
-      <c r="AL15" s="349"/>
-      <c r="AM15" s="349"/>
-      <c r="AN15" s="349"/>
-      <c r="AO15" s="349"/>
-      <c r="AP15" s="349"/>
-      <c r="AQ15" s="349"/>
-      <c r="AR15" s="349"/>
-      <c r="AS15" s="349"/>
-      <c r="AT15" s="349"/>
-      <c r="AU15" s="349"/>
-      <c r="AV15" s="349"/>
+      <c r="B15" s="439"/>
+      <c r="C15" s="439"/>
+      <c r="D15" s="439"/>
+      <c r="E15" s="439"/>
+      <c r="F15" s="439"/>
+      <c r="G15" s="439"/>
+      <c r="H15" s="439"/>
+      <c r="I15" s="439"/>
+      <c r="J15" s="439"/>
+      <c r="K15" s="439"/>
+      <c r="L15" s="439"/>
+      <c r="M15" s="439"/>
+      <c r="N15" s="439"/>
+      <c r="O15" s="439"/>
+      <c r="P15" s="439"/>
+      <c r="Q15" s="439"/>
+      <c r="R15" s="439"/>
+      <c r="S15" s="439"/>
+      <c r="T15" s="439"/>
+      <c r="U15" s="439"/>
+      <c r="V15" s="439"/>
+      <c r="W15" s="439"/>
+      <c r="X15" s="439"/>
+      <c r="Y15" s="439"/>
+      <c r="Z15" s="439"/>
+      <c r="AA15" s="439"/>
+      <c r="AB15" s="439"/>
+      <c r="AC15" s="439"/>
+      <c r="AD15" s="439"/>
+      <c r="AE15" s="439"/>
+      <c r="AF15" s="439"/>
+      <c r="AG15" s="439"/>
+      <c r="AH15" s="439"/>
+      <c r="AI15" s="439"/>
+      <c r="AJ15" s="439"/>
+      <c r="AK15" s="439"/>
+      <c r="AL15" s="439"/>
+      <c r="AM15" s="439"/>
+      <c r="AN15" s="439"/>
+      <c r="AO15" s="439"/>
+      <c r="AP15" s="439"/>
+      <c r="AQ15" s="439"/>
+      <c r="AR15" s="439"/>
+      <c r="AS15" s="439"/>
+      <c r="AT15" s="439"/>
+      <c r="AU15" s="439"/>
+      <c r="AV15" s="439"/>
       <c r="AW15" s="38"/>
     </row>
     <row r="16" spans="1:49" ht="13.5" customHeight="1">
       <c r="A16" s="35"/>
-      <c r="B16" s="349"/>
-      <c r="C16" s="349"/>
-      <c r="D16" s="349"/>
-      <c r="E16" s="349"/>
-      <c r="F16" s="349"/>
-      <c r="G16" s="349"/>
-      <c r="H16" s="349"/>
-      <c r="I16" s="349"/>
-      <c r="J16" s="349"/>
-      <c r="K16" s="349"/>
-      <c r="L16" s="349"/>
-      <c r="M16" s="349"/>
-      <c r="N16" s="349"/>
-      <c r="O16" s="349"/>
-      <c r="P16" s="349"/>
-      <c r="Q16" s="349"/>
-      <c r="R16" s="349"/>
-      <c r="S16" s="349"/>
-      <c r="T16" s="349"/>
-      <c r="U16" s="349"/>
-      <c r="V16" s="349"/>
-      <c r="W16" s="349"/>
-      <c r="X16" s="349"/>
-      <c r="Y16" s="349"/>
-      <c r="Z16" s="349"/>
-      <c r="AA16" s="349"/>
-      <c r="AB16" s="349"/>
-      <c r="AC16" s="349"/>
-      <c r="AD16" s="349"/>
-      <c r="AE16" s="349"/>
-      <c r="AF16" s="349"/>
-      <c r="AG16" s="349"/>
-      <c r="AH16" s="349"/>
-      <c r="AI16" s="349"/>
-      <c r="AJ16" s="349"/>
-      <c r="AK16" s="349"/>
-      <c r="AL16" s="349"/>
-      <c r="AM16" s="349"/>
-      <c r="AN16" s="349"/>
-      <c r="AO16" s="349"/>
-      <c r="AP16" s="349"/>
-      <c r="AQ16" s="349"/>
-      <c r="AR16" s="349"/>
-      <c r="AS16" s="349"/>
-      <c r="AT16" s="349"/>
-      <c r="AU16" s="349"/>
-      <c r="AV16" s="349"/>
+      <c r="B16" s="439"/>
+      <c r="C16" s="439"/>
+      <c r="D16" s="439"/>
+      <c r="E16" s="439"/>
+      <c r="F16" s="439"/>
+      <c r="G16" s="439"/>
+      <c r="H16" s="439"/>
+      <c r="I16" s="439"/>
+      <c r="J16" s="439"/>
+      <c r="K16" s="439"/>
+      <c r="L16" s="439"/>
+      <c r="M16" s="439"/>
+      <c r="N16" s="439"/>
+      <c r="O16" s="439"/>
+      <c r="P16" s="439"/>
+      <c r="Q16" s="439"/>
+      <c r="R16" s="439"/>
+      <c r="S16" s="439"/>
+      <c r="T16" s="439"/>
+      <c r="U16" s="439"/>
+      <c r="V16" s="439"/>
+      <c r="W16" s="439"/>
+      <c r="X16" s="439"/>
+      <c r="Y16" s="439"/>
+      <c r="Z16" s="439"/>
+      <c r="AA16" s="439"/>
+      <c r="AB16" s="439"/>
+      <c r="AC16" s="439"/>
+      <c r="AD16" s="439"/>
+      <c r="AE16" s="439"/>
+      <c r="AF16" s="439"/>
+      <c r="AG16" s="439"/>
+      <c r="AH16" s="439"/>
+      <c r="AI16" s="439"/>
+      <c r="AJ16" s="439"/>
+      <c r="AK16" s="439"/>
+      <c r="AL16" s="439"/>
+      <c r="AM16" s="439"/>
+      <c r="AN16" s="439"/>
+      <c r="AO16" s="439"/>
+      <c r="AP16" s="439"/>
+      <c r="AQ16" s="439"/>
+      <c r="AR16" s="439"/>
+      <c r="AS16" s="439"/>
+      <c r="AT16" s="439"/>
+      <c r="AU16" s="439"/>
+      <c r="AV16" s="439"/>
       <c r="AW16" s="38"/>
     </row>
     <row r="17" spans="1:49" ht="13.5" customHeight="1">
       <c r="A17" s="35"/>
-      <c r="B17" s="349"/>
-      <c r="C17" s="349"/>
-      <c r="D17" s="349"/>
-      <c r="E17" s="349"/>
-      <c r="F17" s="349"/>
-      <c r="G17" s="349"/>
-      <c r="H17" s="349"/>
-      <c r="I17" s="349"/>
-      <c r="J17" s="349"/>
-      <c r="K17" s="349"/>
-      <c r="L17" s="349"/>
-      <c r="M17" s="349"/>
-      <c r="N17" s="349"/>
-      <c r="O17" s="349"/>
-      <c r="P17" s="349"/>
-      <c r="Q17" s="349"/>
-      <c r="R17" s="349"/>
-      <c r="S17" s="349"/>
-      <c r="T17" s="349"/>
-      <c r="U17" s="349"/>
-      <c r="V17" s="349"/>
-      <c r="W17" s="349"/>
-      <c r="X17" s="349"/>
-      <c r="Y17" s="349"/>
-      <c r="Z17" s="349"/>
-      <c r="AA17" s="349"/>
-      <c r="AB17" s="349"/>
-      <c r="AC17" s="349"/>
-      <c r="AD17" s="349"/>
-      <c r="AE17" s="349"/>
-      <c r="AF17" s="349"/>
-      <c r="AG17" s="349"/>
-      <c r="AH17" s="349"/>
-      <c r="AI17" s="349"/>
-      <c r="AJ17" s="349"/>
-      <c r="AK17" s="349"/>
-      <c r="AL17" s="349"/>
-      <c r="AM17" s="349"/>
-      <c r="AN17" s="349"/>
-      <c r="AO17" s="349"/>
-      <c r="AP17" s="349"/>
-      <c r="AQ17" s="349"/>
-      <c r="AR17" s="349"/>
-      <c r="AS17" s="349"/>
-      <c r="AT17" s="349"/>
-      <c r="AU17" s="349"/>
-      <c r="AV17" s="349"/>
+      <c r="B17" s="439"/>
+      <c r="C17" s="439"/>
+      <c r="D17" s="439"/>
+      <c r="E17" s="439"/>
+      <c r="F17" s="439"/>
+      <c r="G17" s="439"/>
+      <c r="H17" s="439"/>
+      <c r="I17" s="439"/>
+      <c r="J17" s="439"/>
+      <c r="K17" s="439"/>
+      <c r="L17" s="439"/>
+      <c r="M17" s="439"/>
+      <c r="N17" s="439"/>
+      <c r="O17" s="439"/>
+      <c r="P17" s="439"/>
+      <c r="Q17" s="439"/>
+      <c r="R17" s="439"/>
+      <c r="S17" s="439"/>
+      <c r="T17" s="439"/>
+      <c r="U17" s="439"/>
+      <c r="V17" s="439"/>
+      <c r="W17" s="439"/>
+      <c r="X17" s="439"/>
+      <c r="Y17" s="439"/>
+      <c r="Z17" s="439"/>
+      <c r="AA17" s="439"/>
+      <c r="AB17" s="439"/>
+      <c r="AC17" s="439"/>
+      <c r="AD17" s="439"/>
+      <c r="AE17" s="439"/>
+      <c r="AF17" s="439"/>
+      <c r="AG17" s="439"/>
+      <c r="AH17" s="439"/>
+      <c r="AI17" s="439"/>
+      <c r="AJ17" s="439"/>
+      <c r="AK17" s="439"/>
+      <c r="AL17" s="439"/>
+      <c r="AM17" s="439"/>
+      <c r="AN17" s="439"/>
+      <c r="AO17" s="439"/>
+      <c r="AP17" s="439"/>
+      <c r="AQ17" s="439"/>
+      <c r="AR17" s="439"/>
+      <c r="AS17" s="439"/>
+      <c r="AT17" s="439"/>
+      <c r="AU17" s="439"/>
+      <c r="AV17" s="439"/>
       <c r="AW17" s="38"/>
     </row>
     <row r="18" spans="1:49" ht="13.5" customHeight="1">
@@ -5854,208 +5858,208 @@
     </row>
     <row r="23" spans="1:49" ht="13.5" customHeight="1">
       <c r="A23" s="35"/>
-      <c r="B23" s="350" t="s">
+      <c r="B23" s="440" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="350"/>
-      <c r="D23" s="350"/>
-      <c r="E23" s="350"/>
-      <c r="F23" s="350"/>
-      <c r="G23" s="350"/>
-      <c r="H23" s="350"/>
-      <c r="I23" s="350"/>
-      <c r="J23" s="350"/>
-      <c r="K23" s="350"/>
-      <c r="L23" s="350"/>
-      <c r="M23" s="350"/>
-      <c r="N23" s="350"/>
-      <c r="O23" s="350"/>
-      <c r="P23" s="350"/>
-      <c r="Q23" s="350"/>
-      <c r="R23" s="350"/>
-      <c r="S23" s="350"/>
-      <c r="T23" s="350"/>
-      <c r="U23" s="350"/>
-      <c r="V23" s="350"/>
-      <c r="W23" s="350"/>
-      <c r="X23" s="350"/>
-      <c r="Y23" s="350"/>
-      <c r="Z23" s="350"/>
-      <c r="AA23" s="350"/>
-      <c r="AB23" s="350"/>
-      <c r="AC23" s="350"/>
-      <c r="AD23" s="350"/>
-      <c r="AE23" s="350"/>
-      <c r="AF23" s="350"/>
-      <c r="AG23" s="350"/>
-      <c r="AH23" s="350"/>
-      <c r="AI23" s="350"/>
-      <c r="AJ23" s="350"/>
-      <c r="AK23" s="350"/>
-      <c r="AL23" s="350"/>
-      <c r="AM23" s="350"/>
-      <c r="AN23" s="350"/>
-      <c r="AO23" s="350"/>
-      <c r="AP23" s="350"/>
-      <c r="AQ23" s="350"/>
-      <c r="AR23" s="350"/>
-      <c r="AS23" s="350"/>
-      <c r="AT23" s="350"/>
-      <c r="AU23" s="350"/>
-      <c r="AV23" s="350"/>
+      <c r="C23" s="440"/>
+      <c r="D23" s="440"/>
+      <c r="E23" s="440"/>
+      <c r="F23" s="440"/>
+      <c r="G23" s="440"/>
+      <c r="H23" s="440"/>
+      <c r="I23" s="440"/>
+      <c r="J23" s="440"/>
+      <c r="K23" s="440"/>
+      <c r="L23" s="440"/>
+      <c r="M23" s="440"/>
+      <c r="N23" s="440"/>
+      <c r="O23" s="440"/>
+      <c r="P23" s="440"/>
+      <c r="Q23" s="440"/>
+      <c r="R23" s="440"/>
+      <c r="S23" s="440"/>
+      <c r="T23" s="440"/>
+      <c r="U23" s="440"/>
+      <c r="V23" s="440"/>
+      <c r="W23" s="440"/>
+      <c r="X23" s="440"/>
+      <c r="Y23" s="440"/>
+      <c r="Z23" s="440"/>
+      <c r="AA23" s="440"/>
+      <c r="AB23" s="440"/>
+      <c r="AC23" s="440"/>
+      <c r="AD23" s="440"/>
+      <c r="AE23" s="440"/>
+      <c r="AF23" s="440"/>
+      <c r="AG23" s="440"/>
+      <c r="AH23" s="440"/>
+      <c r="AI23" s="440"/>
+      <c r="AJ23" s="440"/>
+      <c r="AK23" s="440"/>
+      <c r="AL23" s="440"/>
+      <c r="AM23" s="440"/>
+      <c r="AN23" s="440"/>
+      <c r="AO23" s="440"/>
+      <c r="AP23" s="440"/>
+      <c r="AQ23" s="440"/>
+      <c r="AR23" s="440"/>
+      <c r="AS23" s="440"/>
+      <c r="AT23" s="440"/>
+      <c r="AU23" s="440"/>
+      <c r="AV23" s="440"/>
       <c r="AW23" s="38"/>
     </row>
     <row r="24" spans="1:49" ht="13.5" customHeight="1">
       <c r="A24" s="35"/>
-      <c r="B24" s="350"/>
-      <c r="C24" s="350"/>
-      <c r="D24" s="350"/>
-      <c r="E24" s="350"/>
-      <c r="F24" s="350"/>
-      <c r="G24" s="350"/>
-      <c r="H24" s="350"/>
-      <c r="I24" s="350"/>
-      <c r="J24" s="350"/>
-      <c r="K24" s="350"/>
-      <c r="L24" s="350"/>
-      <c r="M24" s="350"/>
-      <c r="N24" s="350"/>
-      <c r="O24" s="350"/>
-      <c r="P24" s="350"/>
-      <c r="Q24" s="350"/>
-      <c r="R24" s="350"/>
-      <c r="S24" s="350"/>
-      <c r="T24" s="350"/>
-      <c r="U24" s="350"/>
-      <c r="V24" s="350"/>
-      <c r="W24" s="350"/>
-      <c r="X24" s="350"/>
-      <c r="Y24" s="350"/>
-      <c r="Z24" s="350"/>
-      <c r="AA24" s="350"/>
-      <c r="AB24" s="350"/>
-      <c r="AC24" s="350"/>
-      <c r="AD24" s="350"/>
-      <c r="AE24" s="350"/>
-      <c r="AF24" s="350"/>
-      <c r="AG24" s="350"/>
-      <c r="AH24" s="350"/>
-      <c r="AI24" s="350"/>
-      <c r="AJ24" s="350"/>
-      <c r="AK24" s="350"/>
-      <c r="AL24" s="350"/>
-      <c r="AM24" s="350"/>
-      <c r="AN24" s="350"/>
-      <c r="AO24" s="350"/>
-      <c r="AP24" s="350"/>
-      <c r="AQ24" s="350"/>
-      <c r="AR24" s="350"/>
-      <c r="AS24" s="350"/>
-      <c r="AT24" s="350"/>
-      <c r="AU24" s="350"/>
-      <c r="AV24" s="350"/>
+      <c r="B24" s="440"/>
+      <c r="C24" s="440"/>
+      <c r="D24" s="440"/>
+      <c r="E24" s="440"/>
+      <c r="F24" s="440"/>
+      <c r="G24" s="440"/>
+      <c r="H24" s="440"/>
+      <c r="I24" s="440"/>
+      <c r="J24" s="440"/>
+      <c r="K24" s="440"/>
+      <c r="L24" s="440"/>
+      <c r="M24" s="440"/>
+      <c r="N24" s="440"/>
+      <c r="O24" s="440"/>
+      <c r="P24" s="440"/>
+      <c r="Q24" s="440"/>
+      <c r="R24" s="440"/>
+      <c r="S24" s="440"/>
+      <c r="T24" s="440"/>
+      <c r="U24" s="440"/>
+      <c r="V24" s="440"/>
+      <c r="W24" s="440"/>
+      <c r="X24" s="440"/>
+      <c r="Y24" s="440"/>
+      <c r="Z24" s="440"/>
+      <c r="AA24" s="440"/>
+      <c r="AB24" s="440"/>
+      <c r="AC24" s="440"/>
+      <c r="AD24" s="440"/>
+      <c r="AE24" s="440"/>
+      <c r="AF24" s="440"/>
+      <c r="AG24" s="440"/>
+      <c r="AH24" s="440"/>
+      <c r="AI24" s="440"/>
+      <c r="AJ24" s="440"/>
+      <c r="AK24" s="440"/>
+      <c r="AL24" s="440"/>
+      <c r="AM24" s="440"/>
+      <c r="AN24" s="440"/>
+      <c r="AO24" s="440"/>
+      <c r="AP24" s="440"/>
+      <c r="AQ24" s="440"/>
+      <c r="AR24" s="440"/>
+      <c r="AS24" s="440"/>
+      <c r="AT24" s="440"/>
+      <c r="AU24" s="440"/>
+      <c r="AV24" s="440"/>
       <c r="AW24" s="38"/>
     </row>
     <row r="25" spans="1:49" ht="13.5" customHeight="1">
       <c r="A25" s="35"/>
-      <c r="B25" s="350"/>
-      <c r="C25" s="350"/>
-      <c r="D25" s="350"/>
-      <c r="E25" s="350"/>
-      <c r="F25" s="350"/>
-      <c r="G25" s="350"/>
-      <c r="H25" s="350"/>
-      <c r="I25" s="350"/>
-      <c r="J25" s="350"/>
-      <c r="K25" s="350"/>
-      <c r="L25" s="350"/>
-      <c r="M25" s="350"/>
-      <c r="N25" s="350"/>
-      <c r="O25" s="350"/>
-      <c r="P25" s="350"/>
-      <c r="Q25" s="350"/>
-      <c r="R25" s="350"/>
-      <c r="S25" s="350"/>
-      <c r="T25" s="350"/>
-      <c r="U25" s="350"/>
-      <c r="V25" s="350"/>
-      <c r="W25" s="350"/>
-      <c r="X25" s="350"/>
-      <c r="Y25" s="350"/>
-      <c r="Z25" s="350"/>
-      <c r="AA25" s="350"/>
-      <c r="AB25" s="350"/>
-      <c r="AC25" s="350"/>
-      <c r="AD25" s="350"/>
-      <c r="AE25" s="350"/>
-      <c r="AF25" s="350"/>
-      <c r="AG25" s="350"/>
-      <c r="AH25" s="350"/>
-      <c r="AI25" s="350"/>
-      <c r="AJ25" s="350"/>
-      <c r="AK25" s="350"/>
-      <c r="AL25" s="350"/>
-      <c r="AM25" s="350"/>
-      <c r="AN25" s="350"/>
-      <c r="AO25" s="350"/>
-      <c r="AP25" s="350"/>
-      <c r="AQ25" s="350"/>
-      <c r="AR25" s="350"/>
-      <c r="AS25" s="350"/>
-      <c r="AT25" s="350"/>
-      <c r="AU25" s="350"/>
-      <c r="AV25" s="350"/>
+      <c r="B25" s="440"/>
+      <c r="C25" s="440"/>
+      <c r="D25" s="440"/>
+      <c r="E25" s="440"/>
+      <c r="F25" s="440"/>
+      <c r="G25" s="440"/>
+      <c r="H25" s="440"/>
+      <c r="I25" s="440"/>
+      <c r="J25" s="440"/>
+      <c r="K25" s="440"/>
+      <c r="L25" s="440"/>
+      <c r="M25" s="440"/>
+      <c r="N25" s="440"/>
+      <c r="O25" s="440"/>
+      <c r="P25" s="440"/>
+      <c r="Q25" s="440"/>
+      <c r="R25" s="440"/>
+      <c r="S25" s="440"/>
+      <c r="T25" s="440"/>
+      <c r="U25" s="440"/>
+      <c r="V25" s="440"/>
+      <c r="W25" s="440"/>
+      <c r="X25" s="440"/>
+      <c r="Y25" s="440"/>
+      <c r="Z25" s="440"/>
+      <c r="AA25" s="440"/>
+      <c r="AB25" s="440"/>
+      <c r="AC25" s="440"/>
+      <c r="AD25" s="440"/>
+      <c r="AE25" s="440"/>
+      <c r="AF25" s="440"/>
+      <c r="AG25" s="440"/>
+      <c r="AH25" s="440"/>
+      <c r="AI25" s="440"/>
+      <c r="AJ25" s="440"/>
+      <c r="AK25" s="440"/>
+      <c r="AL25" s="440"/>
+      <c r="AM25" s="440"/>
+      <c r="AN25" s="440"/>
+      <c r="AO25" s="440"/>
+      <c r="AP25" s="440"/>
+      <c r="AQ25" s="440"/>
+      <c r="AR25" s="440"/>
+      <c r="AS25" s="440"/>
+      <c r="AT25" s="440"/>
+      <c r="AU25" s="440"/>
+      <c r="AV25" s="440"/>
       <c r="AW25" s="38"/>
     </row>
     <row r="26" spans="1:49" ht="13.5" customHeight="1">
       <c r="A26" s="35"/>
-      <c r="B26" s="350"/>
-      <c r="C26" s="350"/>
-      <c r="D26" s="350"/>
-      <c r="E26" s="350"/>
-      <c r="F26" s="350"/>
-      <c r="G26" s="350"/>
-      <c r="H26" s="350"/>
-      <c r="I26" s="350"/>
-      <c r="J26" s="350"/>
-      <c r="K26" s="350"/>
-      <c r="L26" s="350"/>
-      <c r="M26" s="350"/>
-      <c r="N26" s="350"/>
-      <c r="O26" s="350"/>
-      <c r="P26" s="350"/>
-      <c r="Q26" s="350"/>
-      <c r="R26" s="350"/>
-      <c r="S26" s="350"/>
-      <c r="T26" s="350"/>
-      <c r="U26" s="350"/>
-      <c r="V26" s="350"/>
-      <c r="W26" s="350"/>
-      <c r="X26" s="350"/>
-      <c r="Y26" s="350"/>
-      <c r="Z26" s="350"/>
-      <c r="AA26" s="350"/>
-      <c r="AB26" s="350"/>
-      <c r="AC26" s="350"/>
-      <c r="AD26" s="350"/>
-      <c r="AE26" s="350"/>
-      <c r="AF26" s="350"/>
-      <c r="AG26" s="350"/>
-      <c r="AH26" s="350"/>
-      <c r="AI26" s="350"/>
-      <c r="AJ26" s="350"/>
-      <c r="AK26" s="350"/>
-      <c r="AL26" s="350"/>
-      <c r="AM26" s="350"/>
-      <c r="AN26" s="350"/>
-      <c r="AO26" s="350"/>
-      <c r="AP26" s="350"/>
-      <c r="AQ26" s="350"/>
-      <c r="AR26" s="350"/>
-      <c r="AS26" s="350"/>
-      <c r="AT26" s="350"/>
-      <c r="AU26" s="350"/>
-      <c r="AV26" s="350"/>
+      <c r="B26" s="440"/>
+      <c r="C26" s="440"/>
+      <c r="D26" s="440"/>
+      <c r="E26" s="440"/>
+      <c r="F26" s="440"/>
+      <c r="G26" s="440"/>
+      <c r="H26" s="440"/>
+      <c r="I26" s="440"/>
+      <c r="J26" s="440"/>
+      <c r="K26" s="440"/>
+      <c r="L26" s="440"/>
+      <c r="M26" s="440"/>
+      <c r="N26" s="440"/>
+      <c r="O26" s="440"/>
+      <c r="P26" s="440"/>
+      <c r="Q26" s="440"/>
+      <c r="R26" s="440"/>
+      <c r="S26" s="440"/>
+      <c r="T26" s="440"/>
+      <c r="U26" s="440"/>
+      <c r="V26" s="440"/>
+      <c r="W26" s="440"/>
+      <c r="X26" s="440"/>
+      <c r="Y26" s="440"/>
+      <c r="Z26" s="440"/>
+      <c r="AA26" s="440"/>
+      <c r="AB26" s="440"/>
+      <c r="AC26" s="440"/>
+      <c r="AD26" s="440"/>
+      <c r="AE26" s="440"/>
+      <c r="AF26" s="440"/>
+      <c r="AG26" s="440"/>
+      <c r="AH26" s="440"/>
+      <c r="AI26" s="440"/>
+      <c r="AJ26" s="440"/>
+      <c r="AK26" s="440"/>
+      <c r="AL26" s="440"/>
+      <c r="AM26" s="440"/>
+      <c r="AN26" s="440"/>
+      <c r="AO26" s="440"/>
+      <c r="AP26" s="440"/>
+      <c r="AQ26" s="440"/>
+      <c r="AR26" s="440"/>
+      <c r="AS26" s="440"/>
+      <c r="AT26" s="440"/>
+      <c r="AU26" s="440"/>
+      <c r="AV26" s="440"/>
       <c r="AW26" s="38"/>
     </row>
     <row r="27" spans="1:49" ht="13.5" customHeight="1">
@@ -6572,187 +6576,187 @@
       <c r="AW40" s="42"/>
     </row>
     <row r="41" spans="1:49" s="17" customFormat="1" ht="17" customHeight="1" thickTop="1">
-      <c r="A41" s="320" t="s">
+      <c r="A41" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="321"/>
-      <c r="C41" s="321"/>
-      <c r="D41" s="321"/>
-      <c r="E41" s="321"/>
-      <c r="F41" s="321"/>
-      <c r="G41" s="321"/>
-      <c r="H41" s="321"/>
-      <c r="I41" s="322"/>
-      <c r="J41" s="329" t="s">
+      <c r="B41" s="324"/>
+      <c r="C41" s="324"/>
+      <c r="D41" s="324"/>
+      <c r="E41" s="324"/>
+      <c r="F41" s="324"/>
+      <c r="G41" s="324"/>
+      <c r="H41" s="324"/>
+      <c r="I41" s="325"/>
+      <c r="J41" s="332" t="s">
         <v>1</v>
       </c>
-      <c r="K41" s="321"/>
-      <c r="L41" s="321"/>
-      <c r="M41" s="321"/>
-      <c r="N41" s="321"/>
-      <c r="O41" s="322"/>
-      <c r="P41" s="329" t="s">
+      <c r="K41" s="324"/>
+      <c r="L41" s="324"/>
+      <c r="M41" s="324"/>
+      <c r="N41" s="324"/>
+      <c r="O41" s="325"/>
+      <c r="P41" s="332" t="s">
         <v>2</v>
       </c>
-      <c r="Q41" s="321"/>
-      <c r="R41" s="321"/>
-      <c r="S41" s="321"/>
-      <c r="T41" s="321"/>
-      <c r="U41" s="322"/>
-      <c r="V41" s="330" t="s">
+      <c r="Q41" s="324"/>
+      <c r="R41" s="324"/>
+      <c r="S41" s="324"/>
+      <c r="T41" s="324"/>
+      <c r="U41" s="325"/>
+      <c r="V41" s="333" t="s">
         <v>3</v>
       </c>
-      <c r="W41" s="331"/>
-      <c r="X41" s="331"/>
-      <c r="Y41" s="331"/>
-      <c r="Z41" s="332"/>
-      <c r="AA41" s="336" t="s">
+      <c r="W41" s="334"/>
+      <c r="X41" s="334"/>
+      <c r="Y41" s="334"/>
+      <c r="Z41" s="335"/>
+      <c r="AA41" s="339" t="s">
         <v>53</v>
       </c>
-      <c r="AB41" s="321"/>
-      <c r="AC41" s="321"/>
-      <c r="AD41" s="321"/>
-      <c r="AE41" s="321"/>
-      <c r="AF41" s="321"/>
-      <c r="AG41" s="321"/>
-      <c r="AH41" s="321"/>
-      <c r="AI41" s="321"/>
-      <c r="AJ41" s="321"/>
-      <c r="AK41" s="321"/>
-      <c r="AL41" s="322"/>
-      <c r="AM41" s="307" t="s">
+      <c r="AB41" s="324"/>
+      <c r="AC41" s="324"/>
+      <c r="AD41" s="324"/>
+      <c r="AE41" s="324"/>
+      <c r="AF41" s="324"/>
+      <c r="AG41" s="324"/>
+      <c r="AH41" s="324"/>
+      <c r="AI41" s="324"/>
+      <c r="AJ41" s="324"/>
+      <c r="AK41" s="324"/>
+      <c r="AL41" s="325"/>
+      <c r="AM41" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="AN41" s="308"/>
-      <c r="AO41" s="304" t="s">
+      <c r="AN41" s="311"/>
+      <c r="AO41" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="AP41" s="305"/>
-      <c r="AQ41" s="306"/>
-      <c r="AR41" s="307" t="s">
+      <c r="AP41" s="308"/>
+      <c r="AQ41" s="309"/>
+      <c r="AR41" s="310" t="s">
         <v>7</v>
       </c>
-      <c r="AS41" s="308"/>
-      <c r="AT41" s="309">
+      <c r="AS41" s="311"/>
+      <c r="AT41" s="312">
         <v>43110</v>
       </c>
-      <c r="AU41" s="310"/>
-      <c r="AV41" s="310"/>
-      <c r="AW41" s="311"/>
+      <c r="AU41" s="313"/>
+      <c r="AV41" s="313"/>
+      <c r="AW41" s="314"/>
     </row>
     <row r="42" spans="1:49" s="17" customFormat="1" ht="17" customHeight="1">
-      <c r="A42" s="323"/>
-      <c r="B42" s="324"/>
-      <c r="C42" s="324"/>
-      <c r="D42" s="324"/>
-      <c r="E42" s="324"/>
-      <c r="F42" s="324"/>
-      <c r="G42" s="324"/>
-      <c r="H42" s="324"/>
-      <c r="I42" s="325"/>
-      <c r="J42" s="323"/>
-      <c r="K42" s="324"/>
-      <c r="L42" s="324"/>
-      <c r="M42" s="324"/>
-      <c r="N42" s="324"/>
-      <c r="O42" s="325"/>
-      <c r="P42" s="323"/>
-      <c r="Q42" s="324"/>
-      <c r="R42" s="324"/>
-      <c r="S42" s="324"/>
-      <c r="T42" s="324"/>
-      <c r="U42" s="325"/>
-      <c r="V42" s="333"/>
-      <c r="W42" s="334"/>
-      <c r="X42" s="334"/>
-      <c r="Y42" s="334"/>
-      <c r="Z42" s="335"/>
-      <c r="AA42" s="337"/>
-      <c r="AB42" s="324"/>
-      <c r="AC42" s="324"/>
-      <c r="AD42" s="324"/>
-      <c r="AE42" s="324"/>
-      <c r="AF42" s="324"/>
-      <c r="AG42" s="324"/>
-      <c r="AH42" s="324"/>
-      <c r="AI42" s="324"/>
-      <c r="AJ42" s="324"/>
-      <c r="AK42" s="324"/>
-      <c r="AL42" s="325"/>
-      <c r="AM42" s="312" t="s">
+      <c r="A42" s="326"/>
+      <c r="B42" s="327"/>
+      <c r="C42" s="327"/>
+      <c r="D42" s="327"/>
+      <c r="E42" s="327"/>
+      <c r="F42" s="327"/>
+      <c r="G42" s="327"/>
+      <c r="H42" s="327"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="326"/>
+      <c r="K42" s="327"/>
+      <c r="L42" s="327"/>
+      <c r="M42" s="327"/>
+      <c r="N42" s="327"/>
+      <c r="O42" s="328"/>
+      <c r="P42" s="326"/>
+      <c r="Q42" s="327"/>
+      <c r="R42" s="327"/>
+      <c r="S42" s="327"/>
+      <c r="T42" s="327"/>
+      <c r="U42" s="328"/>
+      <c r="V42" s="336"/>
+      <c r="W42" s="337"/>
+      <c r="X42" s="337"/>
+      <c r="Y42" s="337"/>
+      <c r="Z42" s="338"/>
+      <c r="AA42" s="340"/>
+      <c r="AB42" s="327"/>
+      <c r="AC42" s="327"/>
+      <c r="AD42" s="327"/>
+      <c r="AE42" s="327"/>
+      <c r="AF42" s="327"/>
+      <c r="AG42" s="327"/>
+      <c r="AH42" s="327"/>
+      <c r="AI42" s="327"/>
+      <c r="AJ42" s="327"/>
+      <c r="AK42" s="327"/>
+      <c r="AL42" s="328"/>
+      <c r="AM42" s="315" t="s">
         <v>8</v>
       </c>
-      <c r="AN42" s="313"/>
-      <c r="AO42" s="314"/>
-      <c r="AP42" s="315"/>
-      <c r="AQ42" s="316"/>
-      <c r="AR42" s="312" t="s">
+      <c r="AN42" s="316"/>
+      <c r="AO42" s="317"/>
+      <c r="AP42" s="318"/>
+      <c r="AQ42" s="319"/>
+      <c r="AR42" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="AS42" s="313"/>
-      <c r="AT42" s="317"/>
-      <c r="AU42" s="318"/>
-      <c r="AV42" s="318"/>
-      <c r="AW42" s="319"/>
+      <c r="AS42" s="316"/>
+      <c r="AT42" s="320"/>
+      <c r="AU42" s="321"/>
+      <c r="AV42" s="321"/>
+      <c r="AW42" s="322"/>
     </row>
     <row r="43" spans="1:49" ht="17" customHeight="1" thickBot="1">
-      <c r="A43" s="326"/>
-      <c r="B43" s="327"/>
-      <c r="C43" s="327"/>
-      <c r="D43" s="327"/>
-      <c r="E43" s="327"/>
-      <c r="F43" s="327"/>
-      <c r="G43" s="327"/>
-      <c r="H43" s="327"/>
-      <c r="I43" s="328"/>
-      <c r="J43" s="326"/>
-      <c r="K43" s="327"/>
-      <c r="L43" s="327"/>
-      <c r="M43" s="327"/>
-      <c r="N43" s="327"/>
-      <c r="O43" s="328"/>
-      <c r="P43" s="326"/>
-      <c r="Q43" s="327"/>
-      <c r="R43" s="327"/>
-      <c r="S43" s="327"/>
-      <c r="T43" s="327"/>
-      <c r="U43" s="328"/>
-      <c r="V43" s="338" t="s">
+      <c r="A43" s="329"/>
+      <c r="B43" s="330"/>
+      <c r="C43" s="330"/>
+      <c r="D43" s="330"/>
+      <c r="E43" s="330"/>
+      <c r="F43" s="330"/>
+      <c r="G43" s="330"/>
+      <c r="H43" s="330"/>
+      <c r="I43" s="331"/>
+      <c r="J43" s="329"/>
+      <c r="K43" s="330"/>
+      <c r="L43" s="330"/>
+      <c r="M43" s="330"/>
+      <c r="N43" s="330"/>
+      <c r="O43" s="331"/>
+      <c r="P43" s="329"/>
+      <c r="Q43" s="330"/>
+      <c r="R43" s="330"/>
+      <c r="S43" s="330"/>
+      <c r="T43" s="330"/>
+      <c r="U43" s="331"/>
+      <c r="V43" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="W43" s="339"/>
-      <c r="X43" s="339"/>
-      <c r="Y43" s="339"/>
-      <c r="Z43" s="340"/>
-      <c r="AA43" s="341" t="s">
+      <c r="W43" s="342"/>
+      <c r="X43" s="342"/>
+      <c r="Y43" s="342"/>
+      <c r="Z43" s="343"/>
+      <c r="AA43" s="304" t="s">
         <v>11</v>
       </c>
-      <c r="AB43" s="342"/>
-      <c r="AC43" s="342"/>
-      <c r="AD43" s="342"/>
-      <c r="AE43" s="342"/>
-      <c r="AF43" s="342"/>
-      <c r="AG43" s="343"/>
-      <c r="AH43" s="344" t="s">
+      <c r="AB43" s="305"/>
+      <c r="AC43" s="305"/>
+      <c r="AD43" s="305"/>
+      <c r="AE43" s="305"/>
+      <c r="AF43" s="305"/>
+      <c r="AG43" s="344"/>
+      <c r="AH43" s="345" t="s">
         <v>12</v>
       </c>
-      <c r="AI43" s="345"/>
-      <c r="AJ43" s="345"/>
-      <c r="AK43" s="345"/>
-      <c r="AL43" s="346"/>
-      <c r="AM43" s="341" t="s">
+      <c r="AI43" s="346"/>
+      <c r="AJ43" s="346"/>
+      <c r="AK43" s="346"/>
+      <c r="AL43" s="347"/>
+      <c r="AM43" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="AN43" s="342"/>
-      <c r="AO43" s="342"/>
-      <c r="AP43" s="342"/>
-      <c r="AQ43" s="342"/>
-      <c r="AR43" s="342"/>
-      <c r="AS43" s="342"/>
-      <c r="AT43" s="342"/>
-      <c r="AU43" s="342"/>
-      <c r="AV43" s="342"/>
-      <c r="AW43" s="347"/>
+      <c r="AN43" s="305"/>
+      <c r="AO43" s="305"/>
+      <c r="AP43" s="305"/>
+      <c r="AQ43" s="305"/>
+      <c r="AR43" s="305"/>
+      <c r="AS43" s="305"/>
+      <c r="AT43" s="305"/>
+      <c r="AU43" s="305"/>
+      <c r="AV43" s="305"/>
+      <c r="AW43" s="306"/>
     </row>
     <row r="44" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A44" s="35"/>
@@ -6866,1656 +6870,1656 @@
     </row>
     <row r="47" spans="1:49" ht="13.5" customHeight="1">
       <c r="A47" s="35"/>
-      <c r="B47" s="351" t="s">
+      <c r="B47" s="420" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="352"/>
-      <c r="D47" s="355" t="s">
+      <c r="C47" s="421"/>
+      <c r="D47" s="424" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="356"/>
-      <c r="F47" s="356"/>
-      <c r="G47" s="356"/>
-      <c r="H47" s="357"/>
-      <c r="I47" s="351" t="s">
+      <c r="E47" s="425"/>
+      <c r="F47" s="425"/>
+      <c r="G47" s="425"/>
+      <c r="H47" s="426"/>
+      <c r="I47" s="420" t="s">
         <v>27</v>
       </c>
-      <c r="J47" s="352"/>
-      <c r="K47" s="352"/>
-      <c r="L47" s="352"/>
-      <c r="M47" s="352"/>
-      <c r="N47" s="352"/>
-      <c r="O47" s="352"/>
-      <c r="P47" s="352"/>
-      <c r="Q47" s="352"/>
-      <c r="R47" s="352"/>
-      <c r="S47" s="352"/>
-      <c r="T47" s="352"/>
-      <c r="U47" s="352"/>
-      <c r="V47" s="352"/>
-      <c r="W47" s="352"/>
-      <c r="X47" s="352"/>
-      <c r="Y47" s="352"/>
-      <c r="Z47" s="361"/>
-      <c r="AA47" s="355" t="s">
+      <c r="J47" s="421"/>
+      <c r="K47" s="421"/>
+      <c r="L47" s="421"/>
+      <c r="M47" s="421"/>
+      <c r="N47" s="421"/>
+      <c r="O47" s="421"/>
+      <c r="P47" s="421"/>
+      <c r="Q47" s="421"/>
+      <c r="R47" s="421"/>
+      <c r="S47" s="421"/>
+      <c r="T47" s="421"/>
+      <c r="U47" s="421"/>
+      <c r="V47" s="421"/>
+      <c r="W47" s="421"/>
+      <c r="X47" s="421"/>
+      <c r="Y47" s="421"/>
+      <c r="Z47" s="430"/>
+      <c r="AA47" s="424" t="s">
         <v>8</v>
       </c>
-      <c r="AB47" s="356"/>
-      <c r="AC47" s="356"/>
-      <c r="AD47" s="357"/>
-      <c r="AE47" s="363"/>
-      <c r="AF47" s="364"/>
-      <c r="AG47" s="364"/>
-      <c r="AH47" s="364"/>
-      <c r="AI47" s="364"/>
-      <c r="AJ47" s="364"/>
-      <c r="AK47" s="364"/>
-      <c r="AL47" s="364"/>
-      <c r="AM47" s="365"/>
-      <c r="AN47" s="366"/>
-      <c r="AO47" s="367"/>
-      <c r="AP47" s="367"/>
-      <c r="AQ47" s="367"/>
-      <c r="AR47" s="367"/>
-      <c r="AS47" s="367"/>
-      <c r="AT47" s="367"/>
-      <c r="AU47" s="367"/>
-      <c r="AV47" s="368"/>
+      <c r="AB47" s="425"/>
+      <c r="AC47" s="425"/>
+      <c r="AD47" s="426"/>
+      <c r="AE47" s="432"/>
+      <c r="AF47" s="433"/>
+      <c r="AG47" s="433"/>
+      <c r="AH47" s="433"/>
+      <c r="AI47" s="433"/>
+      <c r="AJ47" s="433"/>
+      <c r="AK47" s="433"/>
+      <c r="AL47" s="433"/>
+      <c r="AM47" s="434"/>
+      <c r="AN47" s="435"/>
+      <c r="AO47" s="436"/>
+      <c r="AP47" s="436"/>
+      <c r="AQ47" s="436"/>
+      <c r="AR47" s="436"/>
+      <c r="AS47" s="436"/>
+      <c r="AT47" s="436"/>
+      <c r="AU47" s="436"/>
+      <c r="AV47" s="437"/>
       <c r="AW47" s="38"/>
     </row>
     <row r="48" spans="1:49" ht="13.5" customHeight="1">
       <c r="A48" s="35"/>
-      <c r="B48" s="353"/>
-      <c r="C48" s="354"/>
-      <c r="D48" s="358"/>
-      <c r="E48" s="359"/>
-      <c r="F48" s="359"/>
-      <c r="G48" s="359"/>
-      <c r="H48" s="360"/>
-      <c r="I48" s="353"/>
-      <c r="J48" s="354"/>
-      <c r="K48" s="354"/>
-      <c r="L48" s="354"/>
-      <c r="M48" s="354"/>
-      <c r="N48" s="354"/>
-      <c r="O48" s="354"/>
-      <c r="P48" s="354"/>
-      <c r="Q48" s="354"/>
-      <c r="R48" s="354"/>
-      <c r="S48" s="354"/>
-      <c r="T48" s="354"/>
-      <c r="U48" s="354"/>
-      <c r="V48" s="354"/>
-      <c r="W48" s="354"/>
-      <c r="X48" s="354"/>
-      <c r="Y48" s="354"/>
-      <c r="Z48" s="362"/>
-      <c r="AA48" s="358"/>
-      <c r="AB48" s="359"/>
-      <c r="AC48" s="359"/>
-      <c r="AD48" s="360"/>
-      <c r="AE48" s="363" t="s">
+      <c r="B48" s="422"/>
+      <c r="C48" s="423"/>
+      <c r="D48" s="427"/>
+      <c r="E48" s="428"/>
+      <c r="F48" s="428"/>
+      <c r="G48" s="428"/>
+      <c r="H48" s="429"/>
+      <c r="I48" s="422"/>
+      <c r="J48" s="423"/>
+      <c r="K48" s="423"/>
+      <c r="L48" s="423"/>
+      <c r="M48" s="423"/>
+      <c r="N48" s="423"/>
+      <c r="O48" s="423"/>
+      <c r="P48" s="423"/>
+      <c r="Q48" s="423"/>
+      <c r="R48" s="423"/>
+      <c r="S48" s="423"/>
+      <c r="T48" s="423"/>
+      <c r="U48" s="423"/>
+      <c r="V48" s="423"/>
+      <c r="W48" s="423"/>
+      <c r="X48" s="423"/>
+      <c r="Y48" s="423"/>
+      <c r="Z48" s="431"/>
+      <c r="AA48" s="427"/>
+      <c r="AB48" s="428"/>
+      <c r="AC48" s="428"/>
+      <c r="AD48" s="429"/>
+      <c r="AE48" s="432" t="s">
         <v>28</v>
       </c>
-      <c r="AF48" s="364"/>
-      <c r="AG48" s="364"/>
-      <c r="AH48" s="364"/>
-      <c r="AI48" s="365"/>
-      <c r="AJ48" s="363" t="s">
+      <c r="AF48" s="433"/>
+      <c r="AG48" s="433"/>
+      <c r="AH48" s="433"/>
+      <c r="AI48" s="434"/>
+      <c r="AJ48" s="432" t="s">
         <v>29</v>
       </c>
-      <c r="AK48" s="364"/>
-      <c r="AL48" s="364"/>
-      <c r="AM48" s="365"/>
-      <c r="AN48" s="363" t="s">
+      <c r="AK48" s="433"/>
+      <c r="AL48" s="433"/>
+      <c r="AM48" s="434"/>
+      <c r="AN48" s="432" t="s">
         <v>28</v>
       </c>
-      <c r="AO48" s="364"/>
-      <c r="AP48" s="364"/>
-      <c r="AQ48" s="364"/>
-      <c r="AR48" s="365"/>
-      <c r="AS48" s="363" t="s">
+      <c r="AO48" s="433"/>
+      <c r="AP48" s="433"/>
+      <c r="AQ48" s="433"/>
+      <c r="AR48" s="434"/>
+      <c r="AS48" s="432" t="s">
         <v>29</v>
       </c>
-      <c r="AT48" s="364"/>
-      <c r="AU48" s="364"/>
-      <c r="AV48" s="365"/>
+      <c r="AT48" s="433"/>
+      <c r="AU48" s="433"/>
+      <c r="AV48" s="434"/>
       <c r="AW48" s="38"/>
     </row>
     <row r="49" spans="1:49" ht="13.5" customHeight="1">
       <c r="A49" s="35"/>
-      <c r="B49" s="409">
+      <c r="B49" s="410">
         <v>1</v>
       </c>
-      <c r="C49" s="410"/>
-      <c r="D49" s="369">
+      <c r="C49" s="411"/>
+      <c r="D49" s="381">
         <v>42548</v>
       </c>
-      <c r="E49" s="370"/>
-      <c r="F49" s="370"/>
-      <c r="G49" s="370"/>
-      <c r="H49" s="371"/>
-      <c r="I49" s="413" t="s">
+      <c r="E49" s="382"/>
+      <c r="F49" s="382"/>
+      <c r="G49" s="382"/>
+      <c r="H49" s="383"/>
+      <c r="I49" s="414" t="s">
         <v>30</v>
       </c>
-      <c r="J49" s="414"/>
-      <c r="K49" s="414"/>
-      <c r="L49" s="414"/>
-      <c r="M49" s="414"/>
-      <c r="N49" s="414"/>
-      <c r="O49" s="414"/>
-      <c r="P49" s="414"/>
-      <c r="Q49" s="414"/>
-      <c r="R49" s="414"/>
-      <c r="S49" s="414"/>
-      <c r="T49" s="414"/>
-      <c r="U49" s="414"/>
-      <c r="V49" s="414"/>
-      <c r="W49" s="414"/>
-      <c r="X49" s="414"/>
-      <c r="Y49" s="414"/>
-      <c r="Z49" s="415"/>
-      <c r="AA49" s="375"/>
-      <c r="AB49" s="376"/>
-      <c r="AC49" s="376"/>
-      <c r="AD49" s="377"/>
-      <c r="AE49" s="369"/>
-      <c r="AF49" s="370"/>
-      <c r="AG49" s="370"/>
-      <c r="AH49" s="370"/>
-      <c r="AI49" s="371"/>
-      <c r="AJ49" s="375"/>
-      <c r="AK49" s="376"/>
-      <c r="AL49" s="376"/>
-      <c r="AM49" s="377"/>
-      <c r="AN49" s="369"/>
-      <c r="AO49" s="370"/>
-      <c r="AP49" s="370"/>
-      <c r="AQ49" s="370"/>
-      <c r="AR49" s="371"/>
-      <c r="AS49" s="375"/>
-      <c r="AT49" s="376"/>
-      <c r="AU49" s="376"/>
-      <c r="AV49" s="377"/>
+      <c r="J49" s="415"/>
+      <c r="K49" s="415"/>
+      <c r="L49" s="415"/>
+      <c r="M49" s="415"/>
+      <c r="N49" s="415"/>
+      <c r="O49" s="415"/>
+      <c r="P49" s="415"/>
+      <c r="Q49" s="415"/>
+      <c r="R49" s="415"/>
+      <c r="S49" s="415"/>
+      <c r="T49" s="415"/>
+      <c r="U49" s="415"/>
+      <c r="V49" s="415"/>
+      <c r="W49" s="415"/>
+      <c r="X49" s="415"/>
+      <c r="Y49" s="415"/>
+      <c r="Z49" s="416"/>
+      <c r="AA49" s="387"/>
+      <c r="AB49" s="388"/>
+      <c r="AC49" s="388"/>
+      <c r="AD49" s="389"/>
+      <c r="AE49" s="381"/>
+      <c r="AF49" s="382"/>
+      <c r="AG49" s="382"/>
+      <c r="AH49" s="382"/>
+      <c r="AI49" s="383"/>
+      <c r="AJ49" s="387"/>
+      <c r="AK49" s="388"/>
+      <c r="AL49" s="388"/>
+      <c r="AM49" s="389"/>
+      <c r="AN49" s="381"/>
+      <c r="AO49" s="382"/>
+      <c r="AP49" s="382"/>
+      <c r="AQ49" s="382"/>
+      <c r="AR49" s="383"/>
+      <c r="AS49" s="387"/>
+      <c r="AT49" s="388"/>
+      <c r="AU49" s="388"/>
+      <c r="AV49" s="389"/>
       <c r="AW49" s="38"/>
     </row>
     <row r="50" spans="1:49" ht="13.5" customHeight="1">
       <c r="A50" s="35"/>
-      <c r="B50" s="411"/>
-      <c r="C50" s="412"/>
-      <c r="D50" s="372"/>
-      <c r="E50" s="373"/>
-      <c r="F50" s="373"/>
-      <c r="G50" s="373"/>
-      <c r="H50" s="374"/>
-      <c r="I50" s="416"/>
-      <c r="J50" s="417"/>
-      <c r="K50" s="417"/>
-      <c r="L50" s="417"/>
-      <c r="M50" s="417"/>
-      <c r="N50" s="417"/>
-      <c r="O50" s="417"/>
-      <c r="P50" s="417"/>
-      <c r="Q50" s="417"/>
-      <c r="R50" s="417"/>
-      <c r="S50" s="417"/>
-      <c r="T50" s="417"/>
-      <c r="U50" s="417"/>
-      <c r="V50" s="417"/>
-      <c r="W50" s="417"/>
-      <c r="X50" s="417"/>
-      <c r="Y50" s="417"/>
-      <c r="Z50" s="418"/>
-      <c r="AA50" s="378"/>
-      <c r="AB50" s="379"/>
-      <c r="AC50" s="379"/>
-      <c r="AD50" s="380"/>
-      <c r="AE50" s="372"/>
-      <c r="AF50" s="373"/>
-      <c r="AG50" s="373"/>
-      <c r="AH50" s="373"/>
-      <c r="AI50" s="374"/>
-      <c r="AJ50" s="378"/>
-      <c r="AK50" s="379"/>
-      <c r="AL50" s="379"/>
-      <c r="AM50" s="380"/>
-      <c r="AN50" s="372"/>
-      <c r="AO50" s="373"/>
-      <c r="AP50" s="373"/>
-      <c r="AQ50" s="373"/>
-      <c r="AR50" s="374"/>
-      <c r="AS50" s="378"/>
-      <c r="AT50" s="379"/>
-      <c r="AU50" s="379"/>
-      <c r="AV50" s="380"/>
+      <c r="B50" s="412"/>
+      <c r="C50" s="413"/>
+      <c r="D50" s="384"/>
+      <c r="E50" s="385"/>
+      <c r="F50" s="385"/>
+      <c r="G50" s="385"/>
+      <c r="H50" s="386"/>
+      <c r="I50" s="417"/>
+      <c r="J50" s="418"/>
+      <c r="K50" s="418"/>
+      <c r="L50" s="418"/>
+      <c r="M50" s="418"/>
+      <c r="N50" s="418"/>
+      <c r="O50" s="418"/>
+      <c r="P50" s="418"/>
+      <c r="Q50" s="418"/>
+      <c r="R50" s="418"/>
+      <c r="S50" s="418"/>
+      <c r="T50" s="418"/>
+      <c r="U50" s="418"/>
+      <c r="V50" s="418"/>
+      <c r="W50" s="418"/>
+      <c r="X50" s="418"/>
+      <c r="Y50" s="418"/>
+      <c r="Z50" s="419"/>
+      <c r="AA50" s="390"/>
+      <c r="AB50" s="391"/>
+      <c r="AC50" s="391"/>
+      <c r="AD50" s="392"/>
+      <c r="AE50" s="384"/>
+      <c r="AF50" s="385"/>
+      <c r="AG50" s="385"/>
+      <c r="AH50" s="385"/>
+      <c r="AI50" s="386"/>
+      <c r="AJ50" s="390"/>
+      <c r="AK50" s="391"/>
+      <c r="AL50" s="391"/>
+      <c r="AM50" s="392"/>
+      <c r="AN50" s="384"/>
+      <c r="AO50" s="385"/>
+      <c r="AP50" s="385"/>
+      <c r="AQ50" s="385"/>
+      <c r="AR50" s="386"/>
+      <c r="AS50" s="390"/>
+      <c r="AT50" s="391"/>
+      <c r="AU50" s="391"/>
+      <c r="AV50" s="392"/>
       <c r="AW50" s="38"/>
     </row>
     <row r="51" spans="1:49" ht="13.5" customHeight="1">
       <c r="A51" s="35"/>
-      <c r="B51" s="381"/>
-      <c r="C51" s="382"/>
-      <c r="D51" s="385"/>
-      <c r="E51" s="386"/>
-      <c r="F51" s="386"/>
-      <c r="G51" s="386"/>
-      <c r="H51" s="387"/>
-      <c r="I51" s="391"/>
-      <c r="J51" s="392"/>
-      <c r="K51" s="392"/>
-      <c r="L51" s="392"/>
-      <c r="M51" s="392"/>
-      <c r="N51" s="392"/>
-      <c r="O51" s="392"/>
-      <c r="P51" s="392"/>
-      <c r="Q51" s="392"/>
-      <c r="R51" s="392"/>
-      <c r="S51" s="392"/>
-      <c r="T51" s="392"/>
-      <c r="U51" s="392"/>
-      <c r="V51" s="392"/>
-      <c r="W51" s="392"/>
-      <c r="X51" s="392"/>
-      <c r="Y51" s="392"/>
-      <c r="Z51" s="393"/>
-      <c r="AA51" s="397"/>
-      <c r="AB51" s="398"/>
-      <c r="AC51" s="398"/>
-      <c r="AD51" s="399"/>
-      <c r="AE51" s="403"/>
-      <c r="AF51" s="404"/>
-      <c r="AG51" s="404"/>
-      <c r="AH51" s="404"/>
-      <c r="AI51" s="405"/>
-      <c r="AJ51" s="397"/>
-      <c r="AK51" s="398"/>
-      <c r="AL51" s="398"/>
-      <c r="AM51" s="399"/>
-      <c r="AN51" s="403"/>
-      <c r="AO51" s="404"/>
-      <c r="AP51" s="404"/>
-      <c r="AQ51" s="404"/>
-      <c r="AR51" s="405"/>
-      <c r="AS51" s="397"/>
-      <c r="AT51" s="398"/>
-      <c r="AU51" s="398"/>
-      <c r="AV51" s="399"/>
+      <c r="B51" s="393"/>
+      <c r="C51" s="394"/>
+      <c r="D51" s="395"/>
+      <c r="E51" s="396"/>
+      <c r="F51" s="396"/>
+      <c r="G51" s="396"/>
+      <c r="H51" s="397"/>
+      <c r="I51" s="401"/>
+      <c r="J51" s="402"/>
+      <c r="K51" s="402"/>
+      <c r="L51" s="402"/>
+      <c r="M51" s="402"/>
+      <c r="N51" s="402"/>
+      <c r="O51" s="402"/>
+      <c r="P51" s="402"/>
+      <c r="Q51" s="402"/>
+      <c r="R51" s="402"/>
+      <c r="S51" s="402"/>
+      <c r="T51" s="402"/>
+      <c r="U51" s="402"/>
+      <c r="V51" s="402"/>
+      <c r="W51" s="402"/>
+      <c r="X51" s="402"/>
+      <c r="Y51" s="402"/>
+      <c r="Z51" s="403"/>
+      <c r="AA51" s="404"/>
+      <c r="AB51" s="405"/>
+      <c r="AC51" s="405"/>
+      <c r="AD51" s="406"/>
+      <c r="AE51" s="407"/>
+      <c r="AF51" s="408"/>
+      <c r="AG51" s="408"/>
+      <c r="AH51" s="408"/>
+      <c r="AI51" s="409"/>
+      <c r="AJ51" s="404"/>
+      <c r="AK51" s="405"/>
+      <c r="AL51" s="405"/>
+      <c r="AM51" s="406"/>
+      <c r="AN51" s="407"/>
+      <c r="AO51" s="408"/>
+      <c r="AP51" s="408"/>
+      <c r="AQ51" s="408"/>
+      <c r="AR51" s="409"/>
+      <c r="AS51" s="404"/>
+      <c r="AT51" s="405"/>
+      <c r="AU51" s="405"/>
+      <c r="AV51" s="406"/>
       <c r="AW51" s="38"/>
     </row>
     <row r="52" spans="1:49" ht="13.5" customHeight="1">
       <c r="A52" s="35"/>
-      <c r="B52" s="383"/>
-      <c r="C52" s="384"/>
-      <c r="D52" s="388"/>
-      <c r="E52" s="389"/>
-      <c r="F52" s="389"/>
-      <c r="G52" s="389"/>
-      <c r="H52" s="390"/>
-      <c r="I52" s="394"/>
-      <c r="J52" s="395"/>
-      <c r="K52" s="395"/>
-      <c r="L52" s="395"/>
-      <c r="M52" s="395"/>
-      <c r="N52" s="395"/>
-      <c r="O52" s="395"/>
-      <c r="P52" s="395"/>
-      <c r="Q52" s="395"/>
-      <c r="R52" s="395"/>
-      <c r="S52" s="395"/>
-      <c r="T52" s="395"/>
-      <c r="U52" s="395"/>
-      <c r="V52" s="395"/>
-      <c r="W52" s="395"/>
-      <c r="X52" s="395"/>
-      <c r="Y52" s="395"/>
-      <c r="Z52" s="396"/>
-      <c r="AA52" s="400"/>
-      <c r="AB52" s="401"/>
-      <c r="AC52" s="401"/>
-      <c r="AD52" s="402"/>
-      <c r="AE52" s="406"/>
-      <c r="AF52" s="407"/>
-      <c r="AG52" s="407"/>
-      <c r="AH52" s="407"/>
-      <c r="AI52" s="408"/>
-      <c r="AJ52" s="400"/>
-      <c r="AK52" s="401"/>
-      <c r="AL52" s="401"/>
-      <c r="AM52" s="402"/>
-      <c r="AN52" s="406"/>
-      <c r="AO52" s="407"/>
-      <c r="AP52" s="407"/>
-      <c r="AQ52" s="407"/>
-      <c r="AR52" s="408"/>
-      <c r="AS52" s="400"/>
-      <c r="AT52" s="401"/>
-      <c r="AU52" s="401"/>
-      <c r="AV52" s="402"/>
+      <c r="B52" s="360"/>
+      <c r="C52" s="361"/>
+      <c r="D52" s="398"/>
+      <c r="E52" s="399"/>
+      <c r="F52" s="399"/>
+      <c r="G52" s="399"/>
+      <c r="H52" s="400"/>
+      <c r="I52" s="364"/>
+      <c r="J52" s="365"/>
+      <c r="K52" s="365"/>
+      <c r="L52" s="365"/>
+      <c r="M52" s="365"/>
+      <c r="N52" s="365"/>
+      <c r="O52" s="365"/>
+      <c r="P52" s="365"/>
+      <c r="Q52" s="365"/>
+      <c r="R52" s="365"/>
+      <c r="S52" s="365"/>
+      <c r="T52" s="365"/>
+      <c r="U52" s="365"/>
+      <c r="V52" s="365"/>
+      <c r="W52" s="365"/>
+      <c r="X52" s="365"/>
+      <c r="Y52" s="365"/>
+      <c r="Z52" s="366"/>
+      <c r="AA52" s="354"/>
+      <c r="AB52" s="355"/>
+      <c r="AC52" s="355"/>
+      <c r="AD52" s="356"/>
+      <c r="AE52" s="348"/>
+      <c r="AF52" s="349"/>
+      <c r="AG52" s="349"/>
+      <c r="AH52" s="349"/>
+      <c r="AI52" s="350"/>
+      <c r="AJ52" s="354"/>
+      <c r="AK52" s="355"/>
+      <c r="AL52" s="355"/>
+      <c r="AM52" s="356"/>
+      <c r="AN52" s="348"/>
+      <c r="AO52" s="349"/>
+      <c r="AP52" s="349"/>
+      <c r="AQ52" s="349"/>
+      <c r="AR52" s="350"/>
+      <c r="AS52" s="354"/>
+      <c r="AT52" s="355"/>
+      <c r="AU52" s="355"/>
+      <c r="AV52" s="356"/>
       <c r="AW52" s="38"/>
     </row>
     <row r="53" spans="1:49" ht="13.5" customHeight="1">
       <c r="A53" s="35"/>
-      <c r="B53" s="383"/>
-      <c r="C53" s="384"/>
-      <c r="D53" s="406"/>
-      <c r="E53" s="407"/>
-      <c r="F53" s="407"/>
-      <c r="G53" s="407"/>
-      <c r="H53" s="408"/>
-      <c r="I53" s="394"/>
-      <c r="J53" s="395"/>
-      <c r="K53" s="395"/>
-      <c r="L53" s="395"/>
-      <c r="M53" s="395"/>
-      <c r="N53" s="395"/>
-      <c r="O53" s="395"/>
-      <c r="P53" s="395"/>
-      <c r="Q53" s="395"/>
-      <c r="R53" s="395"/>
-      <c r="S53" s="395"/>
-      <c r="T53" s="395"/>
-      <c r="U53" s="395"/>
-      <c r="V53" s="395"/>
-      <c r="W53" s="395"/>
-      <c r="X53" s="395"/>
-      <c r="Y53" s="395"/>
-      <c r="Z53" s="396"/>
-      <c r="AA53" s="400"/>
-      <c r="AB53" s="401"/>
-      <c r="AC53" s="401"/>
-      <c r="AD53" s="402"/>
-      <c r="AE53" s="406"/>
-      <c r="AF53" s="407"/>
-      <c r="AG53" s="407"/>
-      <c r="AH53" s="407"/>
-      <c r="AI53" s="408"/>
-      <c r="AJ53" s="400"/>
-      <c r="AK53" s="401"/>
-      <c r="AL53" s="401"/>
-      <c r="AM53" s="402"/>
-      <c r="AN53" s="406"/>
-      <c r="AO53" s="407"/>
-      <c r="AP53" s="407"/>
-      <c r="AQ53" s="407"/>
-      <c r="AR53" s="408"/>
-      <c r="AS53" s="400"/>
-      <c r="AT53" s="401"/>
-      <c r="AU53" s="401"/>
-      <c r="AV53" s="402"/>
+      <c r="B53" s="360"/>
+      <c r="C53" s="361"/>
+      <c r="D53" s="348"/>
+      <c r="E53" s="349"/>
+      <c r="F53" s="349"/>
+      <c r="G53" s="349"/>
+      <c r="H53" s="350"/>
+      <c r="I53" s="364"/>
+      <c r="J53" s="365"/>
+      <c r="K53" s="365"/>
+      <c r="L53" s="365"/>
+      <c r="M53" s="365"/>
+      <c r="N53" s="365"/>
+      <c r="O53" s="365"/>
+      <c r="P53" s="365"/>
+      <c r="Q53" s="365"/>
+      <c r="R53" s="365"/>
+      <c r="S53" s="365"/>
+      <c r="T53" s="365"/>
+      <c r="U53" s="365"/>
+      <c r="V53" s="365"/>
+      <c r="W53" s="365"/>
+      <c r="X53" s="365"/>
+      <c r="Y53" s="365"/>
+      <c r="Z53" s="366"/>
+      <c r="AA53" s="354"/>
+      <c r="AB53" s="355"/>
+      <c r="AC53" s="355"/>
+      <c r="AD53" s="356"/>
+      <c r="AE53" s="348"/>
+      <c r="AF53" s="349"/>
+      <c r="AG53" s="349"/>
+      <c r="AH53" s="349"/>
+      <c r="AI53" s="350"/>
+      <c r="AJ53" s="354"/>
+      <c r="AK53" s="355"/>
+      <c r="AL53" s="355"/>
+      <c r="AM53" s="356"/>
+      <c r="AN53" s="348"/>
+      <c r="AO53" s="349"/>
+      <c r="AP53" s="349"/>
+      <c r="AQ53" s="349"/>
+      <c r="AR53" s="350"/>
+      <c r="AS53" s="354"/>
+      <c r="AT53" s="355"/>
+      <c r="AU53" s="355"/>
+      <c r="AV53" s="356"/>
       <c r="AW53" s="38"/>
     </row>
     <row r="54" spans="1:49" ht="13.5" customHeight="1">
       <c r="A54" s="35"/>
-      <c r="B54" s="383"/>
-      <c r="C54" s="384"/>
-      <c r="D54" s="406"/>
-      <c r="E54" s="407"/>
-      <c r="F54" s="407"/>
-      <c r="G54" s="407"/>
-      <c r="H54" s="408"/>
-      <c r="I54" s="394"/>
-      <c r="J54" s="395"/>
-      <c r="K54" s="395"/>
-      <c r="L54" s="395"/>
-      <c r="M54" s="395"/>
-      <c r="N54" s="395"/>
-      <c r="O54" s="395"/>
-      <c r="P54" s="395"/>
-      <c r="Q54" s="395"/>
-      <c r="R54" s="395"/>
-      <c r="S54" s="395"/>
-      <c r="T54" s="395"/>
-      <c r="U54" s="395"/>
-      <c r="V54" s="395"/>
-      <c r="W54" s="395"/>
-      <c r="X54" s="395"/>
-      <c r="Y54" s="395"/>
-      <c r="Z54" s="396"/>
-      <c r="AA54" s="400"/>
-      <c r="AB54" s="401"/>
-      <c r="AC54" s="401"/>
-      <c r="AD54" s="402"/>
-      <c r="AE54" s="406"/>
-      <c r="AF54" s="407"/>
-      <c r="AG54" s="407"/>
-      <c r="AH54" s="407"/>
-      <c r="AI54" s="408"/>
-      <c r="AJ54" s="400"/>
-      <c r="AK54" s="401"/>
-      <c r="AL54" s="401"/>
-      <c r="AM54" s="402"/>
-      <c r="AN54" s="406"/>
-      <c r="AO54" s="407"/>
-      <c r="AP54" s="407"/>
-      <c r="AQ54" s="407"/>
-      <c r="AR54" s="408"/>
-      <c r="AS54" s="400"/>
-      <c r="AT54" s="401"/>
-      <c r="AU54" s="401"/>
-      <c r="AV54" s="402"/>
+      <c r="B54" s="360"/>
+      <c r="C54" s="361"/>
+      <c r="D54" s="348"/>
+      <c r="E54" s="349"/>
+      <c r="F54" s="349"/>
+      <c r="G54" s="349"/>
+      <c r="H54" s="350"/>
+      <c r="I54" s="364"/>
+      <c r="J54" s="365"/>
+      <c r="K54" s="365"/>
+      <c r="L54" s="365"/>
+      <c r="M54" s="365"/>
+      <c r="N54" s="365"/>
+      <c r="O54" s="365"/>
+      <c r="P54" s="365"/>
+      <c r="Q54" s="365"/>
+      <c r="R54" s="365"/>
+      <c r="S54" s="365"/>
+      <c r="T54" s="365"/>
+      <c r="U54" s="365"/>
+      <c r="V54" s="365"/>
+      <c r="W54" s="365"/>
+      <c r="X54" s="365"/>
+      <c r="Y54" s="365"/>
+      <c r="Z54" s="366"/>
+      <c r="AA54" s="354"/>
+      <c r="AB54" s="355"/>
+      <c r="AC54" s="355"/>
+      <c r="AD54" s="356"/>
+      <c r="AE54" s="348"/>
+      <c r="AF54" s="349"/>
+      <c r="AG54" s="349"/>
+      <c r="AH54" s="349"/>
+      <c r="AI54" s="350"/>
+      <c r="AJ54" s="354"/>
+      <c r="AK54" s="355"/>
+      <c r="AL54" s="355"/>
+      <c r="AM54" s="356"/>
+      <c r="AN54" s="348"/>
+      <c r="AO54" s="349"/>
+      <c r="AP54" s="349"/>
+      <c r="AQ54" s="349"/>
+      <c r="AR54" s="350"/>
+      <c r="AS54" s="354"/>
+      <c r="AT54" s="355"/>
+      <c r="AU54" s="355"/>
+      <c r="AV54" s="356"/>
       <c r="AW54" s="38"/>
     </row>
     <row r="55" spans="1:49" ht="13.5" customHeight="1">
       <c r="A55" s="35"/>
-      <c r="B55" s="419"/>
-      <c r="C55" s="420"/>
-      <c r="D55" s="421"/>
-      <c r="E55" s="422"/>
-      <c r="F55" s="422"/>
-      <c r="G55" s="422"/>
-      <c r="H55" s="423"/>
-      <c r="I55" s="424"/>
-      <c r="J55" s="425"/>
-      <c r="K55" s="425"/>
-      <c r="L55" s="425"/>
-      <c r="M55" s="425"/>
-      <c r="N55" s="425"/>
-      <c r="O55" s="425"/>
-      <c r="P55" s="425"/>
-      <c r="Q55" s="425"/>
-      <c r="R55" s="425"/>
-      <c r="S55" s="425"/>
-      <c r="T55" s="425"/>
-      <c r="U55" s="425"/>
-      <c r="V55" s="425"/>
-      <c r="W55" s="425"/>
-      <c r="X55" s="425"/>
-      <c r="Y55" s="425"/>
-      <c r="Z55" s="426"/>
-      <c r="AA55" s="427"/>
-      <c r="AB55" s="428"/>
-      <c r="AC55" s="428"/>
-      <c r="AD55" s="429"/>
-      <c r="AE55" s="421"/>
-      <c r="AF55" s="422"/>
-      <c r="AG55" s="422"/>
-      <c r="AH55" s="422"/>
-      <c r="AI55" s="423"/>
-      <c r="AJ55" s="427"/>
-      <c r="AK55" s="428"/>
-      <c r="AL55" s="428"/>
-      <c r="AM55" s="429"/>
-      <c r="AN55" s="421"/>
-      <c r="AO55" s="422"/>
-      <c r="AP55" s="422"/>
-      <c r="AQ55" s="422"/>
-      <c r="AR55" s="423"/>
-      <c r="AS55" s="427"/>
-      <c r="AT55" s="428"/>
-      <c r="AU55" s="428"/>
-      <c r="AV55" s="429"/>
+      <c r="B55" s="376"/>
+      <c r="C55" s="377"/>
+      <c r="D55" s="370"/>
+      <c r="E55" s="371"/>
+      <c r="F55" s="371"/>
+      <c r="G55" s="371"/>
+      <c r="H55" s="372"/>
+      <c r="I55" s="378"/>
+      <c r="J55" s="379"/>
+      <c r="K55" s="379"/>
+      <c r="L55" s="379"/>
+      <c r="M55" s="379"/>
+      <c r="N55" s="379"/>
+      <c r="O55" s="379"/>
+      <c r="P55" s="379"/>
+      <c r="Q55" s="379"/>
+      <c r="R55" s="379"/>
+      <c r="S55" s="379"/>
+      <c r="T55" s="379"/>
+      <c r="U55" s="379"/>
+      <c r="V55" s="379"/>
+      <c r="W55" s="379"/>
+      <c r="X55" s="379"/>
+      <c r="Y55" s="379"/>
+      <c r="Z55" s="380"/>
+      <c r="AA55" s="373"/>
+      <c r="AB55" s="374"/>
+      <c r="AC55" s="374"/>
+      <c r="AD55" s="375"/>
+      <c r="AE55" s="370"/>
+      <c r="AF55" s="371"/>
+      <c r="AG55" s="371"/>
+      <c r="AH55" s="371"/>
+      <c r="AI55" s="372"/>
+      <c r="AJ55" s="373"/>
+      <c r="AK55" s="374"/>
+      <c r="AL55" s="374"/>
+      <c r="AM55" s="375"/>
+      <c r="AN55" s="370"/>
+      <c r="AO55" s="371"/>
+      <c r="AP55" s="371"/>
+      <c r="AQ55" s="371"/>
+      <c r="AR55" s="372"/>
+      <c r="AS55" s="373"/>
+      <c r="AT55" s="374"/>
+      <c r="AU55" s="374"/>
+      <c r="AV55" s="375"/>
       <c r="AW55" s="38"/>
     </row>
     <row r="56" spans="1:49" ht="13.5" customHeight="1">
       <c r="A56" s="35"/>
-      <c r="B56" s="419"/>
-      <c r="C56" s="420"/>
-      <c r="D56" s="421"/>
-      <c r="E56" s="422"/>
-      <c r="F56" s="422"/>
-      <c r="G56" s="422"/>
-      <c r="H56" s="423"/>
-      <c r="I56" s="424"/>
-      <c r="J56" s="425"/>
-      <c r="K56" s="425"/>
-      <c r="L56" s="425"/>
-      <c r="M56" s="425"/>
-      <c r="N56" s="425"/>
-      <c r="O56" s="425"/>
-      <c r="P56" s="425"/>
-      <c r="Q56" s="425"/>
-      <c r="R56" s="425"/>
-      <c r="S56" s="425"/>
-      <c r="T56" s="425"/>
-      <c r="U56" s="425"/>
-      <c r="V56" s="425"/>
-      <c r="W56" s="425"/>
-      <c r="X56" s="425"/>
-      <c r="Y56" s="425"/>
-      <c r="Z56" s="426"/>
-      <c r="AA56" s="427"/>
-      <c r="AB56" s="428"/>
-      <c r="AC56" s="428"/>
-      <c r="AD56" s="429"/>
-      <c r="AE56" s="421"/>
-      <c r="AF56" s="422"/>
-      <c r="AG56" s="422"/>
-      <c r="AH56" s="422"/>
-      <c r="AI56" s="423"/>
-      <c r="AJ56" s="427"/>
-      <c r="AK56" s="428"/>
-      <c r="AL56" s="428"/>
-      <c r="AM56" s="429"/>
-      <c r="AN56" s="421"/>
-      <c r="AO56" s="422"/>
-      <c r="AP56" s="422"/>
-      <c r="AQ56" s="422"/>
-      <c r="AR56" s="423"/>
-      <c r="AS56" s="427"/>
-      <c r="AT56" s="428"/>
-      <c r="AU56" s="428"/>
-      <c r="AV56" s="429"/>
+      <c r="B56" s="376"/>
+      <c r="C56" s="377"/>
+      <c r="D56" s="370"/>
+      <c r="E56" s="371"/>
+      <c r="F56" s="371"/>
+      <c r="G56" s="371"/>
+      <c r="H56" s="372"/>
+      <c r="I56" s="378"/>
+      <c r="J56" s="379"/>
+      <c r="K56" s="379"/>
+      <c r="L56" s="379"/>
+      <c r="M56" s="379"/>
+      <c r="N56" s="379"/>
+      <c r="O56" s="379"/>
+      <c r="P56" s="379"/>
+      <c r="Q56" s="379"/>
+      <c r="R56" s="379"/>
+      <c r="S56" s="379"/>
+      <c r="T56" s="379"/>
+      <c r="U56" s="379"/>
+      <c r="V56" s="379"/>
+      <c r="W56" s="379"/>
+      <c r="X56" s="379"/>
+      <c r="Y56" s="379"/>
+      <c r="Z56" s="380"/>
+      <c r="AA56" s="373"/>
+      <c r="AB56" s="374"/>
+      <c r="AC56" s="374"/>
+      <c r="AD56" s="375"/>
+      <c r="AE56" s="370"/>
+      <c r="AF56" s="371"/>
+      <c r="AG56" s="371"/>
+      <c r="AH56" s="371"/>
+      <c r="AI56" s="372"/>
+      <c r="AJ56" s="373"/>
+      <c r="AK56" s="374"/>
+      <c r="AL56" s="374"/>
+      <c r="AM56" s="375"/>
+      <c r="AN56" s="370"/>
+      <c r="AO56" s="371"/>
+      <c r="AP56" s="371"/>
+      <c r="AQ56" s="371"/>
+      <c r="AR56" s="372"/>
+      <c r="AS56" s="373"/>
+      <c r="AT56" s="374"/>
+      <c r="AU56" s="374"/>
+      <c r="AV56" s="375"/>
       <c r="AW56" s="38"/>
     </row>
     <row r="57" spans="1:49" ht="13.5" customHeight="1">
       <c r="A57" s="35"/>
-      <c r="B57" s="419"/>
-      <c r="C57" s="420"/>
-      <c r="D57" s="421"/>
-      <c r="E57" s="422"/>
-      <c r="F57" s="422"/>
-      <c r="G57" s="422"/>
-      <c r="H57" s="423"/>
-      <c r="I57" s="424"/>
-      <c r="J57" s="425"/>
-      <c r="K57" s="425"/>
-      <c r="L57" s="425"/>
-      <c r="M57" s="425"/>
-      <c r="N57" s="425"/>
-      <c r="O57" s="425"/>
-      <c r="P57" s="425"/>
-      <c r="Q57" s="425"/>
-      <c r="R57" s="425"/>
-      <c r="S57" s="425"/>
-      <c r="T57" s="425"/>
-      <c r="U57" s="425"/>
-      <c r="V57" s="425"/>
-      <c r="W57" s="425"/>
-      <c r="X57" s="425"/>
-      <c r="Y57" s="425"/>
-      <c r="Z57" s="426"/>
-      <c r="AA57" s="427"/>
-      <c r="AB57" s="428"/>
-      <c r="AC57" s="428"/>
-      <c r="AD57" s="429"/>
-      <c r="AE57" s="421"/>
-      <c r="AF57" s="422"/>
-      <c r="AG57" s="422"/>
-      <c r="AH57" s="422"/>
-      <c r="AI57" s="423"/>
-      <c r="AJ57" s="427"/>
-      <c r="AK57" s="428"/>
-      <c r="AL57" s="428"/>
-      <c r="AM57" s="429"/>
-      <c r="AN57" s="421"/>
-      <c r="AO57" s="422"/>
-      <c r="AP57" s="422"/>
-      <c r="AQ57" s="422"/>
-      <c r="AR57" s="423"/>
-      <c r="AS57" s="427"/>
-      <c r="AT57" s="428"/>
-      <c r="AU57" s="428"/>
-      <c r="AV57" s="429"/>
+      <c r="B57" s="376"/>
+      <c r="C57" s="377"/>
+      <c r="D57" s="370"/>
+      <c r="E57" s="371"/>
+      <c r="F57" s="371"/>
+      <c r="G57" s="371"/>
+      <c r="H57" s="372"/>
+      <c r="I57" s="378"/>
+      <c r="J57" s="379"/>
+      <c r="K57" s="379"/>
+      <c r="L57" s="379"/>
+      <c r="M57" s="379"/>
+      <c r="N57" s="379"/>
+      <c r="O57" s="379"/>
+      <c r="P57" s="379"/>
+      <c r="Q57" s="379"/>
+      <c r="R57" s="379"/>
+      <c r="S57" s="379"/>
+      <c r="T57" s="379"/>
+      <c r="U57" s="379"/>
+      <c r="V57" s="379"/>
+      <c r="W57" s="379"/>
+      <c r="X57" s="379"/>
+      <c r="Y57" s="379"/>
+      <c r="Z57" s="380"/>
+      <c r="AA57" s="373"/>
+      <c r="AB57" s="374"/>
+      <c r="AC57" s="374"/>
+      <c r="AD57" s="375"/>
+      <c r="AE57" s="370"/>
+      <c r="AF57" s="371"/>
+      <c r="AG57" s="371"/>
+      <c r="AH57" s="371"/>
+      <c r="AI57" s="372"/>
+      <c r="AJ57" s="373"/>
+      <c r="AK57" s="374"/>
+      <c r="AL57" s="374"/>
+      <c r="AM57" s="375"/>
+      <c r="AN57" s="370"/>
+      <c r="AO57" s="371"/>
+      <c r="AP57" s="371"/>
+      <c r="AQ57" s="371"/>
+      <c r="AR57" s="372"/>
+      <c r="AS57" s="373"/>
+      <c r="AT57" s="374"/>
+      <c r="AU57" s="374"/>
+      <c r="AV57" s="375"/>
       <c r="AW57" s="38"/>
     </row>
     <row r="58" spans="1:49" ht="13.5" customHeight="1">
       <c r="A58" s="35"/>
-      <c r="B58" s="419"/>
-      <c r="C58" s="420"/>
-      <c r="D58" s="421"/>
-      <c r="E58" s="422"/>
-      <c r="F58" s="422"/>
-      <c r="G58" s="422"/>
-      <c r="H58" s="423"/>
-      <c r="I58" s="424"/>
-      <c r="J58" s="425"/>
-      <c r="K58" s="425"/>
-      <c r="L58" s="425"/>
-      <c r="M58" s="425"/>
-      <c r="N58" s="425"/>
-      <c r="O58" s="425"/>
-      <c r="P58" s="425"/>
-      <c r="Q58" s="425"/>
-      <c r="R58" s="425"/>
-      <c r="S58" s="425"/>
-      <c r="T58" s="425"/>
-      <c r="U58" s="425"/>
-      <c r="V58" s="425"/>
-      <c r="W58" s="425"/>
-      <c r="X58" s="425"/>
-      <c r="Y58" s="425"/>
-      <c r="Z58" s="426"/>
-      <c r="AA58" s="427"/>
-      <c r="AB58" s="428"/>
-      <c r="AC58" s="428"/>
-      <c r="AD58" s="429"/>
-      <c r="AE58" s="421"/>
-      <c r="AF58" s="422"/>
-      <c r="AG58" s="422"/>
-      <c r="AH58" s="422"/>
-      <c r="AI58" s="423"/>
-      <c r="AJ58" s="427"/>
-      <c r="AK58" s="428"/>
-      <c r="AL58" s="428"/>
-      <c r="AM58" s="429"/>
-      <c r="AN58" s="421"/>
-      <c r="AO58" s="422"/>
-      <c r="AP58" s="422"/>
-      <c r="AQ58" s="422"/>
-      <c r="AR58" s="423"/>
-      <c r="AS58" s="427"/>
-      <c r="AT58" s="428"/>
-      <c r="AU58" s="428"/>
-      <c r="AV58" s="429"/>
+      <c r="B58" s="376"/>
+      <c r="C58" s="377"/>
+      <c r="D58" s="370"/>
+      <c r="E58" s="371"/>
+      <c r="F58" s="371"/>
+      <c r="G58" s="371"/>
+      <c r="H58" s="372"/>
+      <c r="I58" s="378"/>
+      <c r="J58" s="379"/>
+      <c r="K58" s="379"/>
+      <c r="L58" s="379"/>
+      <c r="M58" s="379"/>
+      <c r="N58" s="379"/>
+      <c r="O58" s="379"/>
+      <c r="P58" s="379"/>
+      <c r="Q58" s="379"/>
+      <c r="R58" s="379"/>
+      <c r="S58" s="379"/>
+      <c r="T58" s="379"/>
+      <c r="U58" s="379"/>
+      <c r="V58" s="379"/>
+      <c r="W58" s="379"/>
+      <c r="X58" s="379"/>
+      <c r="Y58" s="379"/>
+      <c r="Z58" s="380"/>
+      <c r="AA58" s="373"/>
+      <c r="AB58" s="374"/>
+      <c r="AC58" s="374"/>
+      <c r="AD58" s="375"/>
+      <c r="AE58" s="370"/>
+      <c r="AF58" s="371"/>
+      <c r="AG58" s="371"/>
+      <c r="AH58" s="371"/>
+      <c r="AI58" s="372"/>
+      <c r="AJ58" s="373"/>
+      <c r="AK58" s="374"/>
+      <c r="AL58" s="374"/>
+      <c r="AM58" s="375"/>
+      <c r="AN58" s="370"/>
+      <c r="AO58" s="371"/>
+      <c r="AP58" s="371"/>
+      <c r="AQ58" s="371"/>
+      <c r="AR58" s="372"/>
+      <c r="AS58" s="373"/>
+      <c r="AT58" s="374"/>
+      <c r="AU58" s="374"/>
+      <c r="AV58" s="375"/>
       <c r="AW58" s="38"/>
     </row>
     <row r="59" spans="1:49" ht="13.5" customHeight="1">
       <c r="A59" s="35"/>
-      <c r="B59" s="383"/>
-      <c r="C59" s="384"/>
-      <c r="D59" s="406"/>
-      <c r="E59" s="407"/>
-      <c r="F59" s="407"/>
-      <c r="G59" s="407"/>
-      <c r="H59" s="408"/>
-      <c r="I59" s="394"/>
-      <c r="J59" s="395"/>
-      <c r="K59" s="395"/>
-      <c r="L59" s="395"/>
-      <c r="M59" s="395"/>
-      <c r="N59" s="395"/>
-      <c r="O59" s="395"/>
-      <c r="P59" s="395"/>
-      <c r="Q59" s="395"/>
-      <c r="R59" s="395"/>
-      <c r="S59" s="395"/>
-      <c r="T59" s="395"/>
-      <c r="U59" s="395"/>
-      <c r="V59" s="395"/>
-      <c r="W59" s="395"/>
-      <c r="X59" s="395"/>
-      <c r="Y59" s="395"/>
-      <c r="Z59" s="396"/>
-      <c r="AA59" s="400"/>
-      <c r="AB59" s="401"/>
-      <c r="AC59" s="401"/>
-      <c r="AD59" s="402"/>
-      <c r="AE59" s="406"/>
-      <c r="AF59" s="407"/>
-      <c r="AG59" s="407"/>
-      <c r="AH59" s="407"/>
-      <c r="AI59" s="408"/>
-      <c r="AJ59" s="400"/>
-      <c r="AK59" s="401"/>
-      <c r="AL59" s="401"/>
-      <c r="AM59" s="402"/>
-      <c r="AN59" s="406"/>
-      <c r="AO59" s="407"/>
-      <c r="AP59" s="407"/>
-      <c r="AQ59" s="407"/>
-      <c r="AR59" s="408"/>
-      <c r="AS59" s="400"/>
-      <c r="AT59" s="401"/>
-      <c r="AU59" s="401"/>
-      <c r="AV59" s="402"/>
+      <c r="B59" s="360"/>
+      <c r="C59" s="361"/>
+      <c r="D59" s="348"/>
+      <c r="E59" s="349"/>
+      <c r="F59" s="349"/>
+      <c r="G59" s="349"/>
+      <c r="H59" s="350"/>
+      <c r="I59" s="364"/>
+      <c r="J59" s="365"/>
+      <c r="K59" s="365"/>
+      <c r="L59" s="365"/>
+      <c r="M59" s="365"/>
+      <c r="N59" s="365"/>
+      <c r="O59" s="365"/>
+      <c r="P59" s="365"/>
+      <c r="Q59" s="365"/>
+      <c r="R59" s="365"/>
+      <c r="S59" s="365"/>
+      <c r="T59" s="365"/>
+      <c r="U59" s="365"/>
+      <c r="V59" s="365"/>
+      <c r="W59" s="365"/>
+      <c r="X59" s="365"/>
+      <c r="Y59" s="365"/>
+      <c r="Z59" s="366"/>
+      <c r="AA59" s="354"/>
+      <c r="AB59" s="355"/>
+      <c r="AC59" s="355"/>
+      <c r="AD59" s="356"/>
+      <c r="AE59" s="348"/>
+      <c r="AF59" s="349"/>
+      <c r="AG59" s="349"/>
+      <c r="AH59" s="349"/>
+      <c r="AI59" s="350"/>
+      <c r="AJ59" s="354"/>
+      <c r="AK59" s="355"/>
+      <c r="AL59" s="355"/>
+      <c r="AM59" s="356"/>
+      <c r="AN59" s="348"/>
+      <c r="AO59" s="349"/>
+      <c r="AP59" s="349"/>
+      <c r="AQ59" s="349"/>
+      <c r="AR59" s="350"/>
+      <c r="AS59" s="354"/>
+      <c r="AT59" s="355"/>
+      <c r="AU59" s="355"/>
+      <c r="AV59" s="356"/>
       <c r="AW59" s="38"/>
     </row>
     <row r="60" spans="1:49" ht="13.5" customHeight="1">
       <c r="A60" s="35"/>
-      <c r="B60" s="383"/>
-      <c r="C60" s="384"/>
-      <c r="D60" s="406"/>
-      <c r="E60" s="407"/>
-      <c r="F60" s="407"/>
-      <c r="G60" s="407"/>
-      <c r="H60" s="408"/>
-      <c r="I60" s="394"/>
-      <c r="J60" s="395"/>
-      <c r="K60" s="395"/>
-      <c r="L60" s="395"/>
-      <c r="M60" s="395"/>
-      <c r="N60" s="395"/>
-      <c r="O60" s="395"/>
-      <c r="P60" s="395"/>
-      <c r="Q60" s="395"/>
-      <c r="R60" s="395"/>
-      <c r="S60" s="395"/>
-      <c r="T60" s="395"/>
-      <c r="U60" s="395"/>
-      <c r="V60" s="395"/>
-      <c r="W60" s="395"/>
-      <c r="X60" s="395"/>
-      <c r="Y60" s="395"/>
-      <c r="Z60" s="396"/>
-      <c r="AA60" s="400"/>
-      <c r="AB60" s="401"/>
-      <c r="AC60" s="401"/>
-      <c r="AD60" s="402"/>
-      <c r="AE60" s="406"/>
-      <c r="AF60" s="407"/>
-      <c r="AG60" s="407"/>
-      <c r="AH60" s="407"/>
-      <c r="AI60" s="408"/>
-      <c r="AJ60" s="400"/>
-      <c r="AK60" s="401"/>
-      <c r="AL60" s="401"/>
-      <c r="AM60" s="402"/>
-      <c r="AN60" s="406"/>
-      <c r="AO60" s="407"/>
-      <c r="AP60" s="407"/>
-      <c r="AQ60" s="407"/>
-      <c r="AR60" s="408"/>
-      <c r="AS60" s="400"/>
-      <c r="AT60" s="401"/>
-      <c r="AU60" s="401"/>
-      <c r="AV60" s="402"/>
+      <c r="B60" s="360"/>
+      <c r="C60" s="361"/>
+      <c r="D60" s="348"/>
+      <c r="E60" s="349"/>
+      <c r="F60" s="349"/>
+      <c r="G60" s="349"/>
+      <c r="H60" s="350"/>
+      <c r="I60" s="364"/>
+      <c r="J60" s="365"/>
+      <c r="K60" s="365"/>
+      <c r="L60" s="365"/>
+      <c r="M60" s="365"/>
+      <c r="N60" s="365"/>
+      <c r="O60" s="365"/>
+      <c r="P60" s="365"/>
+      <c r="Q60" s="365"/>
+      <c r="R60" s="365"/>
+      <c r="S60" s="365"/>
+      <c r="T60" s="365"/>
+      <c r="U60" s="365"/>
+      <c r="V60" s="365"/>
+      <c r="W60" s="365"/>
+      <c r="X60" s="365"/>
+      <c r="Y60" s="365"/>
+      <c r="Z60" s="366"/>
+      <c r="AA60" s="354"/>
+      <c r="AB60" s="355"/>
+      <c r="AC60" s="355"/>
+      <c r="AD60" s="356"/>
+      <c r="AE60" s="348"/>
+      <c r="AF60" s="349"/>
+      <c r="AG60" s="349"/>
+      <c r="AH60" s="349"/>
+      <c r="AI60" s="350"/>
+      <c r="AJ60" s="354"/>
+      <c r="AK60" s="355"/>
+      <c r="AL60" s="355"/>
+      <c r="AM60" s="356"/>
+      <c r="AN60" s="348"/>
+      <c r="AO60" s="349"/>
+      <c r="AP60" s="349"/>
+      <c r="AQ60" s="349"/>
+      <c r="AR60" s="350"/>
+      <c r="AS60" s="354"/>
+      <c r="AT60" s="355"/>
+      <c r="AU60" s="355"/>
+      <c r="AV60" s="356"/>
       <c r="AW60" s="38"/>
     </row>
     <row r="61" spans="1:49" ht="13.5" customHeight="1">
       <c r="A61" s="35"/>
-      <c r="B61" s="383"/>
-      <c r="C61" s="384"/>
-      <c r="D61" s="406"/>
-      <c r="E61" s="407"/>
-      <c r="F61" s="407"/>
-      <c r="G61" s="407"/>
-      <c r="H61" s="408"/>
-      <c r="I61" s="394"/>
-      <c r="J61" s="395"/>
-      <c r="K61" s="395"/>
-      <c r="L61" s="395"/>
-      <c r="M61" s="395"/>
-      <c r="N61" s="395"/>
-      <c r="O61" s="395"/>
-      <c r="P61" s="395"/>
-      <c r="Q61" s="395"/>
-      <c r="R61" s="395"/>
-      <c r="S61" s="395"/>
-      <c r="T61" s="395"/>
-      <c r="U61" s="395"/>
-      <c r="V61" s="395"/>
-      <c r="W61" s="395"/>
-      <c r="X61" s="395"/>
-      <c r="Y61" s="395"/>
-      <c r="Z61" s="396"/>
-      <c r="AA61" s="400"/>
-      <c r="AB61" s="401"/>
-      <c r="AC61" s="401"/>
-      <c r="AD61" s="402"/>
-      <c r="AE61" s="406"/>
-      <c r="AF61" s="407"/>
-      <c r="AG61" s="407"/>
-      <c r="AH61" s="407"/>
-      <c r="AI61" s="408"/>
-      <c r="AJ61" s="400"/>
-      <c r="AK61" s="401"/>
-      <c r="AL61" s="401"/>
-      <c r="AM61" s="402"/>
-      <c r="AN61" s="406"/>
-      <c r="AO61" s="407"/>
-      <c r="AP61" s="407"/>
-      <c r="AQ61" s="407"/>
-      <c r="AR61" s="408"/>
-      <c r="AS61" s="400"/>
-      <c r="AT61" s="401"/>
-      <c r="AU61" s="401"/>
-      <c r="AV61" s="402"/>
+      <c r="B61" s="360"/>
+      <c r="C61" s="361"/>
+      <c r="D61" s="348"/>
+      <c r="E61" s="349"/>
+      <c r="F61" s="349"/>
+      <c r="G61" s="349"/>
+      <c r="H61" s="350"/>
+      <c r="I61" s="364"/>
+      <c r="J61" s="365"/>
+      <c r="K61" s="365"/>
+      <c r="L61" s="365"/>
+      <c r="M61" s="365"/>
+      <c r="N61" s="365"/>
+      <c r="O61" s="365"/>
+      <c r="P61" s="365"/>
+      <c r="Q61" s="365"/>
+      <c r="R61" s="365"/>
+      <c r="S61" s="365"/>
+      <c r="T61" s="365"/>
+      <c r="U61" s="365"/>
+      <c r="V61" s="365"/>
+      <c r="W61" s="365"/>
+      <c r="X61" s="365"/>
+      <c r="Y61" s="365"/>
+      <c r="Z61" s="366"/>
+      <c r="AA61" s="354"/>
+      <c r="AB61" s="355"/>
+      <c r="AC61" s="355"/>
+      <c r="AD61" s="356"/>
+      <c r="AE61" s="348"/>
+      <c r="AF61" s="349"/>
+      <c r="AG61" s="349"/>
+      <c r="AH61" s="349"/>
+      <c r="AI61" s="350"/>
+      <c r="AJ61" s="354"/>
+      <c r="AK61" s="355"/>
+      <c r="AL61" s="355"/>
+      <c r="AM61" s="356"/>
+      <c r="AN61" s="348"/>
+      <c r="AO61" s="349"/>
+      <c r="AP61" s="349"/>
+      <c r="AQ61" s="349"/>
+      <c r="AR61" s="350"/>
+      <c r="AS61" s="354"/>
+      <c r="AT61" s="355"/>
+      <c r="AU61" s="355"/>
+      <c r="AV61" s="356"/>
       <c r="AW61" s="38"/>
     </row>
     <row r="62" spans="1:49" ht="13.5" customHeight="1">
       <c r="A62" s="35"/>
-      <c r="B62" s="383"/>
-      <c r="C62" s="384"/>
-      <c r="D62" s="406"/>
-      <c r="E62" s="407"/>
-      <c r="F62" s="407"/>
-      <c r="G62" s="407"/>
-      <c r="H62" s="408"/>
-      <c r="I62" s="394"/>
-      <c r="J62" s="395"/>
-      <c r="K62" s="395"/>
-      <c r="L62" s="395"/>
-      <c r="M62" s="395"/>
-      <c r="N62" s="395"/>
-      <c r="O62" s="395"/>
-      <c r="P62" s="395"/>
-      <c r="Q62" s="395"/>
-      <c r="R62" s="395"/>
-      <c r="S62" s="395"/>
-      <c r="T62" s="395"/>
-      <c r="U62" s="395"/>
-      <c r="V62" s="395"/>
-      <c r="W62" s="395"/>
-      <c r="X62" s="395"/>
-      <c r="Y62" s="395"/>
-      <c r="Z62" s="396"/>
-      <c r="AA62" s="400"/>
-      <c r="AB62" s="401"/>
-      <c r="AC62" s="401"/>
-      <c r="AD62" s="402"/>
-      <c r="AE62" s="406"/>
-      <c r="AF62" s="407"/>
-      <c r="AG62" s="407"/>
-      <c r="AH62" s="407"/>
-      <c r="AI62" s="408"/>
-      <c r="AJ62" s="400"/>
-      <c r="AK62" s="401"/>
-      <c r="AL62" s="401"/>
-      <c r="AM62" s="402"/>
-      <c r="AN62" s="406"/>
-      <c r="AO62" s="407"/>
-      <c r="AP62" s="407"/>
-      <c r="AQ62" s="407"/>
-      <c r="AR62" s="408"/>
-      <c r="AS62" s="400"/>
-      <c r="AT62" s="401"/>
-      <c r="AU62" s="401"/>
-      <c r="AV62" s="402"/>
+      <c r="B62" s="360"/>
+      <c r="C62" s="361"/>
+      <c r="D62" s="348"/>
+      <c r="E62" s="349"/>
+      <c r="F62" s="349"/>
+      <c r="G62" s="349"/>
+      <c r="H62" s="350"/>
+      <c r="I62" s="364"/>
+      <c r="J62" s="365"/>
+      <c r="K62" s="365"/>
+      <c r="L62" s="365"/>
+      <c r="M62" s="365"/>
+      <c r="N62" s="365"/>
+      <c r="O62" s="365"/>
+      <c r="P62" s="365"/>
+      <c r="Q62" s="365"/>
+      <c r="R62" s="365"/>
+      <c r="S62" s="365"/>
+      <c r="T62" s="365"/>
+      <c r="U62" s="365"/>
+      <c r="V62" s="365"/>
+      <c r="W62" s="365"/>
+      <c r="X62" s="365"/>
+      <c r="Y62" s="365"/>
+      <c r="Z62" s="366"/>
+      <c r="AA62" s="354"/>
+      <c r="AB62" s="355"/>
+      <c r="AC62" s="355"/>
+      <c r="AD62" s="356"/>
+      <c r="AE62" s="348"/>
+      <c r="AF62" s="349"/>
+      <c r="AG62" s="349"/>
+      <c r="AH62" s="349"/>
+      <c r="AI62" s="350"/>
+      <c r="AJ62" s="354"/>
+      <c r="AK62" s="355"/>
+      <c r="AL62" s="355"/>
+      <c r="AM62" s="356"/>
+      <c r="AN62" s="348"/>
+      <c r="AO62" s="349"/>
+      <c r="AP62" s="349"/>
+      <c r="AQ62" s="349"/>
+      <c r="AR62" s="350"/>
+      <c r="AS62" s="354"/>
+      <c r="AT62" s="355"/>
+      <c r="AU62" s="355"/>
+      <c r="AV62" s="356"/>
       <c r="AW62" s="38"/>
     </row>
     <row r="63" spans="1:49" ht="13.5" customHeight="1">
       <c r="A63" s="35"/>
-      <c r="B63" s="383"/>
-      <c r="C63" s="384"/>
-      <c r="D63" s="406"/>
-      <c r="E63" s="407"/>
-      <c r="F63" s="407"/>
-      <c r="G63" s="407"/>
-      <c r="H63" s="408"/>
-      <c r="I63" s="394"/>
-      <c r="J63" s="395"/>
-      <c r="K63" s="395"/>
-      <c r="L63" s="395"/>
-      <c r="M63" s="395"/>
-      <c r="N63" s="395"/>
-      <c r="O63" s="395"/>
-      <c r="P63" s="395"/>
-      <c r="Q63" s="395"/>
-      <c r="R63" s="395"/>
-      <c r="S63" s="395"/>
-      <c r="T63" s="395"/>
-      <c r="U63" s="395"/>
-      <c r="V63" s="395"/>
-      <c r="W63" s="395"/>
-      <c r="X63" s="395"/>
-      <c r="Y63" s="395"/>
-      <c r="Z63" s="396"/>
-      <c r="AA63" s="400"/>
-      <c r="AB63" s="401"/>
-      <c r="AC63" s="401"/>
-      <c r="AD63" s="402"/>
-      <c r="AE63" s="406"/>
-      <c r="AF63" s="407"/>
-      <c r="AG63" s="407"/>
-      <c r="AH63" s="407"/>
-      <c r="AI63" s="408"/>
-      <c r="AJ63" s="400"/>
-      <c r="AK63" s="401"/>
-      <c r="AL63" s="401"/>
-      <c r="AM63" s="402"/>
-      <c r="AN63" s="406"/>
-      <c r="AO63" s="407"/>
-      <c r="AP63" s="407"/>
-      <c r="AQ63" s="407"/>
-      <c r="AR63" s="408"/>
-      <c r="AS63" s="400"/>
-      <c r="AT63" s="401"/>
-      <c r="AU63" s="401"/>
-      <c r="AV63" s="402"/>
+      <c r="B63" s="360"/>
+      <c r="C63" s="361"/>
+      <c r="D63" s="348"/>
+      <c r="E63" s="349"/>
+      <c r="F63" s="349"/>
+      <c r="G63" s="349"/>
+      <c r="H63" s="350"/>
+      <c r="I63" s="364"/>
+      <c r="J63" s="365"/>
+      <c r="K63" s="365"/>
+      <c r="L63" s="365"/>
+      <c r="M63" s="365"/>
+      <c r="N63" s="365"/>
+      <c r="O63" s="365"/>
+      <c r="P63" s="365"/>
+      <c r="Q63" s="365"/>
+      <c r="R63" s="365"/>
+      <c r="S63" s="365"/>
+      <c r="T63" s="365"/>
+      <c r="U63" s="365"/>
+      <c r="V63" s="365"/>
+      <c r="W63" s="365"/>
+      <c r="X63" s="365"/>
+      <c r="Y63" s="365"/>
+      <c r="Z63" s="366"/>
+      <c r="AA63" s="354"/>
+      <c r="AB63" s="355"/>
+      <c r="AC63" s="355"/>
+      <c r="AD63" s="356"/>
+      <c r="AE63" s="348"/>
+      <c r="AF63" s="349"/>
+      <c r="AG63" s="349"/>
+      <c r="AH63" s="349"/>
+      <c r="AI63" s="350"/>
+      <c r="AJ63" s="354"/>
+      <c r="AK63" s="355"/>
+      <c r="AL63" s="355"/>
+      <c r="AM63" s="356"/>
+      <c r="AN63" s="348"/>
+      <c r="AO63" s="349"/>
+      <c r="AP63" s="349"/>
+      <c r="AQ63" s="349"/>
+      <c r="AR63" s="350"/>
+      <c r="AS63" s="354"/>
+      <c r="AT63" s="355"/>
+      <c r="AU63" s="355"/>
+      <c r="AV63" s="356"/>
       <c r="AW63" s="38"/>
     </row>
     <row r="64" spans="1:49" ht="13.5" customHeight="1">
       <c r="A64" s="35"/>
-      <c r="B64" s="383"/>
-      <c r="C64" s="384"/>
-      <c r="D64" s="406"/>
-      <c r="E64" s="407"/>
-      <c r="F64" s="407"/>
-      <c r="G64" s="407"/>
-      <c r="H64" s="408"/>
-      <c r="I64" s="394"/>
-      <c r="J64" s="395"/>
-      <c r="K64" s="395"/>
-      <c r="L64" s="395"/>
-      <c r="M64" s="395"/>
-      <c r="N64" s="395"/>
-      <c r="O64" s="395"/>
-      <c r="P64" s="395"/>
-      <c r="Q64" s="395"/>
-      <c r="R64" s="395"/>
-      <c r="S64" s="395"/>
-      <c r="T64" s="395"/>
-      <c r="U64" s="395"/>
-      <c r="V64" s="395"/>
-      <c r="W64" s="395"/>
-      <c r="X64" s="395"/>
-      <c r="Y64" s="395"/>
-      <c r="Z64" s="396"/>
-      <c r="AA64" s="400"/>
-      <c r="AB64" s="401"/>
-      <c r="AC64" s="401"/>
-      <c r="AD64" s="402"/>
-      <c r="AE64" s="406"/>
-      <c r="AF64" s="407"/>
-      <c r="AG64" s="407"/>
-      <c r="AH64" s="407"/>
-      <c r="AI64" s="408"/>
-      <c r="AJ64" s="400"/>
-      <c r="AK64" s="401"/>
-      <c r="AL64" s="401"/>
-      <c r="AM64" s="402"/>
-      <c r="AN64" s="406"/>
-      <c r="AO64" s="407"/>
-      <c r="AP64" s="407"/>
-      <c r="AQ64" s="407"/>
-      <c r="AR64" s="408"/>
-      <c r="AS64" s="400"/>
-      <c r="AT64" s="401"/>
-      <c r="AU64" s="401"/>
-      <c r="AV64" s="402"/>
+      <c r="B64" s="360"/>
+      <c r="C64" s="361"/>
+      <c r="D64" s="348"/>
+      <c r="E64" s="349"/>
+      <c r="F64" s="349"/>
+      <c r="G64" s="349"/>
+      <c r="H64" s="350"/>
+      <c r="I64" s="364"/>
+      <c r="J64" s="365"/>
+      <c r="K64" s="365"/>
+      <c r="L64" s="365"/>
+      <c r="M64" s="365"/>
+      <c r="N64" s="365"/>
+      <c r="O64" s="365"/>
+      <c r="P64" s="365"/>
+      <c r="Q64" s="365"/>
+      <c r="R64" s="365"/>
+      <c r="S64" s="365"/>
+      <c r="T64" s="365"/>
+      <c r="U64" s="365"/>
+      <c r="V64" s="365"/>
+      <c r="W64" s="365"/>
+      <c r="X64" s="365"/>
+      <c r="Y64" s="365"/>
+      <c r="Z64" s="366"/>
+      <c r="AA64" s="354"/>
+      <c r="AB64" s="355"/>
+      <c r="AC64" s="355"/>
+      <c r="AD64" s="356"/>
+      <c r="AE64" s="348"/>
+      <c r="AF64" s="349"/>
+      <c r="AG64" s="349"/>
+      <c r="AH64" s="349"/>
+      <c r="AI64" s="350"/>
+      <c r="AJ64" s="354"/>
+      <c r="AK64" s="355"/>
+      <c r="AL64" s="355"/>
+      <c r="AM64" s="356"/>
+      <c r="AN64" s="348"/>
+      <c r="AO64" s="349"/>
+      <c r="AP64" s="349"/>
+      <c r="AQ64" s="349"/>
+      <c r="AR64" s="350"/>
+      <c r="AS64" s="354"/>
+      <c r="AT64" s="355"/>
+      <c r="AU64" s="355"/>
+      <c r="AV64" s="356"/>
       <c r="AW64" s="38"/>
     </row>
     <row r="65" spans="1:49" ht="13.5" customHeight="1">
       <c r="A65" s="35"/>
-      <c r="B65" s="383"/>
-      <c r="C65" s="384"/>
-      <c r="D65" s="406"/>
-      <c r="E65" s="407"/>
-      <c r="F65" s="407"/>
-      <c r="G65" s="407"/>
-      <c r="H65" s="408"/>
-      <c r="I65" s="394"/>
-      <c r="J65" s="395"/>
-      <c r="K65" s="395"/>
-      <c r="L65" s="395"/>
-      <c r="M65" s="395"/>
-      <c r="N65" s="395"/>
-      <c r="O65" s="395"/>
-      <c r="P65" s="395"/>
-      <c r="Q65" s="395"/>
-      <c r="R65" s="395"/>
-      <c r="S65" s="395"/>
-      <c r="T65" s="395"/>
-      <c r="U65" s="395"/>
-      <c r="V65" s="395"/>
-      <c r="W65" s="395"/>
-      <c r="X65" s="395"/>
-      <c r="Y65" s="395"/>
-      <c r="Z65" s="396"/>
-      <c r="AA65" s="400"/>
-      <c r="AB65" s="401"/>
-      <c r="AC65" s="401"/>
-      <c r="AD65" s="402"/>
-      <c r="AE65" s="406"/>
-      <c r="AF65" s="407"/>
-      <c r="AG65" s="407"/>
-      <c r="AH65" s="407"/>
-      <c r="AI65" s="408"/>
-      <c r="AJ65" s="400"/>
-      <c r="AK65" s="401"/>
-      <c r="AL65" s="401"/>
-      <c r="AM65" s="402"/>
-      <c r="AN65" s="406"/>
-      <c r="AO65" s="407"/>
-      <c r="AP65" s="407"/>
-      <c r="AQ65" s="407"/>
-      <c r="AR65" s="408"/>
-      <c r="AS65" s="400"/>
-      <c r="AT65" s="401"/>
-      <c r="AU65" s="401"/>
-      <c r="AV65" s="402"/>
+      <c r="B65" s="360"/>
+      <c r="C65" s="361"/>
+      <c r="D65" s="348"/>
+      <c r="E65" s="349"/>
+      <c r="F65" s="349"/>
+      <c r="G65" s="349"/>
+      <c r="H65" s="350"/>
+      <c r="I65" s="364"/>
+      <c r="J65" s="365"/>
+      <c r="K65" s="365"/>
+      <c r="L65" s="365"/>
+      <c r="M65" s="365"/>
+      <c r="N65" s="365"/>
+      <c r="O65" s="365"/>
+      <c r="P65" s="365"/>
+      <c r="Q65" s="365"/>
+      <c r="R65" s="365"/>
+      <c r="S65" s="365"/>
+      <c r="T65" s="365"/>
+      <c r="U65" s="365"/>
+      <c r="V65" s="365"/>
+      <c r="W65" s="365"/>
+      <c r="X65" s="365"/>
+      <c r="Y65" s="365"/>
+      <c r="Z65" s="366"/>
+      <c r="AA65" s="354"/>
+      <c r="AB65" s="355"/>
+      <c r="AC65" s="355"/>
+      <c r="AD65" s="356"/>
+      <c r="AE65" s="348"/>
+      <c r="AF65" s="349"/>
+      <c r="AG65" s="349"/>
+      <c r="AH65" s="349"/>
+      <c r="AI65" s="350"/>
+      <c r="AJ65" s="354"/>
+      <c r="AK65" s="355"/>
+      <c r="AL65" s="355"/>
+      <c r="AM65" s="356"/>
+      <c r="AN65" s="348"/>
+      <c r="AO65" s="349"/>
+      <c r="AP65" s="349"/>
+      <c r="AQ65" s="349"/>
+      <c r="AR65" s="350"/>
+      <c r="AS65" s="354"/>
+      <c r="AT65" s="355"/>
+      <c r="AU65" s="355"/>
+      <c r="AV65" s="356"/>
       <c r="AW65" s="38"/>
     </row>
     <row r="66" spans="1:49" ht="13.5" customHeight="1">
       <c r="A66" s="35"/>
-      <c r="B66" s="383"/>
-      <c r="C66" s="384"/>
-      <c r="D66" s="406"/>
-      <c r="E66" s="407"/>
-      <c r="F66" s="407"/>
-      <c r="G66" s="407"/>
-      <c r="H66" s="408"/>
-      <c r="I66" s="394"/>
-      <c r="J66" s="395"/>
-      <c r="K66" s="395"/>
-      <c r="L66" s="395"/>
-      <c r="M66" s="395"/>
-      <c r="N66" s="395"/>
-      <c r="O66" s="395"/>
-      <c r="P66" s="395"/>
-      <c r="Q66" s="395"/>
-      <c r="R66" s="395"/>
-      <c r="S66" s="395"/>
-      <c r="T66" s="395"/>
-      <c r="U66" s="395"/>
-      <c r="V66" s="395"/>
-      <c r="W66" s="395"/>
-      <c r="X66" s="395"/>
-      <c r="Y66" s="395"/>
-      <c r="Z66" s="396"/>
-      <c r="AA66" s="400"/>
-      <c r="AB66" s="401"/>
-      <c r="AC66" s="401"/>
-      <c r="AD66" s="402"/>
-      <c r="AE66" s="406"/>
-      <c r="AF66" s="407"/>
-      <c r="AG66" s="407"/>
-      <c r="AH66" s="407"/>
-      <c r="AI66" s="408"/>
-      <c r="AJ66" s="400"/>
-      <c r="AK66" s="401"/>
-      <c r="AL66" s="401"/>
-      <c r="AM66" s="402"/>
-      <c r="AN66" s="406"/>
-      <c r="AO66" s="407"/>
-      <c r="AP66" s="407"/>
-      <c r="AQ66" s="407"/>
-      <c r="AR66" s="408"/>
-      <c r="AS66" s="400"/>
-      <c r="AT66" s="401"/>
-      <c r="AU66" s="401"/>
-      <c r="AV66" s="402"/>
+      <c r="B66" s="360"/>
+      <c r="C66" s="361"/>
+      <c r="D66" s="348"/>
+      <c r="E66" s="349"/>
+      <c r="F66" s="349"/>
+      <c r="G66" s="349"/>
+      <c r="H66" s="350"/>
+      <c r="I66" s="364"/>
+      <c r="J66" s="365"/>
+      <c r="K66" s="365"/>
+      <c r="L66" s="365"/>
+      <c r="M66" s="365"/>
+      <c r="N66" s="365"/>
+      <c r="O66" s="365"/>
+      <c r="P66" s="365"/>
+      <c r="Q66" s="365"/>
+      <c r="R66" s="365"/>
+      <c r="S66" s="365"/>
+      <c r="T66" s="365"/>
+      <c r="U66" s="365"/>
+      <c r="V66" s="365"/>
+      <c r="W66" s="365"/>
+      <c r="X66" s="365"/>
+      <c r="Y66" s="365"/>
+      <c r="Z66" s="366"/>
+      <c r="AA66" s="354"/>
+      <c r="AB66" s="355"/>
+      <c r="AC66" s="355"/>
+      <c r="AD66" s="356"/>
+      <c r="AE66" s="348"/>
+      <c r="AF66" s="349"/>
+      <c r="AG66" s="349"/>
+      <c r="AH66" s="349"/>
+      <c r="AI66" s="350"/>
+      <c r="AJ66" s="354"/>
+      <c r="AK66" s="355"/>
+      <c r="AL66" s="355"/>
+      <c r="AM66" s="356"/>
+      <c r="AN66" s="348"/>
+      <c r="AO66" s="349"/>
+      <c r="AP66" s="349"/>
+      <c r="AQ66" s="349"/>
+      <c r="AR66" s="350"/>
+      <c r="AS66" s="354"/>
+      <c r="AT66" s="355"/>
+      <c r="AU66" s="355"/>
+      <c r="AV66" s="356"/>
       <c r="AW66" s="38"/>
     </row>
     <row r="67" spans="1:49" ht="13.5" customHeight="1">
       <c r="A67" s="35"/>
-      <c r="B67" s="383"/>
-      <c r="C67" s="384"/>
-      <c r="D67" s="406"/>
-      <c r="E67" s="407"/>
-      <c r="F67" s="407"/>
-      <c r="G67" s="407"/>
-      <c r="H67" s="408"/>
-      <c r="I67" s="394"/>
-      <c r="J67" s="395"/>
-      <c r="K67" s="395"/>
-      <c r="L67" s="395"/>
-      <c r="M67" s="395"/>
-      <c r="N67" s="395"/>
-      <c r="O67" s="395"/>
-      <c r="P67" s="395"/>
-      <c r="Q67" s="395"/>
-      <c r="R67" s="395"/>
-      <c r="S67" s="395"/>
-      <c r="T67" s="395"/>
-      <c r="U67" s="395"/>
-      <c r="V67" s="395"/>
-      <c r="W67" s="395"/>
-      <c r="X67" s="395"/>
-      <c r="Y67" s="395"/>
-      <c r="Z67" s="396"/>
-      <c r="AA67" s="400"/>
-      <c r="AB67" s="401"/>
-      <c r="AC67" s="401"/>
-      <c r="AD67" s="402"/>
-      <c r="AE67" s="406"/>
-      <c r="AF67" s="407"/>
-      <c r="AG67" s="407"/>
-      <c r="AH67" s="407"/>
-      <c r="AI67" s="408"/>
-      <c r="AJ67" s="400"/>
-      <c r="AK67" s="401"/>
-      <c r="AL67" s="401"/>
-      <c r="AM67" s="402"/>
-      <c r="AN67" s="406"/>
-      <c r="AO67" s="407"/>
-      <c r="AP67" s="407"/>
-      <c r="AQ67" s="407"/>
-      <c r="AR67" s="408"/>
-      <c r="AS67" s="400"/>
-      <c r="AT67" s="401"/>
-      <c r="AU67" s="401"/>
-      <c r="AV67" s="402"/>
+      <c r="B67" s="360"/>
+      <c r="C67" s="361"/>
+      <c r="D67" s="348"/>
+      <c r="E67" s="349"/>
+      <c r="F67" s="349"/>
+      <c r="G67" s="349"/>
+      <c r="H67" s="350"/>
+      <c r="I67" s="364"/>
+      <c r="J67" s="365"/>
+      <c r="K67" s="365"/>
+      <c r="L67" s="365"/>
+      <c r="M67" s="365"/>
+      <c r="N67" s="365"/>
+      <c r="O67" s="365"/>
+      <c r="P67" s="365"/>
+      <c r="Q67" s="365"/>
+      <c r="R67" s="365"/>
+      <c r="S67" s="365"/>
+      <c r="T67" s="365"/>
+      <c r="U67" s="365"/>
+      <c r="V67" s="365"/>
+      <c r="W67" s="365"/>
+      <c r="X67" s="365"/>
+      <c r="Y67" s="365"/>
+      <c r="Z67" s="366"/>
+      <c r="AA67" s="354"/>
+      <c r="AB67" s="355"/>
+      <c r="AC67" s="355"/>
+      <c r="AD67" s="356"/>
+      <c r="AE67" s="348"/>
+      <c r="AF67" s="349"/>
+      <c r="AG67" s="349"/>
+      <c r="AH67" s="349"/>
+      <c r="AI67" s="350"/>
+      <c r="AJ67" s="354"/>
+      <c r="AK67" s="355"/>
+      <c r="AL67" s="355"/>
+      <c r="AM67" s="356"/>
+      <c r="AN67" s="348"/>
+      <c r="AO67" s="349"/>
+      <c r="AP67" s="349"/>
+      <c r="AQ67" s="349"/>
+      <c r="AR67" s="350"/>
+      <c r="AS67" s="354"/>
+      <c r="AT67" s="355"/>
+      <c r="AU67" s="355"/>
+      <c r="AV67" s="356"/>
       <c r="AW67" s="38"/>
     </row>
     <row r="68" spans="1:49" ht="13.5" customHeight="1">
       <c r="A68" s="35"/>
-      <c r="B68" s="383"/>
-      <c r="C68" s="384"/>
-      <c r="D68" s="406"/>
-      <c r="E68" s="407"/>
-      <c r="F68" s="407"/>
-      <c r="G68" s="407"/>
-      <c r="H68" s="408"/>
-      <c r="I68" s="394"/>
-      <c r="J68" s="395"/>
-      <c r="K68" s="395"/>
-      <c r="L68" s="395"/>
-      <c r="M68" s="395"/>
-      <c r="N68" s="395"/>
-      <c r="O68" s="395"/>
-      <c r="P68" s="395"/>
-      <c r="Q68" s="395"/>
-      <c r="R68" s="395"/>
-      <c r="S68" s="395"/>
-      <c r="T68" s="395"/>
-      <c r="U68" s="395"/>
-      <c r="V68" s="395"/>
-      <c r="W68" s="395"/>
-      <c r="X68" s="395"/>
-      <c r="Y68" s="395"/>
-      <c r="Z68" s="396"/>
-      <c r="AA68" s="400"/>
-      <c r="AB68" s="401"/>
-      <c r="AC68" s="401"/>
-      <c r="AD68" s="402"/>
-      <c r="AE68" s="406"/>
-      <c r="AF68" s="407"/>
-      <c r="AG68" s="407"/>
-      <c r="AH68" s="407"/>
-      <c r="AI68" s="408"/>
-      <c r="AJ68" s="400"/>
-      <c r="AK68" s="401"/>
-      <c r="AL68" s="401"/>
-      <c r="AM68" s="402"/>
-      <c r="AN68" s="406"/>
-      <c r="AO68" s="407"/>
-      <c r="AP68" s="407"/>
-      <c r="AQ68" s="407"/>
-      <c r="AR68" s="408"/>
-      <c r="AS68" s="400"/>
-      <c r="AT68" s="401"/>
-      <c r="AU68" s="401"/>
-      <c r="AV68" s="402"/>
+      <c r="B68" s="360"/>
+      <c r="C68" s="361"/>
+      <c r="D68" s="348"/>
+      <c r="E68" s="349"/>
+      <c r="F68" s="349"/>
+      <c r="G68" s="349"/>
+      <c r="H68" s="350"/>
+      <c r="I68" s="364"/>
+      <c r="J68" s="365"/>
+      <c r="K68" s="365"/>
+      <c r="L68" s="365"/>
+      <c r="M68" s="365"/>
+      <c r="N68" s="365"/>
+      <c r="O68" s="365"/>
+      <c r="P68" s="365"/>
+      <c r="Q68" s="365"/>
+      <c r="R68" s="365"/>
+      <c r="S68" s="365"/>
+      <c r="T68" s="365"/>
+      <c r="U68" s="365"/>
+      <c r="V68" s="365"/>
+      <c r="W68" s="365"/>
+      <c r="X68" s="365"/>
+      <c r="Y68" s="365"/>
+      <c r="Z68" s="366"/>
+      <c r="AA68" s="354"/>
+      <c r="AB68" s="355"/>
+      <c r="AC68" s="355"/>
+      <c r="AD68" s="356"/>
+      <c r="AE68" s="348"/>
+      <c r="AF68" s="349"/>
+      <c r="AG68" s="349"/>
+      <c r="AH68" s="349"/>
+      <c r="AI68" s="350"/>
+      <c r="AJ68" s="354"/>
+      <c r="AK68" s="355"/>
+      <c r="AL68" s="355"/>
+      <c r="AM68" s="356"/>
+      <c r="AN68" s="348"/>
+      <c r="AO68" s="349"/>
+      <c r="AP68" s="349"/>
+      <c r="AQ68" s="349"/>
+      <c r="AR68" s="350"/>
+      <c r="AS68" s="354"/>
+      <c r="AT68" s="355"/>
+      <c r="AU68" s="355"/>
+      <c r="AV68" s="356"/>
       <c r="AW68" s="38"/>
     </row>
     <row r="69" spans="1:49" ht="13.5" customHeight="1">
       <c r="A69" s="35"/>
-      <c r="B69" s="383"/>
-      <c r="C69" s="384"/>
-      <c r="D69" s="406"/>
-      <c r="E69" s="407"/>
-      <c r="F69" s="407"/>
-      <c r="G69" s="407"/>
-      <c r="H69" s="408"/>
-      <c r="I69" s="394"/>
-      <c r="J69" s="395"/>
-      <c r="K69" s="395"/>
-      <c r="L69" s="395"/>
-      <c r="M69" s="395"/>
-      <c r="N69" s="395"/>
-      <c r="O69" s="395"/>
-      <c r="P69" s="395"/>
-      <c r="Q69" s="395"/>
-      <c r="R69" s="395"/>
-      <c r="S69" s="395"/>
-      <c r="T69" s="395"/>
-      <c r="U69" s="395"/>
-      <c r="V69" s="395"/>
-      <c r="W69" s="395"/>
-      <c r="X69" s="395"/>
-      <c r="Y69" s="395"/>
-      <c r="Z69" s="396"/>
-      <c r="AA69" s="400"/>
-      <c r="AB69" s="401"/>
-      <c r="AC69" s="401"/>
-      <c r="AD69" s="402"/>
-      <c r="AE69" s="406"/>
-      <c r="AF69" s="407"/>
-      <c r="AG69" s="407"/>
-      <c r="AH69" s="407"/>
-      <c r="AI69" s="408"/>
-      <c r="AJ69" s="400"/>
-      <c r="AK69" s="401"/>
-      <c r="AL69" s="401"/>
-      <c r="AM69" s="402"/>
-      <c r="AN69" s="406"/>
-      <c r="AO69" s="407"/>
-      <c r="AP69" s="407"/>
-      <c r="AQ69" s="407"/>
-      <c r="AR69" s="408"/>
-      <c r="AS69" s="400"/>
-      <c r="AT69" s="401"/>
-      <c r="AU69" s="401"/>
-      <c r="AV69" s="402"/>
+      <c r="B69" s="360"/>
+      <c r="C69" s="361"/>
+      <c r="D69" s="348"/>
+      <c r="E69" s="349"/>
+      <c r="F69" s="349"/>
+      <c r="G69" s="349"/>
+      <c r="H69" s="350"/>
+      <c r="I69" s="364"/>
+      <c r="J69" s="365"/>
+      <c r="K69" s="365"/>
+      <c r="L69" s="365"/>
+      <c r="M69" s="365"/>
+      <c r="N69" s="365"/>
+      <c r="O69" s="365"/>
+      <c r="P69" s="365"/>
+      <c r="Q69" s="365"/>
+      <c r="R69" s="365"/>
+      <c r="S69" s="365"/>
+      <c r="T69" s="365"/>
+      <c r="U69" s="365"/>
+      <c r="V69" s="365"/>
+      <c r="W69" s="365"/>
+      <c r="X69" s="365"/>
+      <c r="Y69" s="365"/>
+      <c r="Z69" s="366"/>
+      <c r="AA69" s="354"/>
+      <c r="AB69" s="355"/>
+      <c r="AC69" s="355"/>
+      <c r="AD69" s="356"/>
+      <c r="AE69" s="348"/>
+      <c r="AF69" s="349"/>
+      <c r="AG69" s="349"/>
+      <c r="AH69" s="349"/>
+      <c r="AI69" s="350"/>
+      <c r="AJ69" s="354"/>
+      <c r="AK69" s="355"/>
+      <c r="AL69" s="355"/>
+      <c r="AM69" s="356"/>
+      <c r="AN69" s="348"/>
+      <c r="AO69" s="349"/>
+      <c r="AP69" s="349"/>
+      <c r="AQ69" s="349"/>
+      <c r="AR69" s="350"/>
+      <c r="AS69" s="354"/>
+      <c r="AT69" s="355"/>
+      <c r="AU69" s="355"/>
+      <c r="AV69" s="356"/>
       <c r="AW69" s="38"/>
     </row>
     <row r="70" spans="1:49" ht="13.5" customHeight="1">
       <c r="A70" s="35"/>
-      <c r="B70" s="383"/>
-      <c r="C70" s="384"/>
-      <c r="D70" s="406"/>
-      <c r="E70" s="407"/>
-      <c r="F70" s="407"/>
-      <c r="G70" s="407"/>
-      <c r="H70" s="408"/>
-      <c r="I70" s="394"/>
-      <c r="J70" s="395"/>
-      <c r="K70" s="395"/>
-      <c r="L70" s="395"/>
-      <c r="M70" s="395"/>
-      <c r="N70" s="395"/>
-      <c r="O70" s="395"/>
-      <c r="P70" s="395"/>
-      <c r="Q70" s="395"/>
-      <c r="R70" s="395"/>
-      <c r="S70" s="395"/>
-      <c r="T70" s="395"/>
-      <c r="U70" s="395"/>
-      <c r="V70" s="395"/>
-      <c r="W70" s="395"/>
-      <c r="X70" s="395"/>
-      <c r="Y70" s="395"/>
-      <c r="Z70" s="396"/>
-      <c r="AA70" s="400"/>
-      <c r="AB70" s="401"/>
-      <c r="AC70" s="401"/>
-      <c r="AD70" s="402"/>
-      <c r="AE70" s="406"/>
-      <c r="AF70" s="407"/>
-      <c r="AG70" s="407"/>
-      <c r="AH70" s="407"/>
-      <c r="AI70" s="408"/>
-      <c r="AJ70" s="400"/>
-      <c r="AK70" s="401"/>
-      <c r="AL70" s="401"/>
-      <c r="AM70" s="402"/>
-      <c r="AN70" s="406"/>
-      <c r="AO70" s="407"/>
-      <c r="AP70" s="407"/>
-      <c r="AQ70" s="407"/>
-      <c r="AR70" s="408"/>
-      <c r="AS70" s="400"/>
-      <c r="AT70" s="401"/>
-      <c r="AU70" s="401"/>
-      <c r="AV70" s="402"/>
+      <c r="B70" s="360"/>
+      <c r="C70" s="361"/>
+      <c r="D70" s="348"/>
+      <c r="E70" s="349"/>
+      <c r="F70" s="349"/>
+      <c r="G70" s="349"/>
+      <c r="H70" s="350"/>
+      <c r="I70" s="364"/>
+      <c r="J70" s="365"/>
+      <c r="K70" s="365"/>
+      <c r="L70" s="365"/>
+      <c r="M70" s="365"/>
+      <c r="N70" s="365"/>
+      <c r="O70" s="365"/>
+      <c r="P70" s="365"/>
+      <c r="Q70" s="365"/>
+      <c r="R70" s="365"/>
+      <c r="S70" s="365"/>
+      <c r="T70" s="365"/>
+      <c r="U70" s="365"/>
+      <c r="V70" s="365"/>
+      <c r="W70" s="365"/>
+      <c r="X70" s="365"/>
+      <c r="Y70" s="365"/>
+      <c r="Z70" s="366"/>
+      <c r="AA70" s="354"/>
+      <c r="AB70" s="355"/>
+      <c r="AC70" s="355"/>
+      <c r="AD70" s="356"/>
+      <c r="AE70" s="348"/>
+      <c r="AF70" s="349"/>
+      <c r="AG70" s="349"/>
+      <c r="AH70" s="349"/>
+      <c r="AI70" s="350"/>
+      <c r="AJ70" s="354"/>
+      <c r="AK70" s="355"/>
+      <c r="AL70" s="355"/>
+      <c r="AM70" s="356"/>
+      <c r="AN70" s="348"/>
+      <c r="AO70" s="349"/>
+      <c r="AP70" s="349"/>
+      <c r="AQ70" s="349"/>
+      <c r="AR70" s="350"/>
+      <c r="AS70" s="354"/>
+      <c r="AT70" s="355"/>
+      <c r="AU70" s="355"/>
+      <c r="AV70" s="356"/>
       <c r="AW70" s="38"/>
     </row>
     <row r="71" spans="1:49" ht="13.5" customHeight="1">
       <c r="A71" s="35"/>
-      <c r="B71" s="383"/>
-      <c r="C71" s="384"/>
-      <c r="D71" s="406"/>
-      <c r="E71" s="407"/>
-      <c r="F71" s="407"/>
-      <c r="G71" s="407"/>
-      <c r="H71" s="408"/>
-      <c r="I71" s="394"/>
-      <c r="J71" s="395"/>
-      <c r="K71" s="395"/>
-      <c r="L71" s="395"/>
-      <c r="M71" s="395"/>
-      <c r="N71" s="395"/>
-      <c r="O71" s="395"/>
-      <c r="P71" s="395"/>
-      <c r="Q71" s="395"/>
-      <c r="R71" s="395"/>
-      <c r="S71" s="395"/>
-      <c r="T71" s="395"/>
-      <c r="U71" s="395"/>
-      <c r="V71" s="395"/>
-      <c r="W71" s="395"/>
-      <c r="X71" s="395"/>
-      <c r="Y71" s="395"/>
-      <c r="Z71" s="396"/>
-      <c r="AA71" s="400"/>
-      <c r="AB71" s="401"/>
-      <c r="AC71" s="401"/>
-      <c r="AD71" s="402"/>
-      <c r="AE71" s="406"/>
-      <c r="AF71" s="407"/>
-      <c r="AG71" s="407"/>
-      <c r="AH71" s="407"/>
-      <c r="AI71" s="408"/>
-      <c r="AJ71" s="400"/>
-      <c r="AK71" s="401"/>
-      <c r="AL71" s="401"/>
-      <c r="AM71" s="402"/>
-      <c r="AN71" s="406"/>
-      <c r="AO71" s="407"/>
-      <c r="AP71" s="407"/>
-      <c r="AQ71" s="407"/>
-      <c r="AR71" s="408"/>
-      <c r="AS71" s="400"/>
-      <c r="AT71" s="401"/>
-      <c r="AU71" s="401"/>
-      <c r="AV71" s="402"/>
+      <c r="B71" s="360"/>
+      <c r="C71" s="361"/>
+      <c r="D71" s="348"/>
+      <c r="E71" s="349"/>
+      <c r="F71" s="349"/>
+      <c r="G71" s="349"/>
+      <c r="H71" s="350"/>
+      <c r="I71" s="364"/>
+      <c r="J71" s="365"/>
+      <c r="K71" s="365"/>
+      <c r="L71" s="365"/>
+      <c r="M71" s="365"/>
+      <c r="N71" s="365"/>
+      <c r="O71" s="365"/>
+      <c r="P71" s="365"/>
+      <c r="Q71" s="365"/>
+      <c r="R71" s="365"/>
+      <c r="S71" s="365"/>
+      <c r="T71" s="365"/>
+      <c r="U71" s="365"/>
+      <c r="V71" s="365"/>
+      <c r="W71" s="365"/>
+      <c r="X71" s="365"/>
+      <c r="Y71" s="365"/>
+      <c r="Z71" s="366"/>
+      <c r="AA71" s="354"/>
+      <c r="AB71" s="355"/>
+      <c r="AC71" s="355"/>
+      <c r="AD71" s="356"/>
+      <c r="AE71" s="348"/>
+      <c r="AF71" s="349"/>
+      <c r="AG71" s="349"/>
+      <c r="AH71" s="349"/>
+      <c r="AI71" s="350"/>
+      <c r="AJ71" s="354"/>
+      <c r="AK71" s="355"/>
+      <c r="AL71" s="355"/>
+      <c r="AM71" s="356"/>
+      <c r="AN71" s="348"/>
+      <c r="AO71" s="349"/>
+      <c r="AP71" s="349"/>
+      <c r="AQ71" s="349"/>
+      <c r="AR71" s="350"/>
+      <c r="AS71" s="354"/>
+      <c r="AT71" s="355"/>
+      <c r="AU71" s="355"/>
+      <c r="AV71" s="356"/>
       <c r="AW71" s="38"/>
     </row>
     <row r="72" spans="1:49" ht="13.5" customHeight="1">
       <c r="A72" s="35"/>
-      <c r="B72" s="383"/>
-      <c r="C72" s="384"/>
-      <c r="D72" s="406"/>
-      <c r="E72" s="407"/>
-      <c r="F72" s="407"/>
-      <c r="G72" s="407"/>
-      <c r="H72" s="408"/>
-      <c r="I72" s="394"/>
-      <c r="J72" s="395"/>
-      <c r="K72" s="395"/>
-      <c r="L72" s="395"/>
-      <c r="M72" s="395"/>
-      <c r="N72" s="395"/>
-      <c r="O72" s="395"/>
-      <c r="P72" s="395"/>
-      <c r="Q72" s="395"/>
-      <c r="R72" s="395"/>
-      <c r="S72" s="395"/>
-      <c r="T72" s="395"/>
-      <c r="U72" s="395"/>
-      <c r="V72" s="395"/>
-      <c r="W72" s="395"/>
-      <c r="X72" s="395"/>
-      <c r="Y72" s="395"/>
-      <c r="Z72" s="396"/>
-      <c r="AA72" s="400"/>
-      <c r="AB72" s="401"/>
-      <c r="AC72" s="401"/>
-      <c r="AD72" s="402"/>
-      <c r="AE72" s="406"/>
-      <c r="AF72" s="407"/>
-      <c r="AG72" s="407"/>
-      <c r="AH72" s="407"/>
-      <c r="AI72" s="408"/>
-      <c r="AJ72" s="400"/>
-      <c r="AK72" s="401"/>
-      <c r="AL72" s="401"/>
-      <c r="AM72" s="402"/>
-      <c r="AN72" s="406"/>
-      <c r="AO72" s="407"/>
-      <c r="AP72" s="407"/>
-      <c r="AQ72" s="407"/>
-      <c r="AR72" s="408"/>
-      <c r="AS72" s="400"/>
-      <c r="AT72" s="401"/>
-      <c r="AU72" s="401"/>
-      <c r="AV72" s="402"/>
+      <c r="B72" s="360"/>
+      <c r="C72" s="361"/>
+      <c r="D72" s="348"/>
+      <c r="E72" s="349"/>
+      <c r="F72" s="349"/>
+      <c r="G72" s="349"/>
+      <c r="H72" s="350"/>
+      <c r="I72" s="364"/>
+      <c r="J72" s="365"/>
+      <c r="K72" s="365"/>
+      <c r="L72" s="365"/>
+      <c r="M72" s="365"/>
+      <c r="N72" s="365"/>
+      <c r="O72" s="365"/>
+      <c r="P72" s="365"/>
+      <c r="Q72" s="365"/>
+      <c r="R72" s="365"/>
+      <c r="S72" s="365"/>
+      <c r="T72" s="365"/>
+      <c r="U72" s="365"/>
+      <c r="V72" s="365"/>
+      <c r="W72" s="365"/>
+      <c r="X72" s="365"/>
+      <c r="Y72" s="365"/>
+      <c r="Z72" s="366"/>
+      <c r="AA72" s="354"/>
+      <c r="AB72" s="355"/>
+      <c r="AC72" s="355"/>
+      <c r="AD72" s="356"/>
+      <c r="AE72" s="348"/>
+      <c r="AF72" s="349"/>
+      <c r="AG72" s="349"/>
+      <c r="AH72" s="349"/>
+      <c r="AI72" s="350"/>
+      <c r="AJ72" s="354"/>
+      <c r="AK72" s="355"/>
+      <c r="AL72" s="355"/>
+      <c r="AM72" s="356"/>
+      <c r="AN72" s="348"/>
+      <c r="AO72" s="349"/>
+      <c r="AP72" s="349"/>
+      <c r="AQ72" s="349"/>
+      <c r="AR72" s="350"/>
+      <c r="AS72" s="354"/>
+      <c r="AT72" s="355"/>
+      <c r="AU72" s="355"/>
+      <c r="AV72" s="356"/>
       <c r="AW72" s="38"/>
     </row>
     <row r="73" spans="1:49" ht="13.5" customHeight="1">
       <c r="A73" s="35"/>
-      <c r="B73" s="383"/>
-      <c r="C73" s="384"/>
-      <c r="D73" s="406"/>
-      <c r="E73" s="407"/>
-      <c r="F73" s="407"/>
-      <c r="G73" s="407"/>
-      <c r="H73" s="408"/>
-      <c r="I73" s="394"/>
-      <c r="J73" s="395"/>
-      <c r="K73" s="395"/>
-      <c r="L73" s="395"/>
-      <c r="M73" s="395"/>
-      <c r="N73" s="395"/>
-      <c r="O73" s="395"/>
-      <c r="P73" s="395"/>
-      <c r="Q73" s="395"/>
-      <c r="R73" s="395"/>
-      <c r="S73" s="395"/>
-      <c r="T73" s="395"/>
-      <c r="U73" s="395"/>
-      <c r="V73" s="395"/>
-      <c r="W73" s="395"/>
-      <c r="X73" s="395"/>
-      <c r="Y73" s="395"/>
-      <c r="Z73" s="396"/>
-      <c r="AA73" s="400"/>
-      <c r="AB73" s="401"/>
-      <c r="AC73" s="401"/>
-      <c r="AD73" s="402"/>
-      <c r="AE73" s="406"/>
-      <c r="AF73" s="407"/>
-      <c r="AG73" s="407"/>
-      <c r="AH73" s="407"/>
-      <c r="AI73" s="408"/>
-      <c r="AJ73" s="400"/>
-      <c r="AK73" s="401"/>
-      <c r="AL73" s="401"/>
-      <c r="AM73" s="402"/>
-      <c r="AN73" s="406"/>
-      <c r="AO73" s="407"/>
-      <c r="AP73" s="407"/>
-      <c r="AQ73" s="407"/>
-      <c r="AR73" s="408"/>
-      <c r="AS73" s="400"/>
-      <c r="AT73" s="401"/>
-      <c r="AU73" s="401"/>
-      <c r="AV73" s="402"/>
+      <c r="B73" s="360"/>
+      <c r="C73" s="361"/>
+      <c r="D73" s="348"/>
+      <c r="E73" s="349"/>
+      <c r="F73" s="349"/>
+      <c r="G73" s="349"/>
+      <c r="H73" s="350"/>
+      <c r="I73" s="364"/>
+      <c r="J73" s="365"/>
+      <c r="K73" s="365"/>
+      <c r="L73" s="365"/>
+      <c r="M73" s="365"/>
+      <c r="N73" s="365"/>
+      <c r="O73" s="365"/>
+      <c r="P73" s="365"/>
+      <c r="Q73" s="365"/>
+      <c r="R73" s="365"/>
+      <c r="S73" s="365"/>
+      <c r="T73" s="365"/>
+      <c r="U73" s="365"/>
+      <c r="V73" s="365"/>
+      <c r="W73" s="365"/>
+      <c r="X73" s="365"/>
+      <c r="Y73" s="365"/>
+      <c r="Z73" s="366"/>
+      <c r="AA73" s="354"/>
+      <c r="AB73" s="355"/>
+      <c r="AC73" s="355"/>
+      <c r="AD73" s="356"/>
+      <c r="AE73" s="348"/>
+      <c r="AF73" s="349"/>
+      <c r="AG73" s="349"/>
+      <c r="AH73" s="349"/>
+      <c r="AI73" s="350"/>
+      <c r="AJ73" s="354"/>
+      <c r="AK73" s="355"/>
+      <c r="AL73" s="355"/>
+      <c r="AM73" s="356"/>
+      <c r="AN73" s="348"/>
+      <c r="AO73" s="349"/>
+      <c r="AP73" s="349"/>
+      <c r="AQ73" s="349"/>
+      <c r="AR73" s="350"/>
+      <c r="AS73" s="354"/>
+      <c r="AT73" s="355"/>
+      <c r="AU73" s="355"/>
+      <c r="AV73" s="356"/>
       <c r="AW73" s="38"/>
     </row>
     <row r="74" spans="1:49" ht="13.5" customHeight="1">
       <c r="A74" s="35"/>
-      <c r="B74" s="383"/>
-      <c r="C74" s="384"/>
-      <c r="D74" s="406"/>
-      <c r="E74" s="407"/>
-      <c r="F74" s="407"/>
-      <c r="G74" s="407"/>
-      <c r="H74" s="408"/>
-      <c r="I74" s="394"/>
-      <c r="J74" s="395"/>
-      <c r="K74" s="395"/>
-      <c r="L74" s="395"/>
-      <c r="M74" s="395"/>
-      <c r="N74" s="395"/>
-      <c r="O74" s="395"/>
-      <c r="P74" s="395"/>
-      <c r="Q74" s="395"/>
-      <c r="R74" s="395"/>
-      <c r="S74" s="395"/>
-      <c r="T74" s="395"/>
-      <c r="U74" s="395"/>
-      <c r="V74" s="395"/>
-      <c r="W74" s="395"/>
-      <c r="X74" s="395"/>
-      <c r="Y74" s="395"/>
-      <c r="Z74" s="396"/>
-      <c r="AA74" s="400"/>
-      <c r="AB74" s="401"/>
-      <c r="AC74" s="401"/>
-      <c r="AD74" s="402"/>
-      <c r="AE74" s="406"/>
-      <c r="AF74" s="407"/>
-      <c r="AG74" s="407"/>
-      <c r="AH74" s="407"/>
-      <c r="AI74" s="408"/>
-      <c r="AJ74" s="400"/>
-      <c r="AK74" s="401"/>
-      <c r="AL74" s="401"/>
-      <c r="AM74" s="402"/>
-      <c r="AN74" s="406"/>
-      <c r="AO74" s="407"/>
-      <c r="AP74" s="407"/>
-      <c r="AQ74" s="407"/>
-      <c r="AR74" s="408"/>
-      <c r="AS74" s="400"/>
-      <c r="AT74" s="401"/>
-      <c r="AU74" s="401"/>
-      <c r="AV74" s="402"/>
+      <c r="B74" s="360"/>
+      <c r="C74" s="361"/>
+      <c r="D74" s="348"/>
+      <c r="E74" s="349"/>
+      <c r="F74" s="349"/>
+      <c r="G74" s="349"/>
+      <c r="H74" s="350"/>
+      <c r="I74" s="364"/>
+      <c r="J74" s="365"/>
+      <c r="K74" s="365"/>
+      <c r="L74" s="365"/>
+      <c r="M74" s="365"/>
+      <c r="N74" s="365"/>
+      <c r="O74" s="365"/>
+      <c r="P74" s="365"/>
+      <c r="Q74" s="365"/>
+      <c r="R74" s="365"/>
+      <c r="S74" s="365"/>
+      <c r="T74" s="365"/>
+      <c r="U74" s="365"/>
+      <c r="V74" s="365"/>
+      <c r="W74" s="365"/>
+      <c r="X74" s="365"/>
+      <c r="Y74" s="365"/>
+      <c r="Z74" s="366"/>
+      <c r="AA74" s="354"/>
+      <c r="AB74" s="355"/>
+      <c r="AC74" s="355"/>
+      <c r="AD74" s="356"/>
+      <c r="AE74" s="348"/>
+      <c r="AF74" s="349"/>
+      <c r="AG74" s="349"/>
+      <c r="AH74" s="349"/>
+      <c r="AI74" s="350"/>
+      <c r="AJ74" s="354"/>
+      <c r="AK74" s="355"/>
+      <c r="AL74" s="355"/>
+      <c r="AM74" s="356"/>
+      <c r="AN74" s="348"/>
+      <c r="AO74" s="349"/>
+      <c r="AP74" s="349"/>
+      <c r="AQ74" s="349"/>
+      <c r="AR74" s="350"/>
+      <c r="AS74" s="354"/>
+      <c r="AT74" s="355"/>
+      <c r="AU74" s="355"/>
+      <c r="AV74" s="356"/>
       <c r="AW74" s="38"/>
     </row>
     <row r="75" spans="1:49" ht="13.5" customHeight="1">
       <c r="A75" s="35"/>
-      <c r="B75" s="383"/>
-      <c r="C75" s="384"/>
-      <c r="D75" s="406"/>
-      <c r="E75" s="407"/>
-      <c r="F75" s="407"/>
-      <c r="G75" s="407"/>
-      <c r="H75" s="408"/>
-      <c r="I75" s="394"/>
-      <c r="J75" s="395"/>
-      <c r="K75" s="395"/>
-      <c r="L75" s="395"/>
-      <c r="M75" s="395"/>
-      <c r="N75" s="395"/>
-      <c r="O75" s="395"/>
-      <c r="P75" s="395"/>
-      <c r="Q75" s="395"/>
-      <c r="R75" s="395"/>
-      <c r="S75" s="395"/>
-      <c r="T75" s="395"/>
-      <c r="U75" s="395"/>
-      <c r="V75" s="395"/>
-      <c r="W75" s="395"/>
-      <c r="X75" s="395"/>
-      <c r="Y75" s="395"/>
-      <c r="Z75" s="396"/>
-      <c r="AA75" s="400"/>
-      <c r="AB75" s="401"/>
-      <c r="AC75" s="401"/>
-      <c r="AD75" s="402"/>
-      <c r="AE75" s="406"/>
-      <c r="AF75" s="407"/>
-      <c r="AG75" s="407"/>
-      <c r="AH75" s="407"/>
-      <c r="AI75" s="408"/>
-      <c r="AJ75" s="400"/>
-      <c r="AK75" s="401"/>
-      <c r="AL75" s="401"/>
-      <c r="AM75" s="402"/>
-      <c r="AN75" s="406"/>
-      <c r="AO75" s="407"/>
-      <c r="AP75" s="407"/>
-      <c r="AQ75" s="407"/>
-      <c r="AR75" s="408"/>
-      <c r="AS75" s="400"/>
-      <c r="AT75" s="401"/>
-      <c r="AU75" s="401"/>
-      <c r="AV75" s="402"/>
+      <c r="B75" s="360"/>
+      <c r="C75" s="361"/>
+      <c r="D75" s="348"/>
+      <c r="E75" s="349"/>
+      <c r="F75" s="349"/>
+      <c r="G75" s="349"/>
+      <c r="H75" s="350"/>
+      <c r="I75" s="364"/>
+      <c r="J75" s="365"/>
+      <c r="K75" s="365"/>
+      <c r="L75" s="365"/>
+      <c r="M75" s="365"/>
+      <c r="N75" s="365"/>
+      <c r="O75" s="365"/>
+      <c r="P75" s="365"/>
+      <c r="Q75" s="365"/>
+      <c r="R75" s="365"/>
+      <c r="S75" s="365"/>
+      <c r="T75" s="365"/>
+      <c r="U75" s="365"/>
+      <c r="V75" s="365"/>
+      <c r="W75" s="365"/>
+      <c r="X75" s="365"/>
+      <c r="Y75" s="365"/>
+      <c r="Z75" s="366"/>
+      <c r="AA75" s="354"/>
+      <c r="AB75" s="355"/>
+      <c r="AC75" s="355"/>
+      <c r="AD75" s="356"/>
+      <c r="AE75" s="348"/>
+      <c r="AF75" s="349"/>
+      <c r="AG75" s="349"/>
+      <c r="AH75" s="349"/>
+      <c r="AI75" s="350"/>
+      <c r="AJ75" s="354"/>
+      <c r="AK75" s="355"/>
+      <c r="AL75" s="355"/>
+      <c r="AM75" s="356"/>
+      <c r="AN75" s="348"/>
+      <c r="AO75" s="349"/>
+      <c r="AP75" s="349"/>
+      <c r="AQ75" s="349"/>
+      <c r="AR75" s="350"/>
+      <c r="AS75" s="354"/>
+      <c r="AT75" s="355"/>
+      <c r="AU75" s="355"/>
+      <c r="AV75" s="356"/>
       <c r="AW75" s="38"/>
     </row>
     <row r="76" spans="1:49" ht="13.5" customHeight="1">
       <c r="A76" s="35"/>
-      <c r="B76" s="383"/>
-      <c r="C76" s="384"/>
-      <c r="D76" s="406"/>
-      <c r="E76" s="407"/>
-      <c r="F76" s="407"/>
-      <c r="G76" s="407"/>
-      <c r="H76" s="408"/>
-      <c r="I76" s="394"/>
-      <c r="J76" s="395"/>
-      <c r="K76" s="395"/>
-      <c r="L76" s="395"/>
-      <c r="M76" s="395"/>
-      <c r="N76" s="395"/>
-      <c r="O76" s="395"/>
-      <c r="P76" s="395"/>
-      <c r="Q76" s="395"/>
-      <c r="R76" s="395"/>
-      <c r="S76" s="395"/>
-      <c r="T76" s="395"/>
-      <c r="U76" s="395"/>
-      <c r="V76" s="395"/>
-      <c r="W76" s="395"/>
-      <c r="X76" s="395"/>
-      <c r="Y76" s="395"/>
-      <c r="Z76" s="396"/>
-      <c r="AA76" s="400"/>
-      <c r="AB76" s="401"/>
-      <c r="AC76" s="401"/>
-      <c r="AD76" s="402"/>
-      <c r="AE76" s="406"/>
-      <c r="AF76" s="407"/>
-      <c r="AG76" s="407"/>
-      <c r="AH76" s="407"/>
-      <c r="AI76" s="408"/>
-      <c r="AJ76" s="400"/>
-      <c r="AK76" s="401"/>
-      <c r="AL76" s="401"/>
-      <c r="AM76" s="402"/>
-      <c r="AN76" s="406"/>
-      <c r="AO76" s="407"/>
-      <c r="AP76" s="407"/>
-      <c r="AQ76" s="407"/>
-      <c r="AR76" s="408"/>
-      <c r="AS76" s="400"/>
-      <c r="AT76" s="401"/>
-      <c r="AU76" s="401"/>
-      <c r="AV76" s="402"/>
+      <c r="B76" s="360"/>
+      <c r="C76" s="361"/>
+      <c r="D76" s="348"/>
+      <c r="E76" s="349"/>
+      <c r="F76" s="349"/>
+      <c r="G76" s="349"/>
+      <c r="H76" s="350"/>
+      <c r="I76" s="364"/>
+      <c r="J76" s="365"/>
+      <c r="K76" s="365"/>
+      <c r="L76" s="365"/>
+      <c r="M76" s="365"/>
+      <c r="N76" s="365"/>
+      <c r="O76" s="365"/>
+      <c r="P76" s="365"/>
+      <c r="Q76" s="365"/>
+      <c r="R76" s="365"/>
+      <c r="S76" s="365"/>
+      <c r="T76" s="365"/>
+      <c r="U76" s="365"/>
+      <c r="V76" s="365"/>
+      <c r="W76" s="365"/>
+      <c r="X76" s="365"/>
+      <c r="Y76" s="365"/>
+      <c r="Z76" s="366"/>
+      <c r="AA76" s="354"/>
+      <c r="AB76" s="355"/>
+      <c r="AC76" s="355"/>
+      <c r="AD76" s="356"/>
+      <c r="AE76" s="348"/>
+      <c r="AF76" s="349"/>
+      <c r="AG76" s="349"/>
+      <c r="AH76" s="349"/>
+      <c r="AI76" s="350"/>
+      <c r="AJ76" s="354"/>
+      <c r="AK76" s="355"/>
+      <c r="AL76" s="355"/>
+      <c r="AM76" s="356"/>
+      <c r="AN76" s="348"/>
+      <c r="AO76" s="349"/>
+      <c r="AP76" s="349"/>
+      <c r="AQ76" s="349"/>
+      <c r="AR76" s="350"/>
+      <c r="AS76" s="354"/>
+      <c r="AT76" s="355"/>
+      <c r="AU76" s="355"/>
+      <c r="AV76" s="356"/>
       <c r="AW76" s="38"/>
     </row>
     <row r="77" spans="1:49" ht="13.5" customHeight="1">
       <c r="A77" s="35"/>
-      <c r="B77" s="383"/>
-      <c r="C77" s="384"/>
-      <c r="D77" s="406"/>
-      <c r="E77" s="407"/>
-      <c r="F77" s="407"/>
-      <c r="G77" s="407"/>
-      <c r="H77" s="408"/>
-      <c r="I77" s="394"/>
-      <c r="J77" s="395"/>
-      <c r="K77" s="395"/>
-      <c r="L77" s="395"/>
-      <c r="M77" s="395"/>
-      <c r="N77" s="395"/>
-      <c r="O77" s="395"/>
-      <c r="P77" s="395"/>
-      <c r="Q77" s="395"/>
-      <c r="R77" s="395"/>
-      <c r="S77" s="395"/>
-      <c r="T77" s="395"/>
-      <c r="U77" s="395"/>
-      <c r="V77" s="395"/>
-      <c r="W77" s="395"/>
-      <c r="X77" s="395"/>
-      <c r="Y77" s="395"/>
-      <c r="Z77" s="396"/>
-      <c r="AA77" s="400"/>
-      <c r="AB77" s="401"/>
-      <c r="AC77" s="401"/>
-      <c r="AD77" s="402"/>
-      <c r="AE77" s="406"/>
-      <c r="AF77" s="407"/>
-      <c r="AG77" s="407"/>
-      <c r="AH77" s="407"/>
-      <c r="AI77" s="408"/>
-      <c r="AJ77" s="400"/>
-      <c r="AK77" s="401"/>
-      <c r="AL77" s="401"/>
-      <c r="AM77" s="402"/>
-      <c r="AN77" s="406"/>
-      <c r="AO77" s="407"/>
-      <c r="AP77" s="407"/>
-      <c r="AQ77" s="407"/>
-      <c r="AR77" s="408"/>
-      <c r="AS77" s="400"/>
-      <c r="AT77" s="401"/>
-      <c r="AU77" s="401"/>
-      <c r="AV77" s="402"/>
+      <c r="B77" s="360"/>
+      <c r="C77" s="361"/>
+      <c r="D77" s="348"/>
+      <c r="E77" s="349"/>
+      <c r="F77" s="349"/>
+      <c r="G77" s="349"/>
+      <c r="H77" s="350"/>
+      <c r="I77" s="364"/>
+      <c r="J77" s="365"/>
+      <c r="K77" s="365"/>
+      <c r="L77" s="365"/>
+      <c r="M77" s="365"/>
+      <c r="N77" s="365"/>
+      <c r="O77" s="365"/>
+      <c r="P77" s="365"/>
+      <c r="Q77" s="365"/>
+      <c r="R77" s="365"/>
+      <c r="S77" s="365"/>
+      <c r="T77" s="365"/>
+      <c r="U77" s="365"/>
+      <c r="V77" s="365"/>
+      <c r="W77" s="365"/>
+      <c r="X77" s="365"/>
+      <c r="Y77" s="365"/>
+      <c r="Z77" s="366"/>
+      <c r="AA77" s="354"/>
+      <c r="AB77" s="355"/>
+      <c r="AC77" s="355"/>
+      <c r="AD77" s="356"/>
+      <c r="AE77" s="348"/>
+      <c r="AF77" s="349"/>
+      <c r="AG77" s="349"/>
+      <c r="AH77" s="349"/>
+      <c r="AI77" s="350"/>
+      <c r="AJ77" s="354"/>
+      <c r="AK77" s="355"/>
+      <c r="AL77" s="355"/>
+      <c r="AM77" s="356"/>
+      <c r="AN77" s="348"/>
+      <c r="AO77" s="349"/>
+      <c r="AP77" s="349"/>
+      <c r="AQ77" s="349"/>
+      <c r="AR77" s="350"/>
+      <c r="AS77" s="354"/>
+      <c r="AT77" s="355"/>
+      <c r="AU77" s="355"/>
+      <c r="AV77" s="356"/>
       <c r="AW77" s="38"/>
     </row>
     <row r="78" spans="1:49" ht="13.5" customHeight="1">
       <c r="A78" s="35"/>
-      <c r="B78" s="436"/>
-      <c r="C78" s="437"/>
-      <c r="D78" s="430"/>
-      <c r="E78" s="431"/>
-      <c r="F78" s="431"/>
-      <c r="G78" s="431"/>
-      <c r="H78" s="432"/>
-      <c r="I78" s="438"/>
-      <c r="J78" s="439"/>
-      <c r="K78" s="439"/>
-      <c r="L78" s="439"/>
-      <c r="M78" s="439"/>
-      <c r="N78" s="439"/>
-      <c r="O78" s="439"/>
-      <c r="P78" s="439"/>
-      <c r="Q78" s="439"/>
-      <c r="R78" s="439"/>
-      <c r="S78" s="439"/>
-      <c r="T78" s="439"/>
-      <c r="U78" s="439"/>
-      <c r="V78" s="439"/>
-      <c r="W78" s="439"/>
-      <c r="X78" s="439"/>
-      <c r="Y78" s="439"/>
-      <c r="Z78" s="440"/>
-      <c r="AA78" s="433"/>
-      <c r="AB78" s="434"/>
-      <c r="AC78" s="434"/>
-      <c r="AD78" s="435"/>
-      <c r="AE78" s="430"/>
-      <c r="AF78" s="431"/>
-      <c r="AG78" s="431"/>
-      <c r="AH78" s="431"/>
-      <c r="AI78" s="432"/>
-      <c r="AJ78" s="433"/>
-      <c r="AK78" s="434"/>
-      <c r="AL78" s="434"/>
-      <c r="AM78" s="435"/>
-      <c r="AN78" s="430"/>
-      <c r="AO78" s="431"/>
-      <c r="AP78" s="431"/>
-      <c r="AQ78" s="431"/>
-      <c r="AR78" s="432"/>
-      <c r="AS78" s="433"/>
-      <c r="AT78" s="434"/>
-      <c r="AU78" s="434"/>
-      <c r="AV78" s="435"/>
+      <c r="B78" s="362"/>
+      <c r="C78" s="363"/>
+      <c r="D78" s="351"/>
+      <c r="E78" s="352"/>
+      <c r="F78" s="352"/>
+      <c r="G78" s="352"/>
+      <c r="H78" s="353"/>
+      <c r="I78" s="367"/>
+      <c r="J78" s="368"/>
+      <c r="K78" s="368"/>
+      <c r="L78" s="368"/>
+      <c r="M78" s="368"/>
+      <c r="N78" s="368"/>
+      <c r="O78" s="368"/>
+      <c r="P78" s="368"/>
+      <c r="Q78" s="368"/>
+      <c r="R78" s="368"/>
+      <c r="S78" s="368"/>
+      <c r="T78" s="368"/>
+      <c r="U78" s="368"/>
+      <c r="V78" s="368"/>
+      <c r="W78" s="368"/>
+      <c r="X78" s="368"/>
+      <c r="Y78" s="368"/>
+      <c r="Z78" s="369"/>
+      <c r="AA78" s="357"/>
+      <c r="AB78" s="358"/>
+      <c r="AC78" s="358"/>
+      <c r="AD78" s="359"/>
+      <c r="AE78" s="351"/>
+      <c r="AF78" s="352"/>
+      <c r="AG78" s="352"/>
+      <c r="AH78" s="352"/>
+      <c r="AI78" s="353"/>
+      <c r="AJ78" s="357"/>
+      <c r="AK78" s="358"/>
+      <c r="AL78" s="358"/>
+      <c r="AM78" s="359"/>
+      <c r="AN78" s="351"/>
+      <c r="AO78" s="352"/>
+      <c r="AP78" s="352"/>
+      <c r="AQ78" s="352"/>
+      <c r="AR78" s="353"/>
+      <c r="AS78" s="357"/>
+      <c r="AT78" s="358"/>
+      <c r="AU78" s="358"/>
+      <c r="AV78" s="359"/>
       <c r="AW78" s="38"/>
     </row>
     <row r="79" spans="1:49" ht="13.5" customHeight="1">
@@ -8621,187 +8625,187 @@
       <c r="AW80" s="42"/>
     </row>
     <row r="81" spans="1:50" s="17" customFormat="1" ht="23" customHeight="1" thickTop="1">
-      <c r="A81" s="320" t="s">
+      <c r="A81" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="321"/>
-      <c r="C81" s="321"/>
-      <c r="D81" s="321"/>
-      <c r="E81" s="321"/>
-      <c r="F81" s="321"/>
-      <c r="G81" s="321"/>
-      <c r="H81" s="321"/>
-      <c r="I81" s="322"/>
-      <c r="J81" s="329" t="s">
+      <c r="B81" s="324"/>
+      <c r="C81" s="324"/>
+      <c r="D81" s="324"/>
+      <c r="E81" s="324"/>
+      <c r="F81" s="324"/>
+      <c r="G81" s="324"/>
+      <c r="H81" s="324"/>
+      <c r="I81" s="325"/>
+      <c r="J81" s="332" t="s">
         <v>1</v>
       </c>
-      <c r="K81" s="321"/>
-      <c r="L81" s="321"/>
-      <c r="M81" s="321"/>
-      <c r="N81" s="321"/>
-      <c r="O81" s="322"/>
-      <c r="P81" s="329" t="s">
+      <c r="K81" s="324"/>
+      <c r="L81" s="324"/>
+      <c r="M81" s="324"/>
+      <c r="N81" s="324"/>
+      <c r="O81" s="325"/>
+      <c r="P81" s="332" t="s">
         <v>2</v>
       </c>
-      <c r="Q81" s="321"/>
-      <c r="R81" s="321"/>
-      <c r="S81" s="321"/>
-      <c r="T81" s="321"/>
-      <c r="U81" s="322"/>
-      <c r="V81" s="330" t="s">
+      <c r="Q81" s="324"/>
+      <c r="R81" s="324"/>
+      <c r="S81" s="324"/>
+      <c r="T81" s="324"/>
+      <c r="U81" s="325"/>
+      <c r="V81" s="333" t="s">
         <v>3</v>
       </c>
-      <c r="W81" s="331"/>
-      <c r="X81" s="331"/>
-      <c r="Y81" s="331"/>
-      <c r="Z81" s="332"/>
-      <c r="AA81" s="336" t="s">
+      <c r="W81" s="334"/>
+      <c r="X81" s="334"/>
+      <c r="Y81" s="334"/>
+      <c r="Z81" s="335"/>
+      <c r="AA81" s="339" t="s">
         <v>53</v>
       </c>
-      <c r="AB81" s="321"/>
-      <c r="AC81" s="321"/>
-      <c r="AD81" s="321"/>
-      <c r="AE81" s="321"/>
-      <c r="AF81" s="321"/>
-      <c r="AG81" s="321"/>
-      <c r="AH81" s="321"/>
-      <c r="AI81" s="321"/>
-      <c r="AJ81" s="321"/>
-      <c r="AK81" s="321"/>
-      <c r="AL81" s="322"/>
-      <c r="AM81" s="307" t="s">
+      <c r="AB81" s="324"/>
+      <c r="AC81" s="324"/>
+      <c r="AD81" s="324"/>
+      <c r="AE81" s="324"/>
+      <c r="AF81" s="324"/>
+      <c r="AG81" s="324"/>
+      <c r="AH81" s="324"/>
+      <c r="AI81" s="324"/>
+      <c r="AJ81" s="324"/>
+      <c r="AK81" s="324"/>
+      <c r="AL81" s="325"/>
+      <c r="AM81" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="AN81" s="308"/>
-      <c r="AO81" s="304" t="s">
+      <c r="AN81" s="311"/>
+      <c r="AO81" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="AP81" s="305"/>
-      <c r="AQ81" s="306"/>
-      <c r="AR81" s="307" t="s">
+      <c r="AP81" s="308"/>
+      <c r="AQ81" s="309"/>
+      <c r="AR81" s="310" t="s">
         <v>7</v>
       </c>
-      <c r="AS81" s="308"/>
-      <c r="AT81" s="309">
+      <c r="AS81" s="311"/>
+      <c r="AT81" s="312">
         <v>43110</v>
       </c>
-      <c r="AU81" s="310"/>
-      <c r="AV81" s="310"/>
-      <c r="AW81" s="311"/>
+      <c r="AU81" s="313"/>
+      <c r="AV81" s="313"/>
+      <c r="AW81" s="314"/>
     </row>
     <row r="82" spans="1:50" s="17" customFormat="1" ht="23" customHeight="1">
-      <c r="A82" s="323"/>
-      <c r="B82" s="324"/>
-      <c r="C82" s="324"/>
-      <c r="D82" s="324"/>
-      <c r="E82" s="324"/>
-      <c r="F82" s="324"/>
-      <c r="G82" s="324"/>
-      <c r="H82" s="324"/>
-      <c r="I82" s="325"/>
-      <c r="J82" s="323"/>
-      <c r="K82" s="324"/>
-      <c r="L82" s="324"/>
-      <c r="M82" s="324"/>
-      <c r="N82" s="324"/>
-      <c r="O82" s="325"/>
-      <c r="P82" s="323"/>
-      <c r="Q82" s="324"/>
-      <c r="R82" s="324"/>
-      <c r="S82" s="324"/>
-      <c r="T82" s="324"/>
-      <c r="U82" s="325"/>
-      <c r="V82" s="333"/>
-      <c r="W82" s="334"/>
-      <c r="X82" s="334"/>
-      <c r="Y82" s="334"/>
-      <c r="Z82" s="335"/>
-      <c r="AA82" s="337"/>
-      <c r="AB82" s="324"/>
-      <c r="AC82" s="324"/>
-      <c r="AD82" s="324"/>
-      <c r="AE82" s="324"/>
-      <c r="AF82" s="324"/>
-      <c r="AG82" s="324"/>
-      <c r="AH82" s="324"/>
-      <c r="AI82" s="324"/>
-      <c r="AJ82" s="324"/>
-      <c r="AK82" s="324"/>
-      <c r="AL82" s="325"/>
-      <c r="AM82" s="312" t="s">
+      <c r="A82" s="326"/>
+      <c r="B82" s="327"/>
+      <c r="C82" s="327"/>
+      <c r="D82" s="327"/>
+      <c r="E82" s="327"/>
+      <c r="F82" s="327"/>
+      <c r="G82" s="327"/>
+      <c r="H82" s="327"/>
+      <c r="I82" s="328"/>
+      <c r="J82" s="326"/>
+      <c r="K82" s="327"/>
+      <c r="L82" s="327"/>
+      <c r="M82" s="327"/>
+      <c r="N82" s="327"/>
+      <c r="O82" s="328"/>
+      <c r="P82" s="326"/>
+      <c r="Q82" s="327"/>
+      <c r="R82" s="327"/>
+      <c r="S82" s="327"/>
+      <c r="T82" s="327"/>
+      <c r="U82" s="328"/>
+      <c r="V82" s="336"/>
+      <c r="W82" s="337"/>
+      <c r="X82" s="337"/>
+      <c r="Y82" s="337"/>
+      <c r="Z82" s="338"/>
+      <c r="AA82" s="340"/>
+      <c r="AB82" s="327"/>
+      <c r="AC82" s="327"/>
+      <c r="AD82" s="327"/>
+      <c r="AE82" s="327"/>
+      <c r="AF82" s="327"/>
+      <c r="AG82" s="327"/>
+      <c r="AH82" s="327"/>
+      <c r="AI82" s="327"/>
+      <c r="AJ82" s="327"/>
+      <c r="AK82" s="327"/>
+      <c r="AL82" s="328"/>
+      <c r="AM82" s="315" t="s">
         <v>8</v>
       </c>
-      <c r="AN82" s="313"/>
-      <c r="AO82" s="314"/>
-      <c r="AP82" s="315"/>
-      <c r="AQ82" s="316"/>
-      <c r="AR82" s="312" t="s">
+      <c r="AN82" s="316"/>
+      <c r="AO82" s="317"/>
+      <c r="AP82" s="318"/>
+      <c r="AQ82" s="319"/>
+      <c r="AR82" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="AS82" s="313"/>
-      <c r="AT82" s="317"/>
-      <c r="AU82" s="318"/>
-      <c r="AV82" s="318"/>
-      <c r="AW82" s="319"/>
+      <c r="AS82" s="316"/>
+      <c r="AT82" s="320"/>
+      <c r="AU82" s="321"/>
+      <c r="AV82" s="321"/>
+      <c r="AW82" s="322"/>
     </row>
     <row r="83" spans="1:50" ht="23" customHeight="1" thickBot="1">
-      <c r="A83" s="326"/>
-      <c r="B83" s="327"/>
-      <c r="C83" s="327"/>
-      <c r="D83" s="327"/>
-      <c r="E83" s="327"/>
-      <c r="F83" s="327"/>
-      <c r="G83" s="327"/>
-      <c r="H83" s="327"/>
-      <c r="I83" s="328"/>
-      <c r="J83" s="326"/>
-      <c r="K83" s="327"/>
-      <c r="L83" s="327"/>
-      <c r="M83" s="327"/>
-      <c r="N83" s="327"/>
-      <c r="O83" s="328"/>
-      <c r="P83" s="326"/>
-      <c r="Q83" s="327"/>
-      <c r="R83" s="327"/>
-      <c r="S83" s="327"/>
-      <c r="T83" s="327"/>
-      <c r="U83" s="328"/>
-      <c r="V83" s="338" t="s">
+      <c r="A83" s="329"/>
+      <c r="B83" s="330"/>
+      <c r="C83" s="330"/>
+      <c r="D83" s="330"/>
+      <c r="E83" s="330"/>
+      <c r="F83" s="330"/>
+      <c r="G83" s="330"/>
+      <c r="H83" s="330"/>
+      <c r="I83" s="331"/>
+      <c r="J83" s="329"/>
+      <c r="K83" s="330"/>
+      <c r="L83" s="330"/>
+      <c r="M83" s="330"/>
+      <c r="N83" s="330"/>
+      <c r="O83" s="331"/>
+      <c r="P83" s="329"/>
+      <c r="Q83" s="330"/>
+      <c r="R83" s="330"/>
+      <c r="S83" s="330"/>
+      <c r="T83" s="330"/>
+      <c r="U83" s="331"/>
+      <c r="V83" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="W83" s="339"/>
-      <c r="X83" s="339"/>
-      <c r="Y83" s="339"/>
-      <c r="Z83" s="340"/>
-      <c r="AA83" s="341" t="s">
+      <c r="W83" s="342"/>
+      <c r="X83" s="342"/>
+      <c r="Y83" s="342"/>
+      <c r="Z83" s="343"/>
+      <c r="AA83" s="304" t="s">
         <v>11</v>
       </c>
-      <c r="AB83" s="342"/>
-      <c r="AC83" s="342"/>
-      <c r="AD83" s="342"/>
-      <c r="AE83" s="342"/>
-      <c r="AF83" s="342"/>
-      <c r="AG83" s="343"/>
-      <c r="AH83" s="344" t="s">
+      <c r="AB83" s="305"/>
+      <c r="AC83" s="305"/>
+      <c r="AD83" s="305"/>
+      <c r="AE83" s="305"/>
+      <c r="AF83" s="305"/>
+      <c r="AG83" s="344"/>
+      <c r="AH83" s="345" t="s">
         <v>12</v>
       </c>
-      <c r="AI83" s="345"/>
-      <c r="AJ83" s="345"/>
-      <c r="AK83" s="345"/>
-      <c r="AL83" s="346"/>
-      <c r="AM83" s="341" t="s">
+      <c r="AI83" s="346"/>
+      <c r="AJ83" s="346"/>
+      <c r="AK83" s="346"/>
+      <c r="AL83" s="347"/>
+      <c r="AM83" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="AN83" s="342"/>
-      <c r="AO83" s="342"/>
-      <c r="AP83" s="342"/>
-      <c r="AQ83" s="342"/>
-      <c r="AR83" s="342"/>
-      <c r="AS83" s="342"/>
-      <c r="AT83" s="342"/>
-      <c r="AU83" s="342"/>
-      <c r="AV83" s="342"/>
-      <c r="AW83" s="347"/>
+      <c r="AN83" s="305"/>
+      <c r="AO83" s="305"/>
+      <c r="AP83" s="305"/>
+      <c r="AQ83" s="305"/>
+      <c r="AR83" s="305"/>
+      <c r="AS83" s="305"/>
+      <c r="AT83" s="305"/>
+      <c r="AU83" s="305"/>
+      <c r="AV83" s="305"/>
+      <c r="AW83" s="306"/>
     </row>
     <row r="84" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A84" s="35"/>
@@ -10671,187 +10675,187 @@
       <c r="AW120" s="42"/>
     </row>
     <row r="121" spans="1:50" s="17" customFormat="1" ht="21" customHeight="1" thickTop="1">
-      <c r="A121" s="320" t="s">
+      <c r="A121" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="321"/>
-      <c r="C121" s="321"/>
-      <c r="D121" s="321"/>
-      <c r="E121" s="321"/>
-      <c r="F121" s="321"/>
-      <c r="G121" s="321"/>
-      <c r="H121" s="321"/>
-      <c r="I121" s="322"/>
-      <c r="J121" s="329" t="s">
+      <c r="B121" s="324"/>
+      <c r="C121" s="324"/>
+      <c r="D121" s="324"/>
+      <c r="E121" s="324"/>
+      <c r="F121" s="324"/>
+      <c r="G121" s="324"/>
+      <c r="H121" s="324"/>
+      <c r="I121" s="325"/>
+      <c r="J121" s="332" t="s">
         <v>1</v>
       </c>
-      <c r="K121" s="321"/>
-      <c r="L121" s="321"/>
-      <c r="M121" s="321"/>
-      <c r="N121" s="321"/>
-      <c r="O121" s="322"/>
-      <c r="P121" s="329" t="s">
+      <c r="K121" s="324"/>
+      <c r="L121" s="324"/>
+      <c r="M121" s="324"/>
+      <c r="N121" s="324"/>
+      <c r="O121" s="325"/>
+      <c r="P121" s="332" t="s">
         <v>2</v>
       </c>
-      <c r="Q121" s="321"/>
-      <c r="R121" s="321"/>
-      <c r="S121" s="321"/>
-      <c r="T121" s="321"/>
-      <c r="U121" s="322"/>
-      <c r="V121" s="330" t="s">
+      <c r="Q121" s="324"/>
+      <c r="R121" s="324"/>
+      <c r="S121" s="324"/>
+      <c r="T121" s="324"/>
+      <c r="U121" s="325"/>
+      <c r="V121" s="333" t="s">
         <v>3</v>
       </c>
-      <c r="W121" s="331"/>
-      <c r="X121" s="331"/>
-      <c r="Y121" s="331"/>
-      <c r="Z121" s="332"/>
-      <c r="AA121" s="336" t="s">
+      <c r="W121" s="334"/>
+      <c r="X121" s="334"/>
+      <c r="Y121" s="334"/>
+      <c r="Z121" s="335"/>
+      <c r="AA121" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="AB121" s="321"/>
-      <c r="AC121" s="321"/>
-      <c r="AD121" s="321"/>
-      <c r="AE121" s="321"/>
-      <c r="AF121" s="321"/>
-      <c r="AG121" s="321"/>
-      <c r="AH121" s="321"/>
-      <c r="AI121" s="321"/>
-      <c r="AJ121" s="321"/>
-      <c r="AK121" s="321"/>
-      <c r="AL121" s="322"/>
-      <c r="AM121" s="307" t="s">
+      <c r="AB121" s="324"/>
+      <c r="AC121" s="324"/>
+      <c r="AD121" s="324"/>
+      <c r="AE121" s="324"/>
+      <c r="AF121" s="324"/>
+      <c r="AG121" s="324"/>
+      <c r="AH121" s="324"/>
+      <c r="AI121" s="324"/>
+      <c r="AJ121" s="324"/>
+      <c r="AK121" s="324"/>
+      <c r="AL121" s="325"/>
+      <c r="AM121" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="AN121" s="308"/>
-      <c r="AO121" s="304" t="s">
+      <c r="AN121" s="311"/>
+      <c r="AO121" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="AP121" s="305"/>
-      <c r="AQ121" s="306"/>
-      <c r="AR121" s="307" t="s">
+      <c r="AP121" s="308"/>
+      <c r="AQ121" s="309"/>
+      <c r="AR121" s="310" t="s">
         <v>7</v>
       </c>
-      <c r="AS121" s="308"/>
-      <c r="AT121" s="309">
+      <c r="AS121" s="311"/>
+      <c r="AT121" s="312">
         <v>43110</v>
       </c>
-      <c r="AU121" s="310"/>
-      <c r="AV121" s="310"/>
-      <c r="AW121" s="311"/>
+      <c r="AU121" s="313"/>
+      <c r="AV121" s="313"/>
+      <c r="AW121" s="314"/>
     </row>
     <row r="122" spans="1:50" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="A122" s="323"/>
-      <c r="B122" s="324"/>
-      <c r="C122" s="324"/>
-      <c r="D122" s="324"/>
-      <c r="E122" s="324"/>
-      <c r="F122" s="324"/>
-      <c r="G122" s="324"/>
-      <c r="H122" s="324"/>
-      <c r="I122" s="325"/>
-      <c r="J122" s="323"/>
-      <c r="K122" s="324"/>
-      <c r="L122" s="324"/>
-      <c r="M122" s="324"/>
-      <c r="N122" s="324"/>
-      <c r="O122" s="325"/>
-      <c r="P122" s="323"/>
-      <c r="Q122" s="324"/>
-      <c r="R122" s="324"/>
-      <c r="S122" s="324"/>
-      <c r="T122" s="324"/>
-      <c r="U122" s="325"/>
-      <c r="V122" s="333"/>
-      <c r="W122" s="334"/>
-      <c r="X122" s="334"/>
-      <c r="Y122" s="334"/>
-      <c r="Z122" s="335"/>
-      <c r="AA122" s="337"/>
-      <c r="AB122" s="324"/>
-      <c r="AC122" s="324"/>
-      <c r="AD122" s="324"/>
-      <c r="AE122" s="324"/>
-      <c r="AF122" s="324"/>
-      <c r="AG122" s="324"/>
-      <c r="AH122" s="324"/>
-      <c r="AI122" s="324"/>
-      <c r="AJ122" s="324"/>
-      <c r="AK122" s="324"/>
-      <c r="AL122" s="325"/>
-      <c r="AM122" s="312" t="s">
+      <c r="A122" s="326"/>
+      <c r="B122" s="327"/>
+      <c r="C122" s="327"/>
+      <c r="D122" s="327"/>
+      <c r="E122" s="327"/>
+      <c r="F122" s="327"/>
+      <c r="G122" s="327"/>
+      <c r="H122" s="327"/>
+      <c r="I122" s="328"/>
+      <c r="J122" s="326"/>
+      <c r="K122" s="327"/>
+      <c r="L122" s="327"/>
+      <c r="M122" s="327"/>
+      <c r="N122" s="327"/>
+      <c r="O122" s="328"/>
+      <c r="P122" s="326"/>
+      <c r="Q122" s="327"/>
+      <c r="R122" s="327"/>
+      <c r="S122" s="327"/>
+      <c r="T122" s="327"/>
+      <c r="U122" s="328"/>
+      <c r="V122" s="336"/>
+      <c r="W122" s="337"/>
+      <c r="X122" s="337"/>
+      <c r="Y122" s="337"/>
+      <c r="Z122" s="338"/>
+      <c r="AA122" s="340"/>
+      <c r="AB122" s="327"/>
+      <c r="AC122" s="327"/>
+      <c r="AD122" s="327"/>
+      <c r="AE122" s="327"/>
+      <c r="AF122" s="327"/>
+      <c r="AG122" s="327"/>
+      <c r="AH122" s="327"/>
+      <c r="AI122" s="327"/>
+      <c r="AJ122" s="327"/>
+      <c r="AK122" s="327"/>
+      <c r="AL122" s="328"/>
+      <c r="AM122" s="315" t="s">
         <v>8</v>
       </c>
-      <c r="AN122" s="313"/>
-      <c r="AO122" s="314"/>
-      <c r="AP122" s="315"/>
-      <c r="AQ122" s="316"/>
-      <c r="AR122" s="312" t="s">
+      <c r="AN122" s="316"/>
+      <c r="AO122" s="317"/>
+      <c r="AP122" s="318"/>
+      <c r="AQ122" s="319"/>
+      <c r="AR122" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="AS122" s="313"/>
-      <c r="AT122" s="317"/>
-      <c r="AU122" s="318"/>
-      <c r="AV122" s="318"/>
-      <c r="AW122" s="319"/>
+      <c r="AS122" s="316"/>
+      <c r="AT122" s="320"/>
+      <c r="AU122" s="321"/>
+      <c r="AV122" s="321"/>
+      <c r="AW122" s="322"/>
     </row>
     <row r="123" spans="1:50" ht="21" customHeight="1" thickBot="1">
-      <c r="A123" s="326"/>
-      <c r="B123" s="327"/>
-      <c r="C123" s="327"/>
-      <c r="D123" s="327"/>
-      <c r="E123" s="327"/>
-      <c r="F123" s="327"/>
-      <c r="G123" s="327"/>
-      <c r="H123" s="327"/>
-      <c r="I123" s="328"/>
-      <c r="J123" s="326"/>
-      <c r="K123" s="327"/>
-      <c r="L123" s="327"/>
-      <c r="M123" s="327"/>
-      <c r="N123" s="327"/>
-      <c r="O123" s="328"/>
-      <c r="P123" s="326"/>
-      <c r="Q123" s="327"/>
-      <c r="R123" s="327"/>
-      <c r="S123" s="327"/>
-      <c r="T123" s="327"/>
-      <c r="U123" s="328"/>
-      <c r="V123" s="338" t="s">
+      <c r="A123" s="329"/>
+      <c r="B123" s="330"/>
+      <c r="C123" s="330"/>
+      <c r="D123" s="330"/>
+      <c r="E123" s="330"/>
+      <c r="F123" s="330"/>
+      <c r="G123" s="330"/>
+      <c r="H123" s="330"/>
+      <c r="I123" s="331"/>
+      <c r="J123" s="329"/>
+      <c r="K123" s="330"/>
+      <c r="L123" s="330"/>
+      <c r="M123" s="330"/>
+      <c r="N123" s="330"/>
+      <c r="O123" s="331"/>
+      <c r="P123" s="329"/>
+      <c r="Q123" s="330"/>
+      <c r="R123" s="330"/>
+      <c r="S123" s="330"/>
+      <c r="T123" s="330"/>
+      <c r="U123" s="331"/>
+      <c r="V123" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="W123" s="339"/>
-      <c r="X123" s="339"/>
-      <c r="Y123" s="339"/>
-      <c r="Z123" s="340"/>
-      <c r="AA123" s="341" t="s">
+      <c r="W123" s="342"/>
+      <c r="X123" s="342"/>
+      <c r="Y123" s="342"/>
+      <c r="Z123" s="343"/>
+      <c r="AA123" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AB123" s="342"/>
-      <c r="AC123" s="342"/>
-      <c r="AD123" s="342"/>
-      <c r="AE123" s="342"/>
-      <c r="AF123" s="342"/>
-      <c r="AG123" s="343"/>
-      <c r="AH123" s="344" t="s">
+      <c r="AB123" s="305"/>
+      <c r="AC123" s="305"/>
+      <c r="AD123" s="305"/>
+      <c r="AE123" s="305"/>
+      <c r="AF123" s="305"/>
+      <c r="AG123" s="344"/>
+      <c r="AH123" s="345" t="s">
         <v>12</v>
       </c>
-      <c r="AI123" s="345"/>
-      <c r="AJ123" s="345"/>
-      <c r="AK123" s="345"/>
-      <c r="AL123" s="346"/>
-      <c r="AM123" s="341" t="s">
+      <c r="AI123" s="346"/>
+      <c r="AJ123" s="346"/>
+      <c r="AK123" s="346"/>
+      <c r="AL123" s="347"/>
+      <c r="AM123" s="304" t="s">
         <v>40</v>
       </c>
-      <c r="AN123" s="342"/>
-      <c r="AO123" s="342"/>
-      <c r="AP123" s="342"/>
-      <c r="AQ123" s="342"/>
-      <c r="AR123" s="342"/>
-      <c r="AS123" s="342"/>
-      <c r="AT123" s="342"/>
-      <c r="AU123" s="342"/>
-      <c r="AV123" s="342"/>
-      <c r="AW123" s="347"/>
+      <c r="AN123" s="305"/>
+      <c r="AO123" s="305"/>
+      <c r="AP123" s="305"/>
+      <c r="AQ123" s="305"/>
+      <c r="AR123" s="305"/>
+      <c r="AS123" s="305"/>
+      <c r="AT123" s="305"/>
+      <c r="AU123" s="305"/>
+      <c r="AV123" s="305"/>
+      <c r="AW123" s="306"/>
     </row>
     <row r="124" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A124" s="35"/>
@@ -12782,24 +12786,164 @@
     <row r="161" s="34" customFormat="1" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="200">
-    <mergeCell ref="AM83:AW83"/>
-    <mergeCell ref="AO121:AQ121"/>
-    <mergeCell ref="AR121:AS121"/>
-    <mergeCell ref="AT121:AW121"/>
-    <mergeCell ref="AM122:AN122"/>
-    <mergeCell ref="AO122:AQ122"/>
-    <mergeCell ref="AR122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="A121:I123"/>
-    <mergeCell ref="J121:O123"/>
-    <mergeCell ref="P121:U123"/>
-    <mergeCell ref="V121:Z122"/>
-    <mergeCell ref="AA121:AL122"/>
-    <mergeCell ref="AM121:AN121"/>
-    <mergeCell ref="V123:Z123"/>
-    <mergeCell ref="AA123:AG123"/>
-    <mergeCell ref="AH123:AL123"/>
-    <mergeCell ref="AM123:AW123"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="P1:U3"/>
+    <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AA1:AL2"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AM3:AW3"/>
+    <mergeCell ref="B13:AV17"/>
+    <mergeCell ref="B23:AV26"/>
+    <mergeCell ref="A41:I43"/>
+    <mergeCell ref="J41:O43"/>
+    <mergeCell ref="P41:U43"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="AA41:AL42"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="AT41:AW41"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AO42:AQ42"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="AT42:AW42"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="AA43:AG43"/>
+    <mergeCell ref="AH43:AL43"/>
+    <mergeCell ref="AM43:AW43"/>
+    <mergeCell ref="B47:C48"/>
+    <mergeCell ref="D47:H48"/>
+    <mergeCell ref="I47:Z48"/>
+    <mergeCell ref="AA47:AD48"/>
+    <mergeCell ref="AE47:AM47"/>
+    <mergeCell ref="AN47:AV47"/>
+    <mergeCell ref="AE48:AI48"/>
+    <mergeCell ref="AJ48:AM48"/>
+    <mergeCell ref="AN48:AR48"/>
+    <mergeCell ref="AS48:AV48"/>
+    <mergeCell ref="AN49:AR50"/>
+    <mergeCell ref="AS49:AV50"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="D51:H52"/>
+    <mergeCell ref="I51:Z52"/>
+    <mergeCell ref="AA51:AD52"/>
+    <mergeCell ref="AE51:AI52"/>
+    <mergeCell ref="AJ51:AM52"/>
+    <mergeCell ref="AN51:AR52"/>
+    <mergeCell ref="AS51:AV52"/>
+    <mergeCell ref="B49:C50"/>
+    <mergeCell ref="D49:H50"/>
+    <mergeCell ref="I49:Z50"/>
+    <mergeCell ref="AA49:AD50"/>
+    <mergeCell ref="AE49:AI50"/>
+    <mergeCell ref="AJ49:AM50"/>
+    <mergeCell ref="AN53:AR54"/>
+    <mergeCell ref="AS53:AV54"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="D55:H56"/>
+    <mergeCell ref="I55:Z56"/>
+    <mergeCell ref="AA55:AD56"/>
+    <mergeCell ref="AE55:AI56"/>
+    <mergeCell ref="AJ55:AM56"/>
+    <mergeCell ref="AN55:AR56"/>
+    <mergeCell ref="AS55:AV56"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="D53:H54"/>
+    <mergeCell ref="I53:Z54"/>
+    <mergeCell ref="AA53:AD54"/>
+    <mergeCell ref="AE53:AI54"/>
+    <mergeCell ref="AJ53:AM54"/>
+    <mergeCell ref="AN57:AR58"/>
+    <mergeCell ref="AS57:AV58"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="D59:H60"/>
+    <mergeCell ref="I59:Z60"/>
+    <mergeCell ref="AA59:AD60"/>
+    <mergeCell ref="AE59:AI60"/>
+    <mergeCell ref="AJ59:AM60"/>
+    <mergeCell ref="AN59:AR60"/>
+    <mergeCell ref="AS59:AV60"/>
+    <mergeCell ref="B57:C58"/>
+    <mergeCell ref="D57:H58"/>
+    <mergeCell ref="I57:Z58"/>
+    <mergeCell ref="AA57:AD58"/>
+    <mergeCell ref="AE57:AI58"/>
+    <mergeCell ref="AJ57:AM58"/>
+    <mergeCell ref="AN61:AR62"/>
+    <mergeCell ref="AS61:AV62"/>
+    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="D63:H64"/>
+    <mergeCell ref="I63:Z64"/>
+    <mergeCell ref="AA63:AD64"/>
+    <mergeCell ref="AE63:AI64"/>
+    <mergeCell ref="AJ63:AM64"/>
+    <mergeCell ref="AN63:AR64"/>
+    <mergeCell ref="AS63:AV64"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="D61:H62"/>
+    <mergeCell ref="I61:Z62"/>
+    <mergeCell ref="AA61:AD62"/>
+    <mergeCell ref="AE61:AI62"/>
+    <mergeCell ref="AJ61:AM62"/>
+    <mergeCell ref="AN65:AR66"/>
+    <mergeCell ref="AS65:AV66"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="D67:H68"/>
+    <mergeCell ref="I67:Z68"/>
+    <mergeCell ref="AA67:AD68"/>
+    <mergeCell ref="AE67:AI68"/>
+    <mergeCell ref="AJ67:AM68"/>
+    <mergeCell ref="AN67:AR68"/>
+    <mergeCell ref="AS67:AV68"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="D65:H66"/>
+    <mergeCell ref="I65:Z66"/>
+    <mergeCell ref="AA65:AD66"/>
+    <mergeCell ref="AE65:AI66"/>
+    <mergeCell ref="AJ65:AM66"/>
+    <mergeCell ref="AN69:AR70"/>
+    <mergeCell ref="AS69:AV70"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="D71:H72"/>
+    <mergeCell ref="I71:Z72"/>
+    <mergeCell ref="AA71:AD72"/>
+    <mergeCell ref="AE71:AI72"/>
+    <mergeCell ref="AJ71:AM72"/>
+    <mergeCell ref="AN71:AR72"/>
+    <mergeCell ref="AS71:AV72"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="D69:H70"/>
+    <mergeCell ref="I69:Z70"/>
+    <mergeCell ref="AA69:AD70"/>
+    <mergeCell ref="AE69:AI70"/>
+    <mergeCell ref="AJ69:AM70"/>
+    <mergeCell ref="AN73:AR74"/>
+    <mergeCell ref="AS73:AV74"/>
+    <mergeCell ref="B75:C76"/>
+    <mergeCell ref="D75:H76"/>
+    <mergeCell ref="I75:Z76"/>
+    <mergeCell ref="AA75:AD76"/>
+    <mergeCell ref="AE75:AI76"/>
+    <mergeCell ref="AJ75:AM76"/>
+    <mergeCell ref="AN75:AR76"/>
+    <mergeCell ref="AS75:AV76"/>
+    <mergeCell ref="B73:C74"/>
+    <mergeCell ref="D73:H74"/>
+    <mergeCell ref="I73:Z74"/>
+    <mergeCell ref="AA73:AD74"/>
+    <mergeCell ref="AE73:AI74"/>
+    <mergeCell ref="AJ73:AM74"/>
     <mergeCell ref="AN77:AR78"/>
     <mergeCell ref="AS77:AV78"/>
     <mergeCell ref="A81:I83"/>
@@ -12824,164 +12968,24 @@
     <mergeCell ref="V83:Z83"/>
     <mergeCell ref="AA83:AG83"/>
     <mergeCell ref="AH83:AL83"/>
-    <mergeCell ref="AN73:AR74"/>
-    <mergeCell ref="AS73:AV74"/>
-    <mergeCell ref="B75:C76"/>
-    <mergeCell ref="D75:H76"/>
-    <mergeCell ref="I75:Z76"/>
-    <mergeCell ref="AA75:AD76"/>
-    <mergeCell ref="AE75:AI76"/>
-    <mergeCell ref="AJ75:AM76"/>
-    <mergeCell ref="AN75:AR76"/>
-    <mergeCell ref="AS75:AV76"/>
-    <mergeCell ref="B73:C74"/>
-    <mergeCell ref="D73:H74"/>
-    <mergeCell ref="I73:Z74"/>
-    <mergeCell ref="AA73:AD74"/>
-    <mergeCell ref="AE73:AI74"/>
-    <mergeCell ref="AJ73:AM74"/>
-    <mergeCell ref="AN69:AR70"/>
-    <mergeCell ref="AS69:AV70"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="D71:H72"/>
-    <mergeCell ref="I71:Z72"/>
-    <mergeCell ref="AA71:AD72"/>
-    <mergeCell ref="AE71:AI72"/>
-    <mergeCell ref="AJ71:AM72"/>
-    <mergeCell ref="AN71:AR72"/>
-    <mergeCell ref="AS71:AV72"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="D69:H70"/>
-    <mergeCell ref="I69:Z70"/>
-    <mergeCell ref="AA69:AD70"/>
-    <mergeCell ref="AE69:AI70"/>
-    <mergeCell ref="AJ69:AM70"/>
-    <mergeCell ref="AN65:AR66"/>
-    <mergeCell ref="AS65:AV66"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="D67:H68"/>
-    <mergeCell ref="I67:Z68"/>
-    <mergeCell ref="AA67:AD68"/>
-    <mergeCell ref="AE67:AI68"/>
-    <mergeCell ref="AJ67:AM68"/>
-    <mergeCell ref="AN67:AR68"/>
-    <mergeCell ref="AS67:AV68"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="D65:H66"/>
-    <mergeCell ref="I65:Z66"/>
-    <mergeCell ref="AA65:AD66"/>
-    <mergeCell ref="AE65:AI66"/>
-    <mergeCell ref="AJ65:AM66"/>
-    <mergeCell ref="AN61:AR62"/>
-    <mergeCell ref="AS61:AV62"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="D63:H64"/>
-    <mergeCell ref="I63:Z64"/>
-    <mergeCell ref="AA63:AD64"/>
-    <mergeCell ref="AE63:AI64"/>
-    <mergeCell ref="AJ63:AM64"/>
-    <mergeCell ref="AN63:AR64"/>
-    <mergeCell ref="AS63:AV64"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="D61:H62"/>
-    <mergeCell ref="I61:Z62"/>
-    <mergeCell ref="AA61:AD62"/>
-    <mergeCell ref="AE61:AI62"/>
-    <mergeCell ref="AJ61:AM62"/>
-    <mergeCell ref="AN57:AR58"/>
-    <mergeCell ref="AS57:AV58"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="D59:H60"/>
-    <mergeCell ref="I59:Z60"/>
-    <mergeCell ref="AA59:AD60"/>
-    <mergeCell ref="AE59:AI60"/>
-    <mergeCell ref="AJ59:AM60"/>
-    <mergeCell ref="AN59:AR60"/>
-    <mergeCell ref="AS59:AV60"/>
-    <mergeCell ref="B57:C58"/>
-    <mergeCell ref="D57:H58"/>
-    <mergeCell ref="I57:Z58"/>
-    <mergeCell ref="AA57:AD58"/>
-    <mergeCell ref="AE57:AI58"/>
-    <mergeCell ref="AJ57:AM58"/>
-    <mergeCell ref="AN53:AR54"/>
-    <mergeCell ref="AS53:AV54"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="D55:H56"/>
-    <mergeCell ref="I55:Z56"/>
-    <mergeCell ref="AA55:AD56"/>
-    <mergeCell ref="AE55:AI56"/>
-    <mergeCell ref="AJ55:AM56"/>
-    <mergeCell ref="AN55:AR56"/>
-    <mergeCell ref="AS55:AV56"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="D53:H54"/>
-    <mergeCell ref="I53:Z54"/>
-    <mergeCell ref="AA53:AD54"/>
-    <mergeCell ref="AE53:AI54"/>
-    <mergeCell ref="AJ53:AM54"/>
-    <mergeCell ref="AN49:AR50"/>
-    <mergeCell ref="AS49:AV50"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="D51:H52"/>
-    <mergeCell ref="I51:Z52"/>
-    <mergeCell ref="AA51:AD52"/>
-    <mergeCell ref="AE51:AI52"/>
-    <mergeCell ref="AJ51:AM52"/>
-    <mergeCell ref="AN51:AR52"/>
-    <mergeCell ref="AS51:AV52"/>
-    <mergeCell ref="B49:C50"/>
-    <mergeCell ref="D49:H50"/>
-    <mergeCell ref="I49:Z50"/>
-    <mergeCell ref="AA49:AD50"/>
-    <mergeCell ref="AE49:AI50"/>
-    <mergeCell ref="AJ49:AM50"/>
-    <mergeCell ref="B47:C48"/>
-    <mergeCell ref="D47:H48"/>
-    <mergeCell ref="I47:Z48"/>
-    <mergeCell ref="AA47:AD48"/>
-    <mergeCell ref="AE47:AM47"/>
-    <mergeCell ref="AN47:AV47"/>
-    <mergeCell ref="AE48:AI48"/>
-    <mergeCell ref="AJ48:AM48"/>
-    <mergeCell ref="AN48:AR48"/>
-    <mergeCell ref="AS48:AV48"/>
-    <mergeCell ref="B13:AV17"/>
-    <mergeCell ref="B23:AV26"/>
-    <mergeCell ref="A41:I43"/>
-    <mergeCell ref="J41:O43"/>
-    <mergeCell ref="P41:U43"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="AA41:AL42"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AT41:AW41"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AO42:AQ42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AT42:AW42"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="AA43:AG43"/>
-    <mergeCell ref="AH43:AL43"/>
-    <mergeCell ref="AM43:AW43"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="P1:U3"/>
-    <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AA1:AL2"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM3:AW3"/>
+    <mergeCell ref="AM83:AW83"/>
+    <mergeCell ref="AO121:AQ121"/>
+    <mergeCell ref="AR121:AS121"/>
+    <mergeCell ref="AT121:AW121"/>
+    <mergeCell ref="AM122:AN122"/>
+    <mergeCell ref="AO122:AQ122"/>
+    <mergeCell ref="AR122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="A121:I123"/>
+    <mergeCell ref="J121:O123"/>
+    <mergeCell ref="P121:U123"/>
+    <mergeCell ref="V121:Z122"/>
+    <mergeCell ref="AA121:AL122"/>
+    <mergeCell ref="AM121:AN121"/>
+    <mergeCell ref="V123:Z123"/>
+    <mergeCell ref="AA123:AG123"/>
+    <mergeCell ref="AH123:AL123"/>
+    <mergeCell ref="AM123:AW123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12990,10 +12994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B38565-7CB3-45E4-B7DF-870E64DEDB0E}">
-  <dimension ref="A1:BK182"/>
+  <dimension ref="A1:BK183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AV143" sqref="AV143"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE130" sqref="AE130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="13.5" customHeight="1"/>
@@ -13006,187 +13010,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="320" t="s">
+      <c r="A1" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="322"/>
-      <c r="J1" s="329" t="s">
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="332" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="321"/>
-      <c r="L1" s="321"/>
-      <c r="M1" s="321"/>
-      <c r="N1" s="321"/>
-      <c r="O1" s="322"/>
-      <c r="P1" s="329" t="s">
+      <c r="K1" s="324"/>
+      <c r="L1" s="324"/>
+      <c r="M1" s="324"/>
+      <c r="N1" s="324"/>
+      <c r="O1" s="325"/>
+      <c r="P1" s="332" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="321"/>
-      <c r="R1" s="321"/>
-      <c r="S1" s="321"/>
-      <c r="T1" s="321"/>
-      <c r="U1" s="322"/>
-      <c r="V1" s="330" t="s">
+      <c r="Q1" s="324"/>
+      <c r="R1" s="324"/>
+      <c r="S1" s="324"/>
+      <c r="T1" s="324"/>
+      <c r="U1" s="325"/>
+      <c r="V1" s="333" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="331"/>
-      <c r="X1" s="331"/>
-      <c r="Y1" s="331"/>
-      <c r="Z1" s="332"/>
-      <c r="AA1" s="336" t="s">
+      <c r="W1" s="334"/>
+      <c r="X1" s="334"/>
+      <c r="Y1" s="334"/>
+      <c r="Z1" s="335"/>
+      <c r="AA1" s="339" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="321"/>
-      <c r="AC1" s="321"/>
-      <c r="AD1" s="321"/>
-      <c r="AE1" s="321"/>
-      <c r="AF1" s="321"/>
-      <c r="AG1" s="321"/>
-      <c r="AH1" s="321"/>
-      <c r="AI1" s="321"/>
-      <c r="AJ1" s="321"/>
-      <c r="AK1" s="321"/>
-      <c r="AL1" s="322"/>
-      <c r="AM1" s="307" t="s">
+      <c r="AB1" s="324"/>
+      <c r="AC1" s="324"/>
+      <c r="AD1" s="324"/>
+      <c r="AE1" s="324"/>
+      <c r="AF1" s="324"/>
+      <c r="AG1" s="324"/>
+      <c r="AH1" s="324"/>
+      <c r="AI1" s="324"/>
+      <c r="AJ1" s="324"/>
+      <c r="AK1" s="324"/>
+      <c r="AL1" s="325"/>
+      <c r="AM1" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="308"/>
-      <c r="AO1" s="304" t="s">
+      <c r="AN1" s="311"/>
+      <c r="AO1" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="305"/>
-      <c r="AQ1" s="306"/>
-      <c r="AR1" s="307" t="s">
+      <c r="AP1" s="308"/>
+      <c r="AQ1" s="309"/>
+      <c r="AR1" s="310" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="308"/>
-      <c r="AT1" s="309">
+      <c r="AS1" s="311"/>
+      <c r="AT1" s="312">
         <v>43110</v>
       </c>
-      <c r="AU1" s="310"/>
-      <c r="AV1" s="310"/>
-      <c r="AW1" s="311"/>
+      <c r="AU1" s="313"/>
+      <c r="AV1" s="313"/>
+      <c r="AW1" s="314"/>
     </row>
     <row r="2" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A2" s="323"/>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="324"/>
-      <c r="I2" s="325"/>
-      <c r="J2" s="323"/>
-      <c r="K2" s="324"/>
-      <c r="L2" s="324"/>
-      <c r="M2" s="324"/>
-      <c r="N2" s="324"/>
-      <c r="O2" s="325"/>
-      <c r="P2" s="323"/>
-      <c r="Q2" s="324"/>
-      <c r="R2" s="324"/>
-      <c r="S2" s="324"/>
-      <c r="T2" s="324"/>
-      <c r="U2" s="325"/>
-      <c r="V2" s="333"/>
-      <c r="W2" s="334"/>
-      <c r="X2" s="334"/>
-      <c r="Y2" s="334"/>
-      <c r="Z2" s="335"/>
-      <c r="AA2" s="337"/>
-      <c r="AB2" s="324"/>
-      <c r="AC2" s="324"/>
-      <c r="AD2" s="324"/>
-      <c r="AE2" s="324"/>
-      <c r="AF2" s="324"/>
-      <c r="AG2" s="324"/>
-      <c r="AH2" s="324"/>
-      <c r="AI2" s="324"/>
-      <c r="AJ2" s="324"/>
-      <c r="AK2" s="324"/>
-      <c r="AL2" s="325"/>
-      <c r="AM2" s="312" t="s">
+      <c r="A2" s="326"/>
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="328"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="327"/>
+      <c r="L2" s="327"/>
+      <c r="M2" s="327"/>
+      <c r="N2" s="327"/>
+      <c r="O2" s="328"/>
+      <c r="P2" s="326"/>
+      <c r="Q2" s="327"/>
+      <c r="R2" s="327"/>
+      <c r="S2" s="327"/>
+      <c r="T2" s="327"/>
+      <c r="U2" s="328"/>
+      <c r="V2" s="336"/>
+      <c r="W2" s="337"/>
+      <c r="X2" s="337"/>
+      <c r="Y2" s="337"/>
+      <c r="Z2" s="338"/>
+      <c r="AA2" s="340"/>
+      <c r="AB2" s="327"/>
+      <c r="AC2" s="327"/>
+      <c r="AD2" s="327"/>
+      <c r="AE2" s="327"/>
+      <c r="AF2" s="327"/>
+      <c r="AG2" s="327"/>
+      <c r="AH2" s="327"/>
+      <c r="AI2" s="327"/>
+      <c r="AJ2" s="327"/>
+      <c r="AK2" s="327"/>
+      <c r="AL2" s="328"/>
+      <c r="AM2" s="315" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="313"/>
-      <c r="AO2" s="314"/>
-      <c r="AP2" s="315"/>
-      <c r="AQ2" s="316"/>
-      <c r="AR2" s="312" t="s">
+      <c r="AN2" s="316"/>
+      <c r="AO2" s="317"/>
+      <c r="AP2" s="318"/>
+      <c r="AQ2" s="319"/>
+      <c r="AR2" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="313"/>
-      <c r="AT2" s="317"/>
-      <c r="AU2" s="318"/>
-      <c r="AV2" s="318"/>
-      <c r="AW2" s="319"/>
+      <c r="AS2" s="316"/>
+      <c r="AT2" s="320"/>
+      <c r="AU2" s="321"/>
+      <c r="AV2" s="321"/>
+      <c r="AW2" s="322"/>
     </row>
     <row r="3" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="326"/>
-      <c r="B3" s="327"/>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="327"/>
-      <c r="L3" s="327"/>
-      <c r="M3" s="327"/>
-      <c r="N3" s="327"/>
-      <c r="O3" s="328"/>
-      <c r="P3" s="326"/>
-      <c r="Q3" s="327"/>
-      <c r="R3" s="327"/>
-      <c r="S3" s="327"/>
-      <c r="T3" s="327"/>
-      <c r="U3" s="328"/>
-      <c r="V3" s="338" t="s">
+      <c r="A3" s="329"/>
+      <c r="B3" s="330"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="330"/>
+      <c r="I3" s="331"/>
+      <c r="J3" s="329"/>
+      <c r="K3" s="330"/>
+      <c r="L3" s="330"/>
+      <c r="M3" s="330"/>
+      <c r="N3" s="330"/>
+      <c r="O3" s="331"/>
+      <c r="P3" s="329"/>
+      <c r="Q3" s="330"/>
+      <c r="R3" s="330"/>
+      <c r="S3" s="330"/>
+      <c r="T3" s="330"/>
+      <c r="U3" s="331"/>
+      <c r="V3" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="339"/>
-      <c r="X3" s="339"/>
-      <c r="Y3" s="339"/>
-      <c r="Z3" s="340"/>
-      <c r="AA3" s="341" t="s">
+      <c r="W3" s="342"/>
+      <c r="X3" s="342"/>
+      <c r="Y3" s="342"/>
+      <c r="Z3" s="343"/>
+      <c r="AA3" s="304" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="342"/>
-      <c r="AC3" s="342"/>
-      <c r="AD3" s="342"/>
-      <c r="AE3" s="342"/>
-      <c r="AF3" s="342"/>
-      <c r="AG3" s="343"/>
-      <c r="AH3" s="344" t="s">
+      <c r="AB3" s="305"/>
+      <c r="AC3" s="305"/>
+      <c r="AD3" s="305"/>
+      <c r="AE3" s="305"/>
+      <c r="AF3" s="305"/>
+      <c r="AG3" s="344"/>
+      <c r="AH3" s="345" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="345"/>
-      <c r="AJ3" s="345"/>
-      <c r="AK3" s="345"/>
-      <c r="AL3" s="346"/>
-      <c r="AM3" s="341" t="s">
+      <c r="AI3" s="346"/>
+      <c r="AJ3" s="346"/>
+      <c r="AK3" s="346"/>
+      <c r="AL3" s="347"/>
+      <c r="AM3" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="342"/>
-      <c r="AO3" s="342"/>
-      <c r="AP3" s="342"/>
-      <c r="AQ3" s="342"/>
-      <c r="AR3" s="342"/>
-      <c r="AS3" s="342"/>
-      <c r="AT3" s="342"/>
-      <c r="AU3" s="342"/>
-      <c r="AV3" s="342"/>
-      <c r="AW3" s="347"/>
+      <c r="AN3" s="305"/>
+      <c r="AO3" s="305"/>
+      <c r="AP3" s="305"/>
+      <c r="AQ3" s="305"/>
+      <c r="AR3" s="305"/>
+      <c r="AS3" s="305"/>
+      <c r="AT3" s="305"/>
+      <c r="AU3" s="305"/>
+      <c r="AV3" s="305"/>
+      <c r="AW3" s="306"/>
     </row>
     <row r="4" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="35"/>
@@ -13815,185 +13819,185 @@
       <c r="AW37" s="38"/>
     </row>
     <row r="38" spans="1:58" ht="20" customHeight="1" thickTop="1">
-      <c r="A38" s="320" t="s">
+      <c r="A38" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="321"/>
-      <c r="C38" s="321"/>
-      <c r="D38" s="321"/>
-      <c r="E38" s="321"/>
-      <c r="F38" s="321"/>
-      <c r="G38" s="321"/>
-      <c r="H38" s="321"/>
-      <c r="I38" s="322"/>
-      <c r="J38" s="329" t="s">
+      <c r="B38" s="324"/>
+      <c r="C38" s="324"/>
+      <c r="D38" s="324"/>
+      <c r="E38" s="324"/>
+      <c r="F38" s="324"/>
+      <c r="G38" s="324"/>
+      <c r="H38" s="324"/>
+      <c r="I38" s="325"/>
+      <c r="J38" s="332" t="s">
         <v>1</v>
       </c>
-      <c r="K38" s="321"/>
-      <c r="L38" s="321"/>
-      <c r="M38" s="321"/>
-      <c r="N38" s="321"/>
-      <c r="O38" s="322"/>
-      <c r="P38" s="329" t="s">
+      <c r="K38" s="324"/>
+      <c r="L38" s="324"/>
+      <c r="M38" s="324"/>
+      <c r="N38" s="324"/>
+      <c r="O38" s="325"/>
+      <c r="P38" s="332" t="s">
         <v>2</v>
       </c>
-      <c r="Q38" s="321"/>
-      <c r="R38" s="321"/>
-      <c r="S38" s="321"/>
-      <c r="T38" s="321"/>
-      <c r="U38" s="322"/>
-      <c r="V38" s="330" t="s">
+      <c r="Q38" s="324"/>
+      <c r="R38" s="324"/>
+      <c r="S38" s="324"/>
+      <c r="T38" s="324"/>
+      <c r="U38" s="325"/>
+      <c r="V38" s="333" t="s">
         <v>3</v>
       </c>
-      <c r="W38" s="331"/>
-      <c r="X38" s="331"/>
-      <c r="Y38" s="331"/>
-      <c r="Z38" s="332"/>
-      <c r="AA38" s="336" t="s">
+      <c r="W38" s="334"/>
+      <c r="X38" s="334"/>
+      <c r="Y38" s="334"/>
+      <c r="Z38" s="335"/>
+      <c r="AA38" s="339" t="s">
         <v>56</v>
       </c>
-      <c r="AB38" s="321"/>
-      <c r="AC38" s="321"/>
-      <c r="AD38" s="321"/>
-      <c r="AE38" s="321"/>
-      <c r="AF38" s="321"/>
-      <c r="AG38" s="321"/>
-      <c r="AH38" s="321"/>
-      <c r="AI38" s="321"/>
-      <c r="AJ38" s="321"/>
-      <c r="AK38" s="321"/>
-      <c r="AL38" s="322"/>
-      <c r="AM38" s="307" t="s">
+      <c r="AB38" s="324"/>
+      <c r="AC38" s="324"/>
+      <c r="AD38" s="324"/>
+      <c r="AE38" s="324"/>
+      <c r="AF38" s="324"/>
+      <c r="AG38" s="324"/>
+      <c r="AH38" s="324"/>
+      <c r="AI38" s="324"/>
+      <c r="AJ38" s="324"/>
+      <c r="AK38" s="324"/>
+      <c r="AL38" s="325"/>
+      <c r="AM38" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="AN38" s="308"/>
-      <c r="AO38" s="304" t="s">
+      <c r="AN38" s="311"/>
+      <c r="AO38" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="AP38" s="305"/>
-      <c r="AQ38" s="306"/>
-      <c r="AR38" s="307" t="s">
+      <c r="AP38" s="308"/>
+      <c r="AQ38" s="309"/>
+      <c r="AR38" s="310" t="s">
         <v>7</v>
       </c>
-      <c r="AS38" s="308"/>
-      <c r="AT38" s="309"/>
-      <c r="AU38" s="310"/>
-      <c r="AV38" s="310"/>
-      <c r="AW38" s="311"/>
+      <c r="AS38" s="311"/>
+      <c r="AT38" s="312"/>
+      <c r="AU38" s="313"/>
+      <c r="AV38" s="313"/>
+      <c r="AW38" s="314"/>
     </row>
     <row r="39" spans="1:58" ht="20" customHeight="1">
-      <c r="A39" s="323"/>
-      <c r="B39" s="324"/>
-      <c r="C39" s="324"/>
-      <c r="D39" s="324"/>
-      <c r="E39" s="324"/>
-      <c r="F39" s="324"/>
-      <c r="G39" s="324"/>
-      <c r="H39" s="324"/>
-      <c r="I39" s="325"/>
-      <c r="J39" s="323"/>
-      <c r="K39" s="324"/>
-      <c r="L39" s="324"/>
-      <c r="M39" s="324"/>
-      <c r="N39" s="324"/>
-      <c r="O39" s="325"/>
-      <c r="P39" s="323"/>
-      <c r="Q39" s="324"/>
-      <c r="R39" s="324"/>
-      <c r="S39" s="324"/>
-      <c r="T39" s="324"/>
-      <c r="U39" s="325"/>
-      <c r="V39" s="333"/>
-      <c r="W39" s="334"/>
-      <c r="X39" s="334"/>
-      <c r="Y39" s="334"/>
-      <c r="Z39" s="335"/>
-      <c r="AA39" s="337"/>
-      <c r="AB39" s="324"/>
-      <c r="AC39" s="324"/>
-      <c r="AD39" s="324"/>
-      <c r="AE39" s="324"/>
-      <c r="AF39" s="324"/>
-      <c r="AG39" s="324"/>
-      <c r="AH39" s="324"/>
-      <c r="AI39" s="324"/>
-      <c r="AJ39" s="324"/>
-      <c r="AK39" s="324"/>
-      <c r="AL39" s="325"/>
-      <c r="AM39" s="312" t="s">
+      <c r="A39" s="326"/>
+      <c r="B39" s="327"/>
+      <c r="C39" s="327"/>
+      <c r="D39" s="327"/>
+      <c r="E39" s="327"/>
+      <c r="F39" s="327"/>
+      <c r="G39" s="327"/>
+      <c r="H39" s="327"/>
+      <c r="I39" s="328"/>
+      <c r="J39" s="326"/>
+      <c r="K39" s="327"/>
+      <c r="L39" s="327"/>
+      <c r="M39" s="327"/>
+      <c r="N39" s="327"/>
+      <c r="O39" s="328"/>
+      <c r="P39" s="326"/>
+      <c r="Q39" s="327"/>
+      <c r="R39" s="327"/>
+      <c r="S39" s="327"/>
+      <c r="T39" s="327"/>
+      <c r="U39" s="328"/>
+      <c r="V39" s="336"/>
+      <c r="W39" s="337"/>
+      <c r="X39" s="337"/>
+      <c r="Y39" s="337"/>
+      <c r="Z39" s="338"/>
+      <c r="AA39" s="340"/>
+      <c r="AB39" s="327"/>
+      <c r="AC39" s="327"/>
+      <c r="AD39" s="327"/>
+      <c r="AE39" s="327"/>
+      <c r="AF39" s="327"/>
+      <c r="AG39" s="327"/>
+      <c r="AH39" s="327"/>
+      <c r="AI39" s="327"/>
+      <c r="AJ39" s="327"/>
+      <c r="AK39" s="327"/>
+      <c r="AL39" s="328"/>
+      <c r="AM39" s="315" t="s">
         <v>8</v>
       </c>
-      <c r="AN39" s="313"/>
-      <c r="AO39" s="314"/>
-      <c r="AP39" s="315"/>
-      <c r="AQ39" s="316"/>
-      <c r="AR39" s="312" t="s">
+      <c r="AN39" s="316"/>
+      <c r="AO39" s="317"/>
+      <c r="AP39" s="318"/>
+      <c r="AQ39" s="319"/>
+      <c r="AR39" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="AS39" s="313"/>
-      <c r="AT39" s="317"/>
-      <c r="AU39" s="318"/>
-      <c r="AV39" s="318"/>
-      <c r="AW39" s="319"/>
+      <c r="AS39" s="316"/>
+      <c r="AT39" s="320"/>
+      <c r="AU39" s="321"/>
+      <c r="AV39" s="321"/>
+      <c r="AW39" s="322"/>
     </row>
     <row r="40" spans="1:58" ht="20" customHeight="1" thickBot="1">
-      <c r="A40" s="326"/>
-      <c r="B40" s="327"/>
-      <c r="C40" s="327"/>
-      <c r="D40" s="327"/>
-      <c r="E40" s="327"/>
-      <c r="F40" s="327"/>
-      <c r="G40" s="327"/>
-      <c r="H40" s="327"/>
-      <c r="I40" s="328"/>
-      <c r="J40" s="326"/>
-      <c r="K40" s="327"/>
-      <c r="L40" s="327"/>
-      <c r="M40" s="327"/>
-      <c r="N40" s="327"/>
-      <c r="O40" s="328"/>
-      <c r="P40" s="326"/>
-      <c r="Q40" s="327"/>
-      <c r="R40" s="327"/>
-      <c r="S40" s="327"/>
-      <c r="T40" s="327"/>
-      <c r="U40" s="328"/>
-      <c r="V40" s="338" t="s">
+      <c r="A40" s="329"/>
+      <c r="B40" s="330"/>
+      <c r="C40" s="330"/>
+      <c r="D40" s="330"/>
+      <c r="E40" s="330"/>
+      <c r="F40" s="330"/>
+      <c r="G40" s="330"/>
+      <c r="H40" s="330"/>
+      <c r="I40" s="331"/>
+      <c r="J40" s="329"/>
+      <c r="K40" s="330"/>
+      <c r="L40" s="330"/>
+      <c r="M40" s="330"/>
+      <c r="N40" s="330"/>
+      <c r="O40" s="331"/>
+      <c r="P40" s="329"/>
+      <c r="Q40" s="330"/>
+      <c r="R40" s="330"/>
+      <c r="S40" s="330"/>
+      <c r="T40" s="330"/>
+      <c r="U40" s="331"/>
+      <c r="V40" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="W40" s="339"/>
-      <c r="X40" s="339"/>
-      <c r="Y40" s="339"/>
-      <c r="Z40" s="340"/>
-      <c r="AA40" s="341" t="s">
+      <c r="W40" s="342"/>
+      <c r="X40" s="342"/>
+      <c r="Y40" s="342"/>
+      <c r="Z40" s="343"/>
+      <c r="AA40" s="304" t="s">
         <v>11</v>
       </c>
-      <c r="AB40" s="342"/>
-      <c r="AC40" s="342"/>
-      <c r="AD40" s="342"/>
-      <c r="AE40" s="342"/>
-      <c r="AF40" s="342"/>
-      <c r="AG40" s="343"/>
-      <c r="AH40" s="344" t="s">
+      <c r="AB40" s="305"/>
+      <c r="AC40" s="305"/>
+      <c r="AD40" s="305"/>
+      <c r="AE40" s="305"/>
+      <c r="AF40" s="305"/>
+      <c r="AG40" s="344"/>
+      <c r="AH40" s="345" t="s">
         <v>12</v>
       </c>
-      <c r="AI40" s="345"/>
-      <c r="AJ40" s="345"/>
-      <c r="AK40" s="345"/>
-      <c r="AL40" s="346"/>
-      <c r="AM40" s="341" t="s">
+      <c r="AI40" s="346"/>
+      <c r="AJ40" s="346"/>
+      <c r="AK40" s="346"/>
+      <c r="AL40" s="347"/>
+      <c r="AM40" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="AN40" s="342"/>
-      <c r="AO40" s="342"/>
-      <c r="AP40" s="342"/>
-      <c r="AQ40" s="342"/>
-      <c r="AR40" s="342"/>
-      <c r="AS40" s="342"/>
-      <c r="AT40" s="342"/>
-      <c r="AU40" s="342"/>
-      <c r="AV40" s="342"/>
-      <c r="AW40" s="347"/>
+      <c r="AN40" s="305"/>
+      <c r="AO40" s="305"/>
+      <c r="AP40" s="305"/>
+      <c r="AQ40" s="305"/>
+      <c r="AR40" s="305"/>
+      <c r="AS40" s="305"/>
+      <c r="AT40" s="305"/>
+      <c r="AU40" s="305"/>
+      <c r="AV40" s="305"/>
+      <c r="AW40" s="306"/>
     </row>
     <row r="41" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A41" s="35"/>
@@ -14687,7 +14691,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="174" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E56" s="175"/>
       <c r="F56" s="175"/>
@@ -15889,187 +15893,185 @@
       <c r="AW79" s="38"/>
     </row>
     <row r="80" spans="1:49" ht="18" customHeight="1" thickTop="1">
-      <c r="A80" s="320" t="s">
+      <c r="A80" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="321"/>
-      <c r="C80" s="321"/>
-      <c r="D80" s="321"/>
-      <c r="E80" s="321"/>
-      <c r="F80" s="321"/>
-      <c r="G80" s="321"/>
-      <c r="H80" s="321"/>
-      <c r="I80" s="322"/>
-      <c r="J80" s="329" t="s">
+      <c r="B80" s="324"/>
+      <c r="C80" s="324"/>
+      <c r="D80" s="324"/>
+      <c r="E80" s="324"/>
+      <c r="F80" s="324"/>
+      <c r="G80" s="324"/>
+      <c r="H80" s="324"/>
+      <c r="I80" s="325"/>
+      <c r="J80" s="332" t="s">
         <v>1</v>
       </c>
-      <c r="K80" s="321"/>
-      <c r="L80" s="321"/>
-      <c r="M80" s="321"/>
-      <c r="N80" s="321"/>
-      <c r="O80" s="322"/>
-      <c r="P80" s="329" t="s">
+      <c r="K80" s="324"/>
+      <c r="L80" s="324"/>
+      <c r="M80" s="324"/>
+      <c r="N80" s="324"/>
+      <c r="O80" s="325"/>
+      <c r="P80" s="332" t="s">
         <v>2</v>
       </c>
-      <c r="Q80" s="321"/>
-      <c r="R80" s="321"/>
-      <c r="S80" s="321"/>
-      <c r="T80" s="321"/>
-      <c r="U80" s="322"/>
-      <c r="V80" s="330" t="s">
+      <c r="Q80" s="324"/>
+      <c r="R80" s="324"/>
+      <c r="S80" s="324"/>
+      <c r="T80" s="324"/>
+      <c r="U80" s="325"/>
+      <c r="V80" s="333" t="s">
         <v>3</v>
       </c>
-      <c r="W80" s="331"/>
-      <c r="X80" s="331"/>
-      <c r="Y80" s="331"/>
-      <c r="Z80" s="332"/>
-      <c r="AA80" s="336" t="s">
+      <c r="W80" s="334"/>
+      <c r="X80" s="334"/>
+      <c r="Y80" s="334"/>
+      <c r="Z80" s="335"/>
+      <c r="AA80" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="AB80" s="321"/>
-      <c r="AC80" s="321"/>
-      <c r="AD80" s="321"/>
-      <c r="AE80" s="321"/>
-      <c r="AF80" s="321"/>
-      <c r="AG80" s="321"/>
-      <c r="AH80" s="321"/>
-      <c r="AI80" s="321"/>
-      <c r="AJ80" s="321"/>
-      <c r="AK80" s="321"/>
-      <c r="AL80" s="322"/>
-      <c r="AM80" s="307" t="s">
+      <c r="AB80" s="324"/>
+      <c r="AC80" s="324"/>
+      <c r="AD80" s="324"/>
+      <c r="AE80" s="324"/>
+      <c r="AF80" s="324"/>
+      <c r="AG80" s="324"/>
+      <c r="AH80" s="324"/>
+      <c r="AI80" s="324"/>
+      <c r="AJ80" s="324"/>
+      <c r="AK80" s="324"/>
+      <c r="AL80" s="325"/>
+      <c r="AM80" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="AN80" s="308"/>
-      <c r="AO80" s="304" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP80" s="305"/>
-      <c r="AQ80" s="306"/>
-      <c r="AR80" s="307" t="s">
+      <c r="AN80" s="311"/>
+      <c r="AO80" s="307"/>
+      <c r="AP80" s="308"/>
+      <c r="AQ80" s="309"/>
+      <c r="AR80" s="310" t="s">
         <v>7</v>
       </c>
-      <c r="AS80" s="308"/>
-      <c r="AT80" s="309">
+      <c r="AS80" s="311"/>
+      <c r="AT80" s="312">
         <v>43110</v>
       </c>
-      <c r="AU80" s="310"/>
-      <c r="AV80" s="310"/>
-      <c r="AW80" s="311"/>
+      <c r="AU80" s="313"/>
+      <c r="AV80" s="313"/>
+      <c r="AW80" s="314"/>
     </row>
     <row r="81" spans="1:49" ht="18" customHeight="1">
-      <c r="A81" s="323"/>
-      <c r="B81" s="324"/>
-      <c r="C81" s="324"/>
-      <c r="D81" s="324"/>
-      <c r="E81" s="324"/>
-      <c r="F81" s="324"/>
-      <c r="G81" s="324"/>
-      <c r="H81" s="324"/>
-      <c r="I81" s="325"/>
-      <c r="J81" s="323"/>
-      <c r="K81" s="324"/>
-      <c r="L81" s="324"/>
-      <c r="M81" s="324"/>
-      <c r="N81" s="324"/>
-      <c r="O81" s="325"/>
-      <c r="P81" s="323"/>
-      <c r="Q81" s="324"/>
-      <c r="R81" s="324"/>
-      <c r="S81" s="324"/>
-      <c r="T81" s="324"/>
-      <c r="U81" s="325"/>
-      <c r="V81" s="333"/>
-      <c r="W81" s="334"/>
-      <c r="X81" s="334"/>
-      <c r="Y81" s="334"/>
-      <c r="Z81" s="335"/>
-      <c r="AA81" s="337"/>
-      <c r="AB81" s="324"/>
-      <c r="AC81" s="324"/>
-      <c r="AD81" s="324"/>
-      <c r="AE81" s="324"/>
-      <c r="AF81" s="324"/>
-      <c r="AG81" s="324"/>
-      <c r="AH81" s="324"/>
-      <c r="AI81" s="324"/>
-      <c r="AJ81" s="324"/>
-      <c r="AK81" s="324"/>
-      <c r="AL81" s="325"/>
-      <c r="AM81" s="312" t="s">
+      <c r="A81" s="326"/>
+      <c r="B81" s="327"/>
+      <c r="C81" s="327"/>
+      <c r="D81" s="327"/>
+      <c r="E81" s="327"/>
+      <c r="F81" s="327"/>
+      <c r="G81" s="327"/>
+      <c r="H81" s="327"/>
+      <c r="I81" s="328"/>
+      <c r="J81" s="326"/>
+      <c r="K81" s="327"/>
+      <c r="L81" s="327"/>
+      <c r="M81" s="327"/>
+      <c r="N81" s="327"/>
+      <c r="O81" s="328"/>
+      <c r="P81" s="326"/>
+      <c r="Q81" s="327"/>
+      <c r="R81" s="327"/>
+      <c r="S81" s="327"/>
+      <c r="T81" s="327"/>
+      <c r="U81" s="328"/>
+      <c r="V81" s="336"/>
+      <c r="W81" s="337"/>
+      <c r="X81" s="337"/>
+      <c r="Y81" s="337"/>
+      <c r="Z81" s="338"/>
+      <c r="AA81" s="340"/>
+      <c r="AB81" s="327"/>
+      <c r="AC81" s="327"/>
+      <c r="AD81" s="327"/>
+      <c r="AE81" s="327"/>
+      <c r="AF81" s="327"/>
+      <c r="AG81" s="327"/>
+      <c r="AH81" s="327"/>
+      <c r="AI81" s="327"/>
+      <c r="AJ81" s="327"/>
+      <c r="AK81" s="327"/>
+      <c r="AL81" s="328"/>
+      <c r="AM81" s="315" t="s">
         <v>8</v>
       </c>
-      <c r="AN81" s="313"/>
-      <c r="AO81" s="314"/>
-      <c r="AP81" s="315"/>
-      <c r="AQ81" s="316"/>
-      <c r="AR81" s="312" t="s">
+      <c r="AN81" s="316"/>
+      <c r="AO81" s="317"/>
+      <c r="AP81" s="318"/>
+      <c r="AQ81" s="319"/>
+      <c r="AR81" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="AS81" s="313"/>
-      <c r="AT81" s="317"/>
-      <c r="AU81" s="318"/>
-      <c r="AV81" s="318"/>
-      <c r="AW81" s="319"/>
+      <c r="AS81" s="316"/>
+      <c r="AT81" s="320"/>
+      <c r="AU81" s="321"/>
+      <c r="AV81" s="321"/>
+      <c r="AW81" s="322"/>
     </row>
     <row r="82" spans="1:49" ht="18" customHeight="1" thickBot="1">
-      <c r="A82" s="326"/>
-      <c r="B82" s="327"/>
-      <c r="C82" s="327"/>
-      <c r="D82" s="327"/>
-      <c r="E82" s="327"/>
-      <c r="F82" s="327"/>
-      <c r="G82" s="327"/>
-      <c r="H82" s="327"/>
-      <c r="I82" s="328"/>
-      <c r="J82" s="326"/>
-      <c r="K82" s="327"/>
-      <c r="L82" s="327"/>
-      <c r="M82" s="327"/>
-      <c r="N82" s="327"/>
-      <c r="O82" s="328"/>
-      <c r="P82" s="326"/>
-      <c r="Q82" s="327"/>
-      <c r="R82" s="327"/>
-      <c r="S82" s="327"/>
-      <c r="T82" s="327"/>
-      <c r="U82" s="328"/>
-      <c r="V82" s="338" t="s">
+      <c r="A82" s="329"/>
+      <c r="B82" s="330"/>
+      <c r="C82" s="330"/>
+      <c r="D82" s="330"/>
+      <c r="E82" s="330"/>
+      <c r="F82" s="330"/>
+      <c r="G82" s="330"/>
+      <c r="H82" s="330"/>
+      <c r="I82" s="331"/>
+      <c r="J82" s="329"/>
+      <c r="K82" s="330"/>
+      <c r="L82" s="330"/>
+      <c r="M82" s="330"/>
+      <c r="N82" s="330"/>
+      <c r="O82" s="331"/>
+      <c r="P82" s="329"/>
+      <c r="Q82" s="330"/>
+      <c r="R82" s="330"/>
+      <c r="S82" s="330"/>
+      <c r="T82" s="330"/>
+      <c r="U82" s="331"/>
+      <c r="V82" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="W82" s="339"/>
-      <c r="X82" s="339"/>
-      <c r="Y82" s="339"/>
-      <c r="Z82" s="340"/>
-      <c r="AA82" s="341" t="s">
+      <c r="W82" s="342"/>
+      <c r="X82" s="342"/>
+      <c r="Y82" s="342"/>
+      <c r="Z82" s="343"/>
+      <c r="AA82" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AB82" s="342"/>
-      <c r="AC82" s="342"/>
-      <c r="AD82" s="342"/>
-      <c r="AE82" s="342"/>
-      <c r="AF82" s="342"/>
-      <c r="AG82" s="343"/>
-      <c r="AH82" s="344" t="s">
+      <c r="AB82" s="305"/>
+      <c r="AC82" s="305"/>
+      <c r="AD82" s="305"/>
+      <c r="AE82" s="305"/>
+      <c r="AF82" s="305"/>
+      <c r="AG82" s="344"/>
+      <c r="AH82" s="345" t="s">
         <v>12</v>
       </c>
-      <c r="AI82" s="345"/>
-      <c r="AJ82" s="345"/>
-      <c r="AK82" s="345"/>
-      <c r="AL82" s="346"/>
-      <c r="AM82" s="341" t="s">
+      <c r="AI82" s="346"/>
+      <c r="AJ82" s="346"/>
+      <c r="AK82" s="346"/>
+      <c r="AL82" s="347"/>
+      <c r="AM82" s="304" t="s">
         <v>40</v>
       </c>
-      <c r="AN82" s="342"/>
-      <c r="AO82" s="342"/>
-      <c r="AP82" s="342"/>
-      <c r="AQ82" s="342"/>
-      <c r="AR82" s="342"/>
-      <c r="AS82" s="342"/>
-      <c r="AT82" s="342"/>
-      <c r="AU82" s="342"/>
-      <c r="AV82" s="342"/>
-      <c r="AW82" s="347"/>
+      <c r="AN82" s="305"/>
+      <c r="AO82" s="305"/>
+      <c r="AP82" s="305"/>
+      <c r="AQ82" s="305"/>
+      <c r="AR82" s="305"/>
+      <c r="AS82" s="305"/>
+      <c r="AT82" s="305"/>
+      <c r="AU82" s="305"/>
+      <c r="AV82" s="305"/>
+      <c r="AW82" s="306"/>
     </row>
     <row r="83" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A83" s="35"/>
@@ -16438,7 +16440,7 @@
     <row r="95" spans="1:49" ht="13.5" customHeight="1">
       <c r="A95" s="35"/>
       <c r="C95" s="17" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="D95" s="37"/>
       <c r="E95" s="37"/>
@@ -16774,7 +16776,7 @@
     <row r="103" spans="1:57" ht="13.5" customHeight="1">
       <c r="A103" s="35"/>
       <c r="B103" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
@@ -16840,7 +16842,7 @@
     <row r="105" spans="1:57" ht="13.5" customHeight="1">
       <c r="A105" s="35"/>
       <c r="D105" s="183" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E105" s="37"/>
       <c r="F105" s="37"/>
@@ -16925,7 +16927,7 @@
       <c r="L108" s="207"/>
       <c r="M108" s="208"/>
       <c r="N108" s="207" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O108" s="207"/>
       <c r="P108" s="207"/>
@@ -16943,7 +16945,7 @@
       <c r="AB108" s="207"/>
       <c r="AC108" s="207"/>
       <c r="AD108" s="206" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE108" s="207"/>
       <c r="AF108" s="207"/>
@@ -16953,7 +16955,7 @@
       <c r="AJ108" s="207"/>
       <c r="AK108" s="207"/>
       <c r="AL108" s="206" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AM108" s="208"/>
       <c r="AN108" s="206"/>
@@ -16968,12 +16970,12 @@
       <c r="AU108" s="208"/>
       <c r="AV108" s="37"/>
       <c r="AW108" s="38"/>
-      <c r="AZ108" s="451"/>
-      <c r="BA108" s="451"/>
-      <c r="BB108" s="451"/>
-      <c r="BC108" s="451"/>
-      <c r="BD108" s="451"/>
-      <c r="BE108" s="451"/>
+      <c r="AZ108" s="155"/>
+      <c r="BA108" s="155"/>
+      <c r="BB108" s="155"/>
+      <c r="BC108" s="155"/>
+      <c r="BD108" s="155"/>
+      <c r="BE108" s="155"/>
     </row>
     <row r="109" spans="1:57" ht="13.5" customHeight="1">
       <c r="A109" s="35"/>
@@ -17010,7 +17012,7 @@
       <c r="AB109" s="170"/>
       <c r="AC109" s="171"/>
       <c r="AD109" s="169" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE109" s="170"/>
       <c r="AF109" s="170"/>
@@ -17020,7 +17022,7 @@
       <c r="AJ109" s="170"/>
       <c r="AK109" s="171"/>
       <c r="AL109" s="209" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM109" s="210"/>
       <c r="AN109" s="211"/>
@@ -17033,12 +17035,12 @@
       <c r="AU109" s="171"/>
       <c r="AV109" s="37"/>
       <c r="AW109" s="38"/>
-      <c r="AZ109" s="451"/>
-      <c r="BA109" s="451"/>
-      <c r="BB109" s="451"/>
-      <c r="BC109" s="451"/>
-      <c r="BD109" s="451"/>
-      <c r="BE109" s="451"/>
+      <c r="AZ109" s="155"/>
+      <c r="BA109" s="155"/>
+      <c r="BB109" s="155"/>
+      <c r="BC109" s="155"/>
+      <c r="BD109" s="155"/>
+      <c r="BE109" s="155"/>
     </row>
     <row r="110" spans="1:57" ht="13.5" customHeight="1">
       <c r="A110" s="35"/>
@@ -17075,7 +17077,7 @@
       <c r="AB110" s="215"/>
       <c r="AC110" s="216"/>
       <c r="AD110" s="214" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE110" s="217"/>
       <c r="AF110" s="215"/>
@@ -17085,7 +17087,7 @@
       <c r="AJ110" s="215"/>
       <c r="AK110" s="216"/>
       <c r="AL110" s="218" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM110" s="219"/>
       <c r="AN110" s="220"/>
@@ -17098,12 +17100,12 @@
       <c r="AU110" s="216"/>
       <c r="AV110" s="37"/>
       <c r="AW110" s="38"/>
-      <c r="AZ110" s="451"/>
-      <c r="BA110" s="451"/>
-      <c r="BB110" s="451"/>
-      <c r="BC110" s="451"/>
-      <c r="BD110" s="451"/>
-      <c r="BE110" s="451"/>
+      <c r="AZ110" s="155"/>
+      <c r="BA110" s="155"/>
+      <c r="BB110" s="155"/>
+      <c r="BC110" s="155"/>
+      <c r="BD110" s="155"/>
+      <c r="BE110" s="155"/>
     </row>
     <row r="111" spans="1:57" ht="13.5" customHeight="1">
       <c r="A111" s="35"/>
@@ -17140,7 +17142,7 @@
       <c r="AB111" s="217"/>
       <c r="AC111" s="222"/>
       <c r="AD111" s="223" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE111" s="217"/>
       <c r="AF111" s="217"/>
@@ -17150,7 +17152,7 @@
       <c r="AJ111" s="217"/>
       <c r="AK111" s="222"/>
       <c r="AL111" s="224" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AM111" s="219"/>
       <c r="AN111" s="220"/>
@@ -17163,12 +17165,12 @@
       <c r="AU111" s="216"/>
       <c r="AV111" s="37"/>
       <c r="AW111" s="38"/>
-      <c r="AZ111" s="451"/>
-      <c r="BA111" s="451"/>
-      <c r="BB111" s="451"/>
-      <c r="BC111" s="451"/>
-      <c r="BD111" s="451"/>
-      <c r="BE111" s="451"/>
+      <c r="AZ111" s="155"/>
+      <c r="BA111" s="155"/>
+      <c r="BB111" s="155"/>
+      <c r="BC111" s="155"/>
+      <c r="BD111" s="155"/>
+      <c r="BE111" s="155"/>
     </row>
     <row r="112" spans="1:57" ht="13.5" customHeight="1">
       <c r="A112" s="35"/>
@@ -17205,7 +17207,7 @@
       <c r="AB112" s="226"/>
       <c r="AC112" s="227"/>
       <c r="AD112" s="228" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE112" s="226"/>
       <c r="AF112" s="226"/>
@@ -17215,7 +17217,7 @@
       <c r="AJ112" s="226"/>
       <c r="AK112" s="227"/>
       <c r="AL112" s="229" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AM112" s="230"/>
       <c r="AN112" s="231"/>
@@ -17228,12 +17230,12 @@
       <c r="AU112" s="176"/>
       <c r="AV112" s="37"/>
       <c r="AW112" s="38"/>
-      <c r="AZ112" s="451"/>
-      <c r="BA112" s="451"/>
-      <c r="BB112" s="451"/>
-      <c r="BC112" s="451"/>
-      <c r="BD112" s="451"/>
-      <c r="BE112" s="451"/>
+      <c r="AZ112" s="155"/>
+      <c r="BA112" s="155"/>
+      <c r="BB112" s="155"/>
+      <c r="BC112" s="155"/>
+      <c r="BD112" s="155"/>
+      <c r="BE112" s="155"/>
     </row>
     <row r="113" spans="1:57" ht="13.5" customHeight="1">
       <c r="A113" s="35"/>
@@ -17270,7 +17272,7 @@
       <c r="AB113" s="236"/>
       <c r="AC113" s="237"/>
       <c r="AD113" s="238" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE113" s="236"/>
       <c r="AF113" s="236"/>
@@ -17280,7 +17282,7 @@
       <c r="AJ113" s="236"/>
       <c r="AK113" s="237"/>
       <c r="AL113" s="239" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AM113" s="240"/>
       <c r="AN113" s="241"/>
@@ -17293,12 +17295,12 @@
       <c r="AU113" s="235"/>
       <c r="AV113" s="37"/>
       <c r="AW113" s="38"/>
-      <c r="AZ113" s="451"/>
-      <c r="BA113" s="451"/>
-      <c r="BB113" s="451"/>
-      <c r="BC113" s="451"/>
-      <c r="BD113" s="451"/>
-      <c r="BE113" s="451"/>
+      <c r="AZ113" s="155"/>
+      <c r="BA113" s="155"/>
+      <c r="BB113" s="155"/>
+      <c r="BC113" s="155"/>
+      <c r="BD113" s="155"/>
+      <c r="BE113" s="155"/>
     </row>
     <row r="114" spans="1:57" ht="13.5" customHeight="1">
       <c r="A114" s="35"/>
@@ -17329,12 +17331,12 @@
       <c r="AU114" s="37"/>
       <c r="AV114" s="37"/>
       <c r="AW114" s="38"/>
-      <c r="AZ114" s="451"/>
-      <c r="BA114" s="451"/>
-      <c r="BB114" s="451"/>
-      <c r="BC114" s="451"/>
-      <c r="BD114" s="451"/>
-      <c r="BE114" s="451"/>
+      <c r="AZ114" s="155"/>
+      <c r="BA114" s="155"/>
+      <c r="BB114" s="155"/>
+      <c r="BC114" s="155"/>
+      <c r="BD114" s="155"/>
+      <c r="BE114" s="155"/>
     </row>
     <row r="115" spans="1:57" ht="13.5" customHeight="1">
       <c r="A115" s="35"/>
@@ -17365,12 +17367,12 @@
       <c r="AU115" s="37"/>
       <c r="AV115" s="37"/>
       <c r="AW115" s="38"/>
-      <c r="AZ115" s="451"/>
-      <c r="BA115" s="451"/>
-      <c r="BB115" s="451"/>
-      <c r="BC115" s="451"/>
-      <c r="BD115" s="451"/>
-      <c r="BE115" s="451"/>
+      <c r="AZ115" s="155"/>
+      <c r="BA115" s="155"/>
+      <c r="BB115" s="155"/>
+      <c r="BC115" s="155"/>
+      <c r="BD115" s="155"/>
+      <c r="BE115" s="155"/>
     </row>
     <row r="116" spans="1:57" ht="13.5" customHeight="1">
       <c r="A116" s="35"/>
@@ -17422,12 +17424,12 @@
       <c r="AU116" s="34"/>
       <c r="AV116" s="37"/>
       <c r="AW116" s="38"/>
-      <c r="AZ116" s="451"/>
-      <c r="BA116" s="451"/>
-      <c r="BB116" s="451"/>
-      <c r="BC116" s="451"/>
-      <c r="BD116" s="451"/>
-      <c r="BE116" s="451"/>
+      <c r="AZ116" s="155"/>
+      <c r="BA116" s="155"/>
+      <c r="BB116" s="155"/>
+      <c r="BC116" s="155"/>
+      <c r="BD116" s="155"/>
+      <c r="BE116" s="155"/>
     </row>
     <row r="117" spans="1:57" ht="13.5" customHeight="1">
       <c r="A117" s="35"/>
@@ -17446,7 +17448,7 @@
       <c r="L117" s="207"/>
       <c r="M117" s="208"/>
       <c r="N117" s="207" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O117" s="207"/>
       <c r="P117" s="207"/>
@@ -17464,7 +17466,7 @@
       <c r="AB117" s="207"/>
       <c r="AC117" s="207"/>
       <c r="AD117" s="206" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE117" s="207"/>
       <c r="AF117" s="207"/>
@@ -17474,7 +17476,7 @@
       <c r="AJ117" s="207"/>
       <c r="AK117" s="207"/>
       <c r="AL117" s="206" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AM117" s="208"/>
       <c r="AN117" s="206"/>
@@ -17489,12 +17491,12 @@
       <c r="AU117" s="208"/>
       <c r="AV117" s="37"/>
       <c r="AW117" s="38"/>
-      <c r="AZ117" s="451"/>
-      <c r="BA117" s="451"/>
-      <c r="BB117" s="451"/>
-      <c r="BC117" s="451"/>
-      <c r="BD117" s="451"/>
-      <c r="BE117" s="451"/>
+      <c r="AZ117" s="155"/>
+      <c r="BA117" s="155"/>
+      <c r="BB117" s="155"/>
+      <c r="BC117" s="155"/>
+      <c r="BD117" s="155"/>
+      <c r="BE117" s="155"/>
     </row>
     <row r="118" spans="1:57" ht="13.5" customHeight="1">
       <c r="A118" s="35"/>
@@ -17503,7 +17505,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="170" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G118" s="170"/>
       <c r="H118" s="170"/>
@@ -17539,7 +17541,7 @@
       <c r="AJ118" s="170"/>
       <c r="AK118" s="170"/>
       <c r="AL118" s="169" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM118" s="170"/>
       <c r="AN118" s="171"/>
@@ -17552,12 +17554,12 @@
       <c r="AU118" s="171"/>
       <c r="AV118" s="37"/>
       <c r="AW118" s="38"/>
-      <c r="AZ118" s="451"/>
-      <c r="BA118" s="451"/>
-      <c r="BB118" s="451"/>
-      <c r="BC118" s="451"/>
-      <c r="BD118" s="451"/>
-      <c r="BE118" s="451"/>
+      <c r="AZ118" s="155"/>
+      <c r="BA118" s="155"/>
+      <c r="BB118" s="155"/>
+      <c r="BC118" s="155"/>
+      <c r="BD118" s="155"/>
+      <c r="BE118" s="155"/>
     </row>
     <row r="119" spans="1:57" ht="13.5" customHeight="1">
       <c r="A119" s="35"/>
@@ -17566,7 +17568,7 @@
         <v>2</v>
       </c>
       <c r="F119" s="175" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="G119" s="175"/>
       <c r="H119" s="175"/>
@@ -17602,7 +17604,7 @@
       <c r="AJ119" s="175"/>
       <c r="AK119" s="175"/>
       <c r="AL119" s="174" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AM119" s="175"/>
       <c r="AN119" s="176"/>
@@ -17766,7 +17768,7 @@
     <row r="123" spans="1:57" ht="13.5" customHeight="1">
       <c r="A123" s="35"/>
       <c r="C123" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D123" s="37"/>
       <c r="E123" s="181"/>
@@ -17818,7 +17820,7 @@
     <row r="124" spans="1:57" ht="13.5" customHeight="1">
       <c r="A124" s="35"/>
       <c r="D124" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E124" s="181"/>
       <c r="F124" s="37"/>
@@ -17869,7 +17871,7 @@
     <row r="125" spans="1:57" ht="13.5" customHeight="1">
       <c r="A125" s="35"/>
       <c r="D125" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E125" s="181"/>
       <c r="F125" s="37"/>
@@ -17921,7 +17923,7 @@
       <c r="A126" s="35"/>
       <c r="D126" s="37"/>
       <c r="E126" s="245" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
@@ -17985,7 +17987,7 @@
       <c r="L127" s="248"/>
       <c r="M127" s="248"/>
       <c r="N127" s="247" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O127" s="248"/>
       <c r="P127" s="248"/>
@@ -18009,7 +18011,7 @@
       <c r="AH127" s="249"/>
       <c r="AI127" s="249"/>
       <c r="AJ127" s="247" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AK127" s="249"/>
       <c r="AL127" s="249"/>
@@ -18042,7 +18044,7 @@
       <c r="L128" s="254"/>
       <c r="M128" s="255"/>
       <c r="N128" s="256" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O128" s="253"/>
       <c r="P128" s="253"/>
@@ -18066,7 +18068,7 @@
       <c r="AH128" s="257"/>
       <c r="AI128" s="258"/>
       <c r="AJ128" s="259" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AK128" s="260"/>
       <c r="AL128" s="260"/>
@@ -18100,7 +18102,7 @@
       <c r="L129" s="266"/>
       <c r="M129" s="267"/>
       <c r="N129" s="268" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O129" s="265"/>
       <c r="P129" s="265"/>
@@ -18124,7 +18126,7 @@
       <c r="AH129" s="269"/>
       <c r="AI129" s="270"/>
       <c r="AJ129" s="259" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AK129" s="271"/>
       <c r="AL129" s="271"/>
@@ -18144,57 +18146,57 @@
     <row r="130" spans="1:63" ht="13.5" customHeight="1">
       <c r="A130" s="35"/>
       <c r="D130" s="37"/>
-      <c r="E130" s="273">
-        <v>4</v>
-      </c>
-      <c r="F130" s="274" t="s">
-        <v>116</v>
-      </c>
-      <c r="G130" s="275"/>
-      <c r="H130" s="275"/>
-      <c r="I130" s="276"/>
-      <c r="J130" s="276"/>
-      <c r="K130" s="276"/>
-      <c r="L130" s="276"/>
-      <c r="M130" s="277"/>
-      <c r="N130" s="274" t="s">
-        <v>117</v>
-      </c>
-      <c r="O130" s="275"/>
-      <c r="P130" s="275"/>
-      <c r="Q130" s="276"/>
-      <c r="R130" s="276"/>
-      <c r="S130" s="276"/>
-      <c r="T130" s="276"/>
-      <c r="U130" s="276"/>
-      <c r="V130" s="278"/>
-      <c r="W130" s="278"/>
-      <c r="X130" s="278"/>
-      <c r="Y130" s="278"/>
-      <c r="Z130" s="278"/>
-      <c r="AA130" s="278"/>
-      <c r="AB130" s="278"/>
-      <c r="AC130" s="278"/>
-      <c r="AD130" s="278"/>
-      <c r="AE130" s="278"/>
-      <c r="AF130" s="278"/>
-      <c r="AG130" s="278"/>
-      <c r="AH130" s="278"/>
-      <c r="AI130" s="279"/>
-      <c r="AJ130" s="280" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK130" s="281"/>
-      <c r="AL130" s="281"/>
-      <c r="AM130" s="281"/>
-      <c r="AN130" s="281"/>
-      <c r="AO130" s="281"/>
-      <c r="AP130" s="281"/>
-      <c r="AQ130" s="281"/>
-      <c r="AR130" s="281"/>
-      <c r="AS130" s="281"/>
-      <c r="AT130" s="281"/>
-      <c r="AU130" s="282"/>
+      <c r="E130" s="263">
+        <v>3</v>
+      </c>
+      <c r="F130" s="264" t="s">
+        <v>66</v>
+      </c>
+      <c r="G130" s="265"/>
+      <c r="H130" s="265"/>
+      <c r="I130" s="266"/>
+      <c r="J130" s="266"/>
+      <c r="K130" s="266"/>
+      <c r="L130" s="266"/>
+      <c r="M130" s="267"/>
+      <c r="N130" s="268" t="s">
+        <v>128</v>
+      </c>
+      <c r="O130" s="265"/>
+      <c r="P130" s="265"/>
+      <c r="Q130" s="266"/>
+      <c r="R130" s="266"/>
+      <c r="S130" s="266"/>
+      <c r="T130" s="266"/>
+      <c r="U130" s="266"/>
+      <c r="V130" s="269"/>
+      <c r="W130" s="269"/>
+      <c r="X130" s="269"/>
+      <c r="Y130" s="269"/>
+      <c r="Z130" s="269"/>
+      <c r="AA130" s="269"/>
+      <c r="AB130" s="269"/>
+      <c r="AC130" s="269"/>
+      <c r="AD130" s="269"/>
+      <c r="AE130" s="269"/>
+      <c r="AF130" s="269"/>
+      <c r="AG130" s="269"/>
+      <c r="AH130" s="269"/>
+      <c r="AI130" s="270"/>
+      <c r="AJ130" s="259" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK130" s="271"/>
+      <c r="AL130" s="271"/>
+      <c r="AM130" s="271"/>
+      <c r="AN130" s="271"/>
+      <c r="AO130" s="271"/>
+      <c r="AP130" s="271"/>
+      <c r="AQ130" s="271"/>
+      <c r="AR130" s="271"/>
+      <c r="AS130" s="271"/>
+      <c r="AT130" s="271"/>
+      <c r="AU130" s="272"/>
       <c r="AV130" s="37"/>
       <c r="AW130" s="38"/>
       <c r="AY130" s="262"/>
@@ -18203,10 +18205,10 @@
       <c r="A131" s="35"/>
       <c r="D131" s="37"/>
       <c r="E131" s="273">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F131" s="274" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="G131" s="275"/>
       <c r="H131" s="275"/>
@@ -18216,7 +18218,7 @@
       <c r="L131" s="276"/>
       <c r="M131" s="277"/>
       <c r="N131" s="274" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O131" s="275"/>
       <c r="P131" s="275"/>
@@ -18239,8 +18241,8 @@
       <c r="AG131" s="278"/>
       <c r="AH131" s="278"/>
       <c r="AI131" s="279"/>
-      <c r="AJ131" s="283" t="s">
-        <v>125</v>
+      <c r="AJ131" s="280" t="s">
+        <v>122</v>
       </c>
       <c r="AK131" s="281"/>
       <c r="AL131" s="281"/>
@@ -18261,10 +18263,10 @@
       <c r="A132" s="35"/>
       <c r="D132" s="37"/>
       <c r="E132" s="273">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F132" s="274" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G132" s="275"/>
       <c r="H132" s="275"/>
@@ -18273,68 +18275,56 @@
       <c r="K132" s="276"/>
       <c r="L132" s="276"/>
       <c r="M132" s="277"/>
-      <c r="N132" s="442" t="s">
-        <v>117</v>
-      </c>
-      <c r="O132" s="443"/>
-      <c r="P132" s="443"/>
-      <c r="Q132" s="443"/>
-      <c r="R132" s="443"/>
-      <c r="S132" s="443"/>
-      <c r="T132" s="443"/>
-      <c r="U132" s="443"/>
-      <c r="V132" s="443"/>
-      <c r="W132" s="443"/>
-      <c r="X132" s="443"/>
-      <c r="Y132" s="443"/>
-      <c r="Z132" s="443"/>
-      <c r="AA132" s="443"/>
-      <c r="AB132" s="443"/>
-      <c r="AC132" s="443"/>
-      <c r="AD132" s="443"/>
-      <c r="AE132" s="443"/>
-      <c r="AF132" s="443"/>
-      <c r="AG132" s="443"/>
-      <c r="AH132" s="443"/>
-      <c r="AI132" s="444"/>
+      <c r="N132" s="274" t="s">
+        <v>116</v>
+      </c>
+      <c r="O132" s="275"/>
+      <c r="P132" s="275"/>
+      <c r="Q132" s="276"/>
+      <c r="R132" s="276"/>
+      <c r="S132" s="276"/>
+      <c r="T132" s="276"/>
+      <c r="U132" s="276"/>
+      <c r="V132" s="278"/>
+      <c r="W132" s="278"/>
+      <c r="X132" s="278"/>
+      <c r="Y132" s="278"/>
+      <c r="Z132" s="278"/>
+      <c r="AA132" s="278"/>
+      <c r="AB132" s="278"/>
+      <c r="AC132" s="278"/>
+      <c r="AD132" s="278"/>
+      <c r="AE132" s="278"/>
+      <c r="AF132" s="278"/>
+      <c r="AG132" s="278"/>
+      <c r="AH132" s="278"/>
+      <c r="AI132" s="279"/>
       <c r="AJ132" s="283" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK132" s="284"/>
-      <c r="AL132" s="284"/>
-      <c r="AM132" s="284"/>
-      <c r="AN132" s="284"/>
-      <c r="AO132" s="284"/>
-      <c r="AP132" s="284"/>
-      <c r="AQ132" s="284"/>
-      <c r="AR132" s="284"/>
-      <c r="AS132" s="284"/>
-      <c r="AT132" s="284"/>
-      <c r="AU132" s="285"/>
+        <v>123</v>
+      </c>
+      <c r="AK132" s="281"/>
+      <c r="AL132" s="281"/>
+      <c r="AM132" s="281"/>
+      <c r="AN132" s="281"/>
+      <c r="AO132" s="281"/>
+      <c r="AP132" s="281"/>
+      <c r="AQ132" s="281"/>
+      <c r="AR132" s="281"/>
+      <c r="AS132" s="281"/>
+      <c r="AT132" s="281"/>
+      <c r="AU132" s="282"/>
       <c r="AV132" s="37"/>
       <c r="AW132" s="38"/>
-      <c r="AY132" s="445"/>
-      <c r="AZ132" s="445"/>
-      <c r="BA132" s="445"/>
-      <c r="BB132" s="445"/>
-      <c r="BC132" s="445"/>
-      <c r="BD132" s="445"/>
-      <c r="BE132" s="445"/>
-      <c r="BF132" s="445"/>
-      <c r="BG132" s="445"/>
-      <c r="BH132" s="445"/>
-      <c r="BI132" s="445"/>
-      <c r="BJ132" s="445"/>
-      <c r="BK132" s="445"/>
+      <c r="AY132" s="262"/>
     </row>
     <row r="133" spans="1:63" ht="13.5" customHeight="1">
       <c r="A133" s="35"/>
       <c r="D133" s="37"/>
       <c r="E133" s="273">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F133" s="274" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G133" s="275"/>
       <c r="H133" s="275"/>
@@ -18343,165 +18333,186 @@
       <c r="K133" s="276"/>
       <c r="L133" s="276"/>
       <c r="M133" s="277"/>
-      <c r="N133" s="274" t="s">
-        <v>117</v>
-      </c>
-      <c r="O133" s="275"/>
-      <c r="P133" s="275"/>
-      <c r="Q133" s="276"/>
-      <c r="R133" s="276"/>
-      <c r="S133" s="276"/>
-      <c r="T133" s="276"/>
-      <c r="U133" s="276"/>
-      <c r="V133" s="278"/>
-      <c r="W133" s="278"/>
-      <c r="X133" s="278"/>
-      <c r="Y133" s="278"/>
-      <c r="Z133" s="278"/>
-      <c r="AA133" s="278"/>
-      <c r="AB133" s="278"/>
-      <c r="AC133" s="278"/>
-      <c r="AD133" s="278"/>
-      <c r="AE133" s="278"/>
-      <c r="AF133" s="278"/>
-      <c r="AG133" s="278"/>
-      <c r="AH133" s="278"/>
-      <c r="AI133" s="279"/>
-      <c r="AJ133" s="259" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK133" s="281"/>
-      <c r="AL133" s="281"/>
-      <c r="AM133" s="281"/>
-      <c r="AN133" s="281"/>
-      <c r="AO133" s="281"/>
-      <c r="AP133" s="281"/>
-      <c r="AQ133" s="281"/>
-      <c r="AR133" s="281"/>
-      <c r="AS133" s="281"/>
-      <c r="AT133" s="281"/>
-      <c r="AU133" s="282"/>
+      <c r="N133" s="442" t="s">
+        <v>116</v>
+      </c>
+      <c r="O133" s="443"/>
+      <c r="P133" s="443"/>
+      <c r="Q133" s="443"/>
+      <c r="R133" s="443"/>
+      <c r="S133" s="443"/>
+      <c r="T133" s="443"/>
+      <c r="U133" s="443"/>
+      <c r="V133" s="443"/>
+      <c r="W133" s="443"/>
+      <c r="X133" s="443"/>
+      <c r="Y133" s="443"/>
+      <c r="Z133" s="443"/>
+      <c r="AA133" s="443"/>
+      <c r="AB133" s="443"/>
+      <c r="AC133" s="443"/>
+      <c r="AD133" s="443"/>
+      <c r="AE133" s="443"/>
+      <c r="AF133" s="443"/>
+      <c r="AG133" s="443"/>
+      <c r="AH133" s="443"/>
+      <c r="AI133" s="444"/>
+      <c r="AJ133" s="283" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK133" s="284"/>
+      <c r="AL133" s="284"/>
+      <c r="AM133" s="284"/>
+      <c r="AN133" s="284"/>
+      <c r="AO133" s="284"/>
+      <c r="AP133" s="284"/>
+      <c r="AQ133" s="284"/>
+      <c r="AR133" s="284"/>
+      <c r="AS133" s="284"/>
+      <c r="AT133" s="284"/>
+      <c r="AU133" s="285"/>
       <c r="AV133" s="37"/>
       <c r="AW133" s="38"/>
-      <c r="AY133" s="262"/>
+      <c r="AY133" s="445"/>
+      <c r="AZ133" s="445"/>
+      <c r="BA133" s="445"/>
+      <c r="BB133" s="445"/>
+      <c r="BC133" s="445"/>
+      <c r="BD133" s="445"/>
+      <c r="BE133" s="445"/>
+      <c r="BF133" s="445"/>
+      <c r="BG133" s="445"/>
+      <c r="BH133" s="445"/>
+      <c r="BI133" s="445"/>
+      <c r="BJ133" s="445"/>
+      <c r="BK133" s="445"/>
     </row>
     <row r="134" spans="1:63" ht="13.5" customHeight="1">
       <c r="A134" s="35"/>
       <c r="D134" s="37"/>
-      <c r="E134" s="286">
-        <v>8</v>
-      </c>
-      <c r="F134" s="287" t="s">
+      <c r="E134" s="273">
+        <v>7</v>
+      </c>
+      <c r="F134" s="274" t="s">
         <v>81</v>
       </c>
-      <c r="G134" s="288"/>
-      <c r="H134" s="288"/>
-      <c r="I134" s="289"/>
-      <c r="J134" s="289"/>
-      <c r="K134" s="289"/>
-      <c r="L134" s="289"/>
-      <c r="M134" s="290"/>
-      <c r="N134" s="446" t="s">
-        <v>118</v>
-      </c>
-      <c r="O134" s="447"/>
-      <c r="P134" s="447"/>
-      <c r="Q134" s="447"/>
-      <c r="R134" s="447"/>
-      <c r="S134" s="447"/>
-      <c r="T134" s="447"/>
-      <c r="U134" s="447"/>
-      <c r="V134" s="447"/>
-      <c r="W134" s="447"/>
-      <c r="X134" s="447"/>
-      <c r="Y134" s="447"/>
-      <c r="Z134" s="447"/>
-      <c r="AA134" s="447"/>
-      <c r="AB134" s="447"/>
-      <c r="AC134" s="447"/>
-      <c r="AD134" s="447"/>
-      <c r="AE134" s="447"/>
-      <c r="AF134" s="447"/>
-      <c r="AG134" s="447"/>
-      <c r="AH134" s="447"/>
-      <c r="AI134" s="448"/>
+      <c r="G134" s="275"/>
+      <c r="H134" s="275"/>
+      <c r="I134" s="276"/>
+      <c r="J134" s="276"/>
+      <c r="K134" s="276"/>
+      <c r="L134" s="276"/>
+      <c r="M134" s="277"/>
+      <c r="N134" s="274" t="s">
+        <v>116</v>
+      </c>
+      <c r="O134" s="275"/>
+      <c r="P134" s="275"/>
+      <c r="Q134" s="276"/>
+      <c r="R134" s="276"/>
+      <c r="S134" s="276"/>
+      <c r="T134" s="276"/>
+      <c r="U134" s="276"/>
+      <c r="V134" s="278"/>
+      <c r="W134" s="278"/>
+      <c r="X134" s="278"/>
+      <c r="Y134" s="278"/>
+      <c r="Z134" s="278"/>
+      <c r="AA134" s="278"/>
+      <c r="AB134" s="278"/>
+      <c r="AC134" s="278"/>
+      <c r="AD134" s="278"/>
+      <c r="AE134" s="278"/>
+      <c r="AF134" s="278"/>
+      <c r="AG134" s="278"/>
+      <c r="AH134" s="278"/>
+      <c r="AI134" s="279"/>
       <c r="AJ134" s="259" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK134" s="284"/>
-      <c r="AL134" s="284"/>
-      <c r="AM134" s="284"/>
-      <c r="AN134" s="284"/>
-      <c r="AO134" s="284"/>
-      <c r="AP134" s="284"/>
-      <c r="AQ134" s="284"/>
-      <c r="AR134" s="284"/>
-      <c r="AS134" s="284"/>
-      <c r="AT134" s="284"/>
-      <c r="AU134" s="285"/>
+        <v>125</v>
+      </c>
+      <c r="AK134" s="281"/>
+      <c r="AL134" s="281"/>
+      <c r="AM134" s="281"/>
+      <c r="AN134" s="281"/>
+      <c r="AO134" s="281"/>
+      <c r="AP134" s="281"/>
+      <c r="AQ134" s="281"/>
+      <c r="AR134" s="281"/>
+      <c r="AS134" s="281"/>
+      <c r="AT134" s="281"/>
+      <c r="AU134" s="282"/>
       <c r="AV134" s="37"/>
       <c r="AW134" s="38"/>
       <c r="AY134" s="262"/>
-      <c r="AZ134" s="291"/>
-      <c r="BA134" s="291"/>
-      <c r="BB134" s="291"/>
-      <c r="BC134" s="291"/>
-      <c r="BD134" s="291"/>
-      <c r="BE134" s="291"/>
-      <c r="BF134" s="291"/>
-      <c r="BG134" s="291"/>
-      <c r="BH134" s="291"/>
-      <c r="BI134" s="291"/>
-      <c r="BJ134" s="291"/>
     </row>
     <row r="135" spans="1:63" ht="13.5" customHeight="1">
       <c r="A135" s="35"/>
       <c r="D135" s="37"/>
-      <c r="E135" s="181"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="37"/>
-      <c r="I135" s="37"/>
-      <c r="J135" s="37"/>
-      <c r="K135" s="37"/>
-      <c r="L135" s="37"/>
-      <c r="M135" s="37"/>
-      <c r="N135" s="37"/>
-      <c r="O135" s="37"/>
-      <c r="P135" s="37"/>
-      <c r="Q135" s="37"/>
-      <c r="R135" s="37"/>
-      <c r="S135" s="37"/>
-      <c r="T135" s="37"/>
-      <c r="U135" s="37"/>
-      <c r="V135" s="37"/>
-      <c r="W135" s="37"/>
-      <c r="X135" s="37"/>
-      <c r="Y135" s="37"/>
-      <c r="Z135" s="37"/>
-      <c r="AA135" s="37"/>
-      <c r="AB135" s="37"/>
-      <c r="AC135" s="37"/>
-      <c r="AD135" s="37"/>
-      <c r="AE135" s="34"/>
-      <c r="AF135" s="37"/>
-      <c r="AG135" s="37"/>
-      <c r="AH135" s="37"/>
-      <c r="AI135" s="37"/>
-      <c r="AJ135" s="37"/>
-      <c r="AK135" s="37"/>
-      <c r="AL135" s="37"/>
-      <c r="AM135" s="37"/>
-      <c r="AN135" s="37"/>
-      <c r="AO135" s="37"/>
-      <c r="AP135" s="37"/>
-      <c r="AQ135" s="37"/>
-      <c r="AR135" s="37"/>
-      <c r="AS135" s="37"/>
-      <c r="AT135" s="37"/>
-      <c r="AU135" s="37"/>
+      <c r="E135" s="286">
+        <v>8</v>
+      </c>
+      <c r="F135" s="287" t="s">
+        <v>81</v>
+      </c>
+      <c r="G135" s="288"/>
+      <c r="H135" s="288"/>
+      <c r="I135" s="289"/>
+      <c r="J135" s="289"/>
+      <c r="K135" s="289"/>
+      <c r="L135" s="289"/>
+      <c r="M135" s="290"/>
+      <c r="N135" s="446" t="s">
+        <v>117</v>
+      </c>
+      <c r="O135" s="447"/>
+      <c r="P135" s="447"/>
+      <c r="Q135" s="447"/>
+      <c r="R135" s="447"/>
+      <c r="S135" s="447"/>
+      <c r="T135" s="447"/>
+      <c r="U135" s="447"/>
+      <c r="V135" s="447"/>
+      <c r="W135" s="447"/>
+      <c r="X135" s="447"/>
+      <c r="Y135" s="447"/>
+      <c r="Z135" s="447"/>
+      <c r="AA135" s="447"/>
+      <c r="AB135" s="447"/>
+      <c r="AC135" s="447"/>
+      <c r="AD135" s="447"/>
+      <c r="AE135" s="447"/>
+      <c r="AF135" s="447"/>
+      <c r="AG135" s="447"/>
+      <c r="AH135" s="447"/>
+      <c r="AI135" s="448"/>
+      <c r="AJ135" s="259" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK135" s="284"/>
+      <c r="AL135" s="284"/>
+      <c r="AM135" s="284"/>
+      <c r="AN135" s="284"/>
+      <c r="AO135" s="284"/>
+      <c r="AP135" s="284"/>
+      <c r="AQ135" s="284"/>
+      <c r="AR135" s="284"/>
+      <c r="AS135" s="284"/>
+      <c r="AT135" s="284"/>
+      <c r="AU135" s="285"/>
       <c r="AV135" s="37"/>
       <c r="AW135" s="38"/>
+      <c r="AY135" s="262"/>
+      <c r="AZ135" s="291"/>
+      <c r="BA135" s="291"/>
+      <c r="BB135" s="291"/>
+      <c r="BC135" s="291"/>
+      <c r="BD135" s="291"/>
+      <c r="BE135" s="291"/>
+      <c r="BF135" s="291"/>
+      <c r="BG135" s="291"/>
+      <c r="BH135" s="291"/>
+      <c r="BI135" s="291"/>
+      <c r="BJ135" s="291"/>
     </row>
     <row r="136" spans="1:63" ht="13.5" customHeight="1">
       <c r="A136" s="35"/>
@@ -18554,212 +18565,212 @@
     </row>
     <row r="137" spans="1:63" ht="13.5" customHeight="1">
       <c r="A137" s="35"/>
-      <c r="C137" s="17" t="s">
-        <v>119</v>
-      </c>
       <c r="D137" s="37"/>
-      <c r="E137" s="292"/>
-      <c r="F137" s="244"/>
-      <c r="G137" s="244"/>
-      <c r="H137" s="244"/>
-      <c r="I137" s="244"/>
-      <c r="J137" s="244"/>
-      <c r="K137" s="244"/>
-      <c r="L137" s="244"/>
-      <c r="M137" s="244"/>
-      <c r="N137" s="244"/>
-      <c r="O137" s="244"/>
-      <c r="P137" s="244"/>
-      <c r="Q137" s="244"/>
-      <c r="R137" s="244"/>
-      <c r="S137" s="244"/>
-      <c r="T137" s="244"/>
-      <c r="U137" s="244"/>
-      <c r="V137" s="244"/>
-      <c r="W137" s="244"/>
-      <c r="X137" s="244"/>
-      <c r="Y137" s="244"/>
-      <c r="Z137" s="244"/>
-      <c r="AA137" s="244"/>
-      <c r="AB137" s="244"/>
-      <c r="AC137" s="244"/>
-      <c r="AD137" s="244"/>
-      <c r="AE137"/>
-      <c r="AF137" s="244"/>
-      <c r="AG137" s="244"/>
-      <c r="AH137" s="244"/>
-      <c r="AI137" s="244"/>
-      <c r="AJ137" s="244"/>
-      <c r="AK137" s="244"/>
-      <c r="AL137" s="244"/>
-      <c r="AM137" s="244"/>
-      <c r="AN137" s="244"/>
-      <c r="AO137" s="244"/>
-      <c r="AP137" s="244"/>
-      <c r="AQ137" s="244"/>
-      <c r="AR137" s="244"/>
-      <c r="AS137" s="244"/>
-      <c r="AT137" s="244"/>
-      <c r="AU137" s="244"/>
+      <c r="E137" s="181"/>
+      <c r="F137" s="37"/>
+      <c r="G137" s="37"/>
+      <c r="H137" s="37"/>
+      <c r="I137" s="37"/>
+      <c r="J137" s="37"/>
+      <c r="K137" s="37"/>
+      <c r="L137" s="37"/>
+      <c r="M137" s="37"/>
+      <c r="N137" s="37"/>
+      <c r="O137" s="37"/>
+      <c r="P137" s="37"/>
+      <c r="Q137" s="37"/>
+      <c r="R137" s="37"/>
+      <c r="S137" s="37"/>
+      <c r="T137" s="37"/>
+      <c r="U137" s="37"/>
+      <c r="V137" s="37"/>
+      <c r="W137" s="37"/>
+      <c r="X137" s="37"/>
+      <c r="Y137" s="37"/>
+      <c r="Z137" s="37"/>
+      <c r="AA137" s="37"/>
+      <c r="AB137" s="37"/>
+      <c r="AC137" s="37"/>
+      <c r="AD137" s="37"/>
+      <c r="AE137" s="34"/>
+      <c r="AF137" s="37"/>
+      <c r="AG137" s="37"/>
+      <c r="AH137" s="37"/>
+      <c r="AI137" s="37"/>
+      <c r="AJ137" s="37"/>
+      <c r="AK137" s="37"/>
+      <c r="AL137" s="37"/>
+      <c r="AM137" s="37"/>
+      <c r="AN137" s="37"/>
+      <c r="AO137" s="37"/>
+      <c r="AP137" s="37"/>
+      <c r="AQ137" s="37"/>
+      <c r="AR137" s="37"/>
+      <c r="AS137" s="37"/>
+      <c r="AT137" s="37"/>
+      <c r="AU137" s="37"/>
       <c r="AV137" s="37"/>
       <c r="AW137" s="38"/>
     </row>
     <row r="138" spans="1:63" ht="13.5" customHeight="1">
       <c r="A138" s="35"/>
-      <c r="D138" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E138" s="293"/>
-      <c r="F138" s="294"/>
-      <c r="G138" s="295"/>
-      <c r="H138" s="295"/>
-      <c r="I138" s="295"/>
-      <c r="J138" s="295"/>
-      <c r="K138" s="295"/>
-      <c r="L138" s="295"/>
-      <c r="M138" s="295"/>
-      <c r="N138" s="295"/>
-      <c r="O138" s="295"/>
-      <c r="P138" s="295"/>
-      <c r="Q138" s="295"/>
-      <c r="R138" s="295"/>
-      <c r="S138" s="295"/>
-      <c r="T138" s="295"/>
-      <c r="U138" s="295"/>
-      <c r="V138" s="295"/>
-      <c r="W138" s="295"/>
-      <c r="X138" s="295"/>
-      <c r="Y138" s="295"/>
-      <c r="Z138" s="295"/>
-      <c r="AA138" s="295"/>
-      <c r="AB138" s="295"/>
-      <c r="AC138" s="295"/>
-      <c r="AD138" s="295"/>
-      <c r="AE138" s="295"/>
-      <c r="AF138" s="295"/>
-      <c r="AG138" s="295"/>
-      <c r="AH138" s="295"/>
-      <c r="AI138" s="295"/>
-      <c r="AJ138" s="295"/>
-      <c r="AK138" s="295"/>
-      <c r="AL138" s="295"/>
-      <c r="AM138" s="295"/>
-      <c r="AN138" s="295"/>
-      <c r="AO138" s="295"/>
-      <c r="AP138" s="295"/>
-      <c r="AQ138" s="295"/>
-      <c r="AR138" s="295"/>
-      <c r="AS138" s="295"/>
-      <c r="AT138" s="295"/>
-      <c r="AU138" s="295"/>
+      <c r="C138" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D138" s="37"/>
+      <c r="E138" s="292"/>
+      <c r="F138" s="244"/>
+      <c r="G138" s="244"/>
+      <c r="H138" s="244"/>
+      <c r="I138" s="244"/>
+      <c r="J138" s="244"/>
+      <c r="K138" s="244"/>
+      <c r="L138" s="244"/>
+      <c r="M138" s="244"/>
+      <c r="N138" s="244"/>
+      <c r="O138" s="244"/>
+      <c r="P138" s="244"/>
+      <c r="Q138" s="244"/>
+      <c r="R138" s="244"/>
+      <c r="S138" s="244"/>
+      <c r="T138" s="244"/>
+      <c r="U138" s="244"/>
+      <c r="V138" s="244"/>
+      <c r="W138" s="244"/>
+      <c r="X138" s="244"/>
+      <c r="Y138" s="244"/>
+      <c r="Z138" s="244"/>
+      <c r="AA138" s="244"/>
+      <c r="AB138" s="244"/>
+      <c r="AC138" s="244"/>
+      <c r="AD138" s="244"/>
+      <c r="AE138"/>
+      <c r="AF138" s="244"/>
+      <c r="AG138" s="244"/>
+      <c r="AH138" s="244"/>
+      <c r="AI138" s="244"/>
+      <c r="AJ138" s="244"/>
+      <c r="AK138" s="244"/>
+      <c r="AL138" s="244"/>
+      <c r="AM138" s="244"/>
+      <c r="AN138" s="244"/>
+      <c r="AO138" s="244"/>
+      <c r="AP138" s="244"/>
+      <c r="AQ138" s="244"/>
+      <c r="AR138" s="244"/>
+      <c r="AS138" s="244"/>
+      <c r="AT138" s="244"/>
+      <c r="AU138" s="244"/>
       <c r="AV138" s="37"/>
       <c r="AW138" s="38"/>
     </row>
-    <row r="139" spans="1:63" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A139" s="40"/>
-      <c r="B139" s="296"/>
-      <c r="C139" s="297"/>
-      <c r="D139" s="41"/>
-      <c r="E139" s="298"/>
-      <c r="F139" s="298"/>
-      <c r="G139" s="298"/>
-      <c r="H139" s="298"/>
-      <c r="I139" s="298"/>
-      <c r="J139" s="298"/>
-      <c r="K139" s="298"/>
-      <c r="L139" s="298"/>
-      <c r="M139" s="298"/>
-      <c r="N139" s="298"/>
-      <c r="O139" s="298"/>
-      <c r="P139" s="298"/>
-      <c r="Q139" s="298"/>
-      <c r="R139" s="298"/>
-      <c r="S139" s="298"/>
-      <c r="T139" s="298"/>
-      <c r="U139" s="298"/>
-      <c r="V139" s="298"/>
-      <c r="W139" s="298"/>
-      <c r="X139" s="298"/>
-      <c r="Y139" s="298"/>
-      <c r="Z139" s="298"/>
-      <c r="AA139" s="298"/>
-      <c r="AB139" s="298"/>
-      <c r="AC139" s="298"/>
-      <c r="AD139" s="298"/>
-      <c r="AE139" s="298"/>
-      <c r="AF139" s="298"/>
-      <c r="AG139" s="298"/>
-      <c r="AH139" s="298"/>
-      <c r="AI139" s="298"/>
-      <c r="AJ139" s="298"/>
-      <c r="AK139" s="298"/>
-      <c r="AL139" s="298"/>
-      <c r="AM139" s="298"/>
-      <c r="AN139" s="298"/>
-      <c r="AO139" s="298"/>
-      <c r="AP139" s="298"/>
-      <c r="AQ139" s="298"/>
-      <c r="AR139" s="298"/>
-      <c r="AS139" s="298"/>
-      <c r="AT139" s="298"/>
-      <c r="AU139" s="298"/>
-      <c r="AV139" s="41"/>
-      <c r="AW139" s="42"/>
-    </row>
-    <row r="140" spans="1:63" ht="13.5" customHeight="1" thickTop="1"/>
-    <row r="152" ht="13" customHeight="1"/>
-    <row r="153" ht="17" customHeight="1"/>
-    <row r="154" ht="16" customHeight="1"/>
+    <row r="139" spans="1:63" ht="13.5" customHeight="1">
+      <c r="A139" s="35"/>
+      <c r="D139" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E139" s="293"/>
+      <c r="F139" s="294"/>
+      <c r="G139" s="295"/>
+      <c r="H139" s="295"/>
+      <c r="I139" s="295"/>
+      <c r="J139" s="295"/>
+      <c r="K139" s="295"/>
+      <c r="L139" s="295"/>
+      <c r="M139" s="295"/>
+      <c r="N139" s="295"/>
+      <c r="O139" s="295"/>
+      <c r="P139" s="295"/>
+      <c r="Q139" s="295"/>
+      <c r="R139" s="295"/>
+      <c r="S139" s="295"/>
+      <c r="T139" s="295"/>
+      <c r="U139" s="295"/>
+      <c r="V139" s="295"/>
+      <c r="W139" s="295"/>
+      <c r="X139" s="295"/>
+      <c r="Y139" s="295"/>
+      <c r="Z139" s="295"/>
+      <c r="AA139" s="295"/>
+      <c r="AB139" s="295"/>
+      <c r="AC139" s="295"/>
+      <c r="AD139" s="295"/>
+      <c r="AE139" s="295"/>
+      <c r="AF139" s="295"/>
+      <c r="AG139" s="295"/>
+      <c r="AH139" s="295"/>
+      <c r="AI139" s="295"/>
+      <c r="AJ139" s="295"/>
+      <c r="AK139" s="295"/>
+      <c r="AL139" s="295"/>
+      <c r="AM139" s="295"/>
+      <c r="AN139" s="295"/>
+      <c r="AO139" s="295"/>
+      <c r="AP139" s="295"/>
+      <c r="AQ139" s="295"/>
+      <c r="AR139" s="295"/>
+      <c r="AS139" s="295"/>
+      <c r="AT139" s="295"/>
+      <c r="AU139" s="295"/>
+      <c r="AV139" s="37"/>
+      <c r="AW139" s="38"/>
+    </row>
+    <row r="140" spans="1:63" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A140" s="40"/>
+      <c r="B140" s="296"/>
+      <c r="C140" s="297"/>
+      <c r="D140" s="41"/>
+      <c r="E140" s="298"/>
+      <c r="F140" s="298"/>
+      <c r="G140" s="298"/>
+      <c r="H140" s="298"/>
+      <c r="I140" s="298"/>
+      <c r="J140" s="298"/>
+      <c r="K140" s="298"/>
+      <c r="L140" s="298"/>
+      <c r="M140" s="298"/>
+      <c r="N140" s="298"/>
+      <c r="O140" s="298"/>
+      <c r="P140" s="298"/>
+      <c r="Q140" s="298"/>
+      <c r="R140" s="298"/>
+      <c r="S140" s="298"/>
+      <c r="T140" s="298"/>
+      <c r="U140" s="298"/>
+      <c r="V140" s="298"/>
+      <c r="W140" s="298"/>
+      <c r="X140" s="298"/>
+      <c r="Y140" s="298"/>
+      <c r="Z140" s="298"/>
+      <c r="AA140" s="298"/>
+      <c r="AB140" s="298"/>
+      <c r="AC140" s="298"/>
+      <c r="AD140" s="298"/>
+      <c r="AE140" s="298"/>
+      <c r="AF140" s="298"/>
+      <c r="AG140" s="298"/>
+      <c r="AH140" s="298"/>
+      <c r="AI140" s="298"/>
+      <c r="AJ140" s="298"/>
+      <c r="AK140" s="298"/>
+      <c r="AL140" s="298"/>
+      <c r="AM140" s="298"/>
+      <c r="AN140" s="298"/>
+      <c r="AO140" s="298"/>
+      <c r="AP140" s="298"/>
+      <c r="AQ140" s="298"/>
+      <c r="AR140" s="298"/>
+      <c r="AS140" s="298"/>
+      <c r="AT140" s="298"/>
+      <c r="AU140" s="298"/>
+      <c r="AV140" s="41"/>
+      <c r="AW140" s="42"/>
+    </row>
+    <row r="141" spans="1:63" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="153" ht="13" customHeight="1"/>
+    <row r="154" ht="17" customHeight="1"/>
     <row r="155" ht="16" customHeight="1"/>
-    <row r="161" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A161" s="35"/>
-      <c r="D161" s="37"/>
-      <c r="E161" s="299"/>
-      <c r="F161" s="299"/>
-      <c r="G161" s="299"/>
-      <c r="H161" s="299"/>
-      <c r="I161" s="299"/>
-      <c r="J161" s="299"/>
-      <c r="K161" s="299"/>
-      <c r="L161" s="300"/>
-      <c r="M161" s="300"/>
-      <c r="N161" s="300"/>
-      <c r="O161" s="300"/>
-      <c r="P161" s="300"/>
-      <c r="Q161" s="301"/>
-      <c r="R161" s="301"/>
-      <c r="S161" s="301"/>
-      <c r="T161" s="301"/>
-      <c r="U161" s="301"/>
-      <c r="V161" s="301"/>
-      <c r="W161" s="301"/>
-      <c r="X161" s="301"/>
-      <c r="Y161" s="301"/>
-      <c r="Z161" s="301"/>
-      <c r="AA161" s="301"/>
-      <c r="AB161" s="301"/>
-      <c r="AC161" s="301"/>
-      <c r="AD161" s="301"/>
-      <c r="AE161" s="301"/>
-      <c r="AF161" s="301"/>
-      <c r="AG161" s="301"/>
-      <c r="AH161" s="301"/>
-      <c r="AI161" s="301"/>
-      <c r="AJ161" s="301"/>
-      <c r="AK161" s="301"/>
-      <c r="AL161" s="301"/>
-      <c r="AM161" s="301"/>
-      <c r="AN161" s="301"/>
-      <c r="AO161" s="301"/>
-      <c r="AP161" s="301"/>
-      <c r="AQ161" s="301"/>
-      <c r="AR161" s="301"/>
-      <c r="AS161" s="301"/>
-      <c r="AT161" s="301"/>
-      <c r="AU161" s="301"/>
-      <c r="AV161" s="37"/>
-      <c r="AW161" s="37"/>
-    </row>
+    <row r="156" ht="16" customHeight="1"/>
     <row r="162" spans="1:49" ht="13.5" customHeight="1">
       <c r="A162" s="35"/>
       <c r="D162" s="37"/>
@@ -18910,57 +18921,57 @@
     <row r="165" spans="1:49" ht="13.5" customHeight="1">
       <c r="A165" s="35"/>
       <c r="D165" s="37"/>
-      <c r="E165" s="292"/>
-      <c r="F165" s="37"/>
-      <c r="G165" s="37"/>
-      <c r="H165" s="37"/>
-      <c r="I165" s="37"/>
-      <c r="J165" s="37"/>
-      <c r="K165" s="37"/>
-      <c r="L165" s="37"/>
-      <c r="M165" s="37"/>
-      <c r="N165" s="37"/>
-      <c r="O165" s="37"/>
-      <c r="P165" s="37"/>
-      <c r="Q165" s="37"/>
-      <c r="R165" s="37"/>
-      <c r="S165" s="37"/>
-      <c r="T165" s="37"/>
-      <c r="U165" s="37"/>
-      <c r="V165" s="37"/>
-      <c r="W165" s="37"/>
-      <c r="X165" s="37"/>
-      <c r="Y165" s="37"/>
-      <c r="Z165" s="244"/>
-      <c r="AA165" s="244"/>
-      <c r="AB165" s="244"/>
-      <c r="AC165" s="244"/>
-      <c r="AD165" s="244"/>
-      <c r="AE165"/>
-      <c r="AF165" s="244"/>
-      <c r="AG165" s="244"/>
-      <c r="AH165" s="244"/>
-      <c r="AI165" s="244"/>
-      <c r="AJ165" s="244"/>
-      <c r="AK165" s="244"/>
-      <c r="AL165" s="244"/>
-      <c r="AM165" s="244"/>
-      <c r="AN165" s="244"/>
-      <c r="AO165" s="244"/>
-      <c r="AP165" s="244"/>
-      <c r="AQ165" s="244"/>
-      <c r="AR165" s="244"/>
-      <c r="AS165" s="244"/>
-      <c r="AT165" s="244"/>
-      <c r="AU165" s="244"/>
+      <c r="E165" s="299"/>
+      <c r="F165" s="299"/>
+      <c r="G165" s="299"/>
+      <c r="H165" s="299"/>
+      <c r="I165" s="299"/>
+      <c r="J165" s="299"/>
+      <c r="K165" s="299"/>
+      <c r="L165" s="300"/>
+      <c r="M165" s="300"/>
+      <c r="N165" s="300"/>
+      <c r="O165" s="300"/>
+      <c r="P165" s="300"/>
+      <c r="Q165" s="301"/>
+      <c r="R165" s="301"/>
+      <c r="S165" s="301"/>
+      <c r="T165" s="301"/>
+      <c r="U165" s="301"/>
+      <c r="V165" s="301"/>
+      <c r="W165" s="301"/>
+      <c r="X165" s="301"/>
+      <c r="Y165" s="301"/>
+      <c r="Z165" s="301"/>
+      <c r="AA165" s="301"/>
+      <c r="AB165" s="301"/>
+      <c r="AC165" s="301"/>
+      <c r="AD165" s="301"/>
+      <c r="AE165" s="301"/>
+      <c r="AF165" s="301"/>
+      <c r="AG165" s="301"/>
+      <c r="AH165" s="301"/>
+      <c r="AI165" s="301"/>
+      <c r="AJ165" s="301"/>
+      <c r="AK165" s="301"/>
+      <c r="AL165" s="301"/>
+      <c r="AM165" s="301"/>
+      <c r="AN165" s="301"/>
+      <c r="AO165" s="301"/>
+      <c r="AP165" s="301"/>
+      <c r="AQ165" s="301"/>
+      <c r="AR165" s="301"/>
+      <c r="AS165" s="301"/>
+      <c r="AT165" s="301"/>
+      <c r="AU165" s="301"/>
       <c r="AV165" s="37"/>
       <c r="AW165" s="37"/>
     </row>
     <row r="166" spans="1:49" ht="13.5" customHeight="1">
       <c r="A166" s="35"/>
       <c r="D166" s="37"/>
-      <c r="E166" s="293"/>
-      <c r="F166" s="183"/>
+      <c r="E166" s="292"/>
+      <c r="F166" s="37"/>
       <c r="G166" s="37"/>
       <c r="H166" s="37"/>
       <c r="I166" s="37"/>
@@ -19007,28 +19018,28 @@
     </row>
     <row r="167" spans="1:49" ht="13.5" customHeight="1">
       <c r="A167" s="35"/>
-      <c r="D167" s="245"/>
-      <c r="E167" s="292"/>
-      <c r="F167" s="244"/>
-      <c r="G167" s="244"/>
-      <c r="H167" s="244"/>
-      <c r="I167" s="244"/>
-      <c r="J167" s="244"/>
-      <c r="K167" s="244"/>
-      <c r="L167" s="244"/>
-      <c r="M167" s="244"/>
-      <c r="N167" s="244"/>
-      <c r="O167" s="244"/>
-      <c r="P167" s="244"/>
-      <c r="Q167" s="244"/>
-      <c r="R167" s="244"/>
-      <c r="S167" s="244"/>
-      <c r="T167" s="244"/>
-      <c r="U167" s="244"/>
-      <c r="V167" s="244"/>
-      <c r="W167" s="244"/>
-      <c r="X167" s="244"/>
-      <c r="Y167" s="244"/>
+      <c r="D167" s="37"/>
+      <c r="E167" s="293"/>
+      <c r="F167" s="183"/>
+      <c r="G167" s="37"/>
+      <c r="H167" s="37"/>
+      <c r="I167" s="37"/>
+      <c r="J167" s="37"/>
+      <c r="K167" s="37"/>
+      <c r="L167" s="37"/>
+      <c r="M167" s="37"/>
+      <c r="N167" s="37"/>
+      <c r="O167" s="37"/>
+      <c r="P167" s="37"/>
+      <c r="Q167" s="37"/>
+      <c r="R167" s="37"/>
+      <c r="S167" s="37"/>
+      <c r="T167" s="37"/>
+      <c r="U167" s="37"/>
+      <c r="V167" s="37"/>
+      <c r="W167" s="37"/>
+      <c r="X167" s="37"/>
+      <c r="Y167" s="37"/>
       <c r="Z167" s="244"/>
       <c r="AA167" s="244"/>
       <c r="AB167" s="244"/>
@@ -19057,8 +19068,8 @@
     <row r="168" spans="1:49" ht="13.5" customHeight="1">
       <c r="A168" s="35"/>
       <c r="D168" s="245"/>
-      <c r="E168" s="245"/>
-      <c r="F168" s="302"/>
+      <c r="E168" s="292"/>
+      <c r="F168" s="244"/>
       <c r="G168" s="244"/>
       <c r="H168" s="244"/>
       <c r="I168" s="244"/>
@@ -19106,7 +19117,7 @@
     <row r="169" spans="1:49" ht="13.5" customHeight="1">
       <c r="A169" s="35"/>
       <c r="D169" s="245"/>
-      <c r="E169" s="292"/>
+      <c r="E169" s="245"/>
       <c r="F169" s="302"/>
       <c r="G169" s="244"/>
       <c r="H169" s="244"/>
@@ -19155,48 +19166,48 @@
     <row r="170" spans="1:49" ht="13.5" customHeight="1">
       <c r="A170" s="35"/>
       <c r="D170" s="245"/>
-      <c r="E170" s="303"/>
-      <c r="F170" s="303"/>
-      <c r="G170" s="303"/>
-      <c r="H170" s="303"/>
-      <c r="I170" s="449"/>
-      <c r="J170" s="449"/>
-      <c r="K170" s="449"/>
-      <c r="L170" s="449"/>
-      <c r="M170" s="449"/>
-      <c r="N170" s="449"/>
-      <c r="O170" s="449"/>
-      <c r="P170" s="449"/>
-      <c r="Q170" s="449"/>
-      <c r="R170" s="449"/>
-      <c r="S170" s="449"/>
-      <c r="T170" s="449"/>
-      <c r="U170" s="449"/>
-      <c r="V170" s="449"/>
-      <c r="W170" s="449"/>
-      <c r="X170" s="449"/>
-      <c r="Y170" s="449"/>
-      <c r="Z170" s="449"/>
-      <c r="AA170" s="449"/>
-      <c r="AB170" s="449"/>
-      <c r="AC170" s="449"/>
-      <c r="AD170" s="449"/>
-      <c r="AE170" s="449"/>
-      <c r="AF170" s="449"/>
-      <c r="AG170" s="449"/>
-      <c r="AH170" s="449"/>
-      <c r="AI170" s="449"/>
-      <c r="AJ170" s="449"/>
-      <c r="AK170" s="449"/>
-      <c r="AL170" s="449"/>
-      <c r="AM170" s="449"/>
-      <c r="AN170" s="449"/>
-      <c r="AO170" s="449"/>
-      <c r="AP170" s="449"/>
-      <c r="AQ170" s="449"/>
-      <c r="AR170" s="449"/>
-      <c r="AS170" s="449"/>
-      <c r="AT170" s="449"/>
+      <c r="E170" s="292"/>
+      <c r="F170" s="302"/>
+      <c r="G170" s="244"/>
+      <c r="H170" s="244"/>
+      <c r="I170" s="244"/>
+      <c r="J170" s="244"/>
+      <c r="K170" s="244"/>
+      <c r="L170" s="244"/>
+      <c r="M170" s="244"/>
+      <c r="N170" s="244"/>
+      <c r="O170" s="244"/>
+      <c r="P170" s="244"/>
+      <c r="Q170" s="244"/>
+      <c r="R170" s="244"/>
+      <c r="S170" s="244"/>
+      <c r="T170" s="244"/>
+      <c r="U170" s="244"/>
+      <c r="V170" s="244"/>
+      <c r="W170" s="244"/>
+      <c r="X170" s="244"/>
+      <c r="Y170" s="244"/>
+      <c r="Z170" s="244"/>
+      <c r="AA170" s="244"/>
+      <c r="AB170" s="244"/>
+      <c r="AC170" s="244"/>
+      <c r="AD170" s="244"/>
+      <c r="AE170"/>
+      <c r="AF170" s="244"/>
+      <c r="AG170" s="244"/>
+      <c r="AH170" s="244"/>
+      <c r="AI170" s="244"/>
+      <c r="AJ170" s="244"/>
+      <c r="AK170" s="244"/>
+      <c r="AL170" s="244"/>
+      <c r="AM170" s="244"/>
+      <c r="AN170" s="244"/>
+      <c r="AO170" s="244"/>
+      <c r="AP170" s="244"/>
+      <c r="AQ170" s="244"/>
+      <c r="AR170" s="244"/>
+      <c r="AS170" s="244"/>
+      <c r="AT170" s="244"/>
       <c r="AU170" s="244"/>
       <c r="AV170" s="37"/>
       <c r="AW170" s="37"/>
@@ -19204,48 +19215,48 @@
     <row r="171" spans="1:49" ht="13.5" customHeight="1">
       <c r="A171" s="35"/>
       <c r="D171" s="245"/>
-      <c r="E171" s="450"/>
-      <c r="F171" s="450"/>
-      <c r="G171" s="450"/>
-      <c r="H171" s="450"/>
-      <c r="I171" s="244"/>
-      <c r="J171" s="244"/>
-      <c r="K171" s="244"/>
-      <c r="L171" s="244"/>
-      <c r="M171" s="244"/>
-      <c r="N171" s="244"/>
-      <c r="O171" s="244"/>
-      <c r="P171" s="244"/>
-      <c r="Q171" s="244"/>
-      <c r="R171" s="244"/>
-      <c r="S171" s="244"/>
-      <c r="T171" s="244"/>
-      <c r="U171" s="244"/>
-      <c r="V171" s="244"/>
-      <c r="W171" s="244"/>
-      <c r="X171" s="244"/>
-      <c r="Y171" s="244"/>
-      <c r="Z171" s="244"/>
-      <c r="AA171" s="244"/>
-      <c r="AB171" s="244"/>
-      <c r="AC171" s="244"/>
-      <c r="AD171" s="244"/>
-      <c r="AE171"/>
-      <c r="AF171" s="244"/>
-      <c r="AG171" s="244"/>
-      <c r="AH171" s="244"/>
-      <c r="AI171" s="244"/>
-      <c r="AJ171" s="259"/>
-      <c r="AK171" s="244"/>
-      <c r="AL171" s="244"/>
-      <c r="AM171" s="244"/>
-      <c r="AN171" s="244"/>
-      <c r="AO171" s="244"/>
-      <c r="AP171" s="244"/>
-      <c r="AQ171" s="244"/>
-      <c r="AR171" s="244"/>
-      <c r="AS171" s="244"/>
-      <c r="AT171" s="244"/>
+      <c r="E171" s="303"/>
+      <c r="F171" s="303"/>
+      <c r="G171" s="303"/>
+      <c r="H171" s="303"/>
+      <c r="I171" s="449"/>
+      <c r="J171" s="449"/>
+      <c r="K171" s="449"/>
+      <c r="L171" s="449"/>
+      <c r="M171" s="449"/>
+      <c r="N171" s="449"/>
+      <c r="O171" s="449"/>
+      <c r="P171" s="449"/>
+      <c r="Q171" s="449"/>
+      <c r="R171" s="449"/>
+      <c r="S171" s="449"/>
+      <c r="T171" s="449"/>
+      <c r="U171" s="449"/>
+      <c r="V171" s="449"/>
+      <c r="W171" s="449"/>
+      <c r="X171" s="449"/>
+      <c r="Y171" s="449"/>
+      <c r="Z171" s="449"/>
+      <c r="AA171" s="449"/>
+      <c r="AB171" s="449"/>
+      <c r="AC171" s="449"/>
+      <c r="AD171" s="449"/>
+      <c r="AE171" s="449"/>
+      <c r="AF171" s="449"/>
+      <c r="AG171" s="449"/>
+      <c r="AH171" s="449"/>
+      <c r="AI171" s="449"/>
+      <c r="AJ171" s="449"/>
+      <c r="AK171" s="449"/>
+      <c r="AL171" s="449"/>
+      <c r="AM171" s="449"/>
+      <c r="AN171" s="449"/>
+      <c r="AO171" s="449"/>
+      <c r="AP171" s="449"/>
+      <c r="AQ171" s="449"/>
+      <c r="AR171" s="449"/>
+      <c r="AS171" s="449"/>
+      <c r="AT171" s="449"/>
       <c r="AU171" s="244"/>
       <c r="AV171" s="37"/>
       <c r="AW171" s="37"/>
@@ -19253,10 +19264,10 @@
     <row r="172" spans="1:49" ht="13.5" customHeight="1">
       <c r="A172" s="35"/>
       <c r="D172" s="245"/>
-      <c r="E172" s="441"/>
-      <c r="F172" s="441"/>
-      <c r="G172" s="441"/>
-      <c r="H172" s="441"/>
+      <c r="E172" s="450"/>
+      <c r="F172" s="450"/>
+      <c r="G172" s="450"/>
+      <c r="H172" s="450"/>
       <c r="I172" s="244"/>
       <c r="J172" s="244"/>
       <c r="K172" s="244"/>
@@ -19302,10 +19313,10 @@
     <row r="173" spans="1:49" ht="13.5" customHeight="1">
       <c r="A173" s="35"/>
       <c r="D173" s="245"/>
-      <c r="E173" s="244"/>
-      <c r="F173" s="244"/>
-      <c r="G173" s="244"/>
-      <c r="H173" s="244"/>
+      <c r="E173" s="441"/>
+      <c r="F173" s="441"/>
+      <c r="G173" s="441"/>
+      <c r="H173" s="441"/>
       <c r="I173" s="244"/>
       <c r="J173" s="244"/>
       <c r="K173" s="244"/>
@@ -19643,56 +19654,59 @@
       <c r="AW179" s="37"/>
     </row>
     <row r="180" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A180" s="37"/>
-      <c r="C180" s="37"/>
-      <c r="D180" s="34"/>
-      <c r="E180" s="292"/>
-      <c r="F180" s="34"/>
-      <c r="G180" s="34"/>
-      <c r="H180" s="34"/>
-      <c r="I180" s="34"/>
-      <c r="J180" s="34"/>
-      <c r="K180" s="34"/>
-      <c r="L180" s="34"/>
-      <c r="M180" s="34"/>
-      <c r="N180" s="34"/>
-      <c r="O180" s="34"/>
-      <c r="P180" s="34"/>
-      <c r="Q180" s="34"/>
-      <c r="R180" s="34"/>
-      <c r="S180" s="34"/>
-      <c r="T180" s="34"/>
-      <c r="U180" s="34"/>
-      <c r="V180" s="34"/>
-      <c r="W180" s="34"/>
-      <c r="X180" s="34"/>
-      <c r="Y180" s="34"/>
-      <c r="Z180" s="34"/>
-      <c r="AA180" s="34"/>
-      <c r="AB180" s="34"/>
-      <c r="AC180" s="34"/>
-      <c r="AD180" s="34"/>
-      <c r="AE180" s="34"/>
-      <c r="AF180" s="34"/>
-      <c r="AG180" s="34"/>
-      <c r="AH180" s="34"/>
-      <c r="AI180" s="34"/>
-      <c r="AJ180" s="34"/>
-      <c r="AK180" s="34"/>
-      <c r="AL180" s="34"/>
-      <c r="AM180" s="34"/>
-      <c r="AN180" s="34"/>
-      <c r="AO180" s="34"/>
-      <c r="AP180" s="34"/>
-      <c r="AQ180" s="34"/>
-      <c r="AR180" s="34"/>
-      <c r="AS180" s="34"/>
-      <c r="AT180" s="34"/>
-      <c r="AU180" s="34"/>
+      <c r="A180" s="35"/>
+      <c r="D180" s="245"/>
+      <c r="E180" s="244"/>
+      <c r="F180" s="244"/>
+      <c r="G180" s="244"/>
+      <c r="H180" s="244"/>
+      <c r="I180" s="244"/>
+      <c r="J180" s="244"/>
+      <c r="K180" s="244"/>
+      <c r="L180" s="244"/>
+      <c r="M180" s="244"/>
+      <c r="N180" s="244"/>
+      <c r="O180" s="244"/>
+      <c r="P180" s="244"/>
+      <c r="Q180" s="244"/>
+      <c r="R180" s="244"/>
+      <c r="S180" s="244"/>
+      <c r="T180" s="244"/>
+      <c r="U180" s="244"/>
+      <c r="V180" s="244"/>
+      <c r="W180" s="244"/>
+      <c r="X180" s="244"/>
+      <c r="Y180" s="244"/>
+      <c r="Z180" s="244"/>
+      <c r="AA180" s="244"/>
+      <c r="AB180" s="244"/>
+      <c r="AC180" s="244"/>
+      <c r="AD180" s="244"/>
+      <c r="AE180"/>
+      <c r="AF180" s="244"/>
+      <c r="AG180" s="244"/>
+      <c r="AH180" s="244"/>
+      <c r="AI180" s="244"/>
+      <c r="AJ180" s="259"/>
+      <c r="AK180" s="244"/>
+      <c r="AL180" s="244"/>
+      <c r="AM180" s="244"/>
+      <c r="AN180" s="244"/>
+      <c r="AO180" s="244"/>
+      <c r="AP180" s="244"/>
+      <c r="AQ180" s="244"/>
+      <c r="AR180" s="244"/>
+      <c r="AS180" s="244"/>
+      <c r="AT180" s="244"/>
+      <c r="AU180" s="244"/>
       <c r="AV180" s="37"/>
       <c r="AW180" s="37"/>
     </row>
     <row r="181" spans="1:50" ht="13.5" customHeight="1">
+      <c r="A181" s="37"/>
+      <c r="C181" s="37"/>
+      <c r="D181" s="34"/>
+      <c r="E181" s="292"/>
       <c r="F181" s="34"/>
       <c r="G181" s="34"/>
       <c r="H181" s="34"/>
@@ -19735,7 +19749,8 @@
       <c r="AS181" s="34"/>
       <c r="AT181" s="34"/>
       <c r="AU181" s="34"/>
-      <c r="AX181" s="34"/>
+      <c r="AV181" s="37"/>
+      <c r="AW181" s="37"/>
     </row>
     <row r="182" spans="1:50" ht="13.5" customHeight="1">
       <c r="F182" s="34"/>
@@ -19780,25 +19795,80 @@
       <c r="AS182" s="34"/>
       <c r="AT182" s="34"/>
       <c r="AU182" s="34"/>
+      <c r="AX182" s="34"/>
+    </row>
+    <row r="183" spans="1:50" ht="13.5" customHeight="1">
+      <c r="F183" s="34"/>
+      <c r="G183" s="34"/>
+      <c r="H183" s="34"/>
+      <c r="I183" s="34"/>
+      <c r="J183" s="34"/>
+      <c r="K183" s="34"/>
+      <c r="L183" s="34"/>
+      <c r="M183" s="34"/>
+      <c r="N183" s="34"/>
+      <c r="O183" s="34"/>
+      <c r="P183" s="34"/>
+      <c r="Q183" s="34"/>
+      <c r="R183" s="34"/>
+      <c r="S183" s="34"/>
+      <c r="T183" s="34"/>
+      <c r="U183" s="34"/>
+      <c r="V183" s="34"/>
+      <c r="W183" s="34"/>
+      <c r="X183" s="34"/>
+      <c r="Y183" s="34"/>
+      <c r="Z183" s="34"/>
+      <c r="AA183" s="34"/>
+      <c r="AB183" s="34"/>
+      <c r="AC183" s="34"/>
+      <c r="AD183" s="34"/>
+      <c r="AE183" s="34"/>
+      <c r="AF183" s="34"/>
+      <c r="AG183" s="34"/>
+      <c r="AH183" s="34"/>
+      <c r="AI183" s="34"/>
+      <c r="AJ183" s="34"/>
+      <c r="AK183" s="34"/>
+      <c r="AL183" s="34"/>
+      <c r="AM183" s="34"/>
+      <c r="AN183" s="34"/>
+      <c r="AO183" s="34"/>
+      <c r="AP183" s="34"/>
+      <c r="AQ183" s="34"/>
+      <c r="AR183" s="34"/>
+      <c r="AS183" s="34"/>
+      <c r="AT183" s="34"/>
+      <c r="AU183" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="AT81:AW81"/>
-    <mergeCell ref="AM80:AN80"/>
-    <mergeCell ref="E172:H172"/>
-    <mergeCell ref="N132:AI132"/>
-    <mergeCell ref="AY132:BK132"/>
-    <mergeCell ref="N134:AI134"/>
-    <mergeCell ref="I170:AI170"/>
-    <mergeCell ref="AJ170:AT170"/>
-    <mergeCell ref="E171:H171"/>
-    <mergeCell ref="A80:I82"/>
-    <mergeCell ref="J80:O82"/>
-    <mergeCell ref="P80:U82"/>
-    <mergeCell ref="V80:Z81"/>
-    <mergeCell ref="AA80:AL81"/>
-    <mergeCell ref="V82:Z82"/>
-    <mergeCell ref="AA82:AG82"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AR81:AS81"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="J38:O40"/>
+    <mergeCell ref="P38:U40"/>
+    <mergeCell ref="V38:Z39"/>
+    <mergeCell ref="AA38:AL39"/>
+    <mergeCell ref="V40:Z40"/>
+    <mergeCell ref="AA40:AG40"/>
+    <mergeCell ref="AH40:AL40"/>
+    <mergeCell ref="AM3:AW3"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="P1:U3"/>
+    <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AA1:AL2"/>
     <mergeCell ref="AH82:AL82"/>
     <mergeCell ref="AM82:AW82"/>
     <mergeCell ref="AO38:AQ38"/>
@@ -19815,32 +19885,22 @@
     <mergeCell ref="AT80:AW80"/>
     <mergeCell ref="AM81:AN81"/>
     <mergeCell ref="AO81:AQ81"/>
-    <mergeCell ref="AR81:AS81"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="J38:O40"/>
-    <mergeCell ref="P38:U40"/>
-    <mergeCell ref="V38:Z39"/>
-    <mergeCell ref="AA38:AL39"/>
-    <mergeCell ref="V40:Z40"/>
-    <mergeCell ref="AA40:AG40"/>
-    <mergeCell ref="AH40:AL40"/>
-    <mergeCell ref="AM3:AW3"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="P1:U3"/>
-    <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AA1:AL2"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="AM80:AN80"/>
+    <mergeCell ref="E173:H173"/>
+    <mergeCell ref="N133:AI133"/>
+    <mergeCell ref="AY133:BK133"/>
+    <mergeCell ref="N135:AI135"/>
+    <mergeCell ref="I171:AI171"/>
+    <mergeCell ref="AJ171:AT171"/>
+    <mergeCell ref="E172:H172"/>
+    <mergeCell ref="A80:I82"/>
+    <mergeCell ref="J80:O82"/>
+    <mergeCell ref="P80:U82"/>
+    <mergeCell ref="V80:Z81"/>
+    <mergeCell ref="AA80:AL81"/>
+    <mergeCell ref="V82:Z82"/>
+    <mergeCell ref="AA82:AG82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
